--- a/Running projects/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/Running Bills/Final - BAH 2nd & 23rd Floor (On Total Rates).xlsx
+++ b/Running projects/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/Running Bills/Final - BAH 2nd & 23rd Floor (On Total Rates).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Bank Al-Habib Offices at 22nd &amp; 23rd Floor Center Point Karachi\Running Bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE9DCAB-C0C8-41BD-81FC-254F7E8424A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07809CDB-0F5B-494F-BF9E-937430B4B0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="12" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Fire 22nd'!$A$1:$O$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Fire 23rd'!$A$1:$O$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'HVAC 22nd Floor'!$A$1:$P$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'HVAC 23rd Floor'!$A$1:$P$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$47</definedName>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="171">
   <si>
     <t>Sr.</t>
   </si>
@@ -2542,9 +2544,6 @@
     <t>Bill of Quantities</t>
   </si>
   <si>
-    <t>RUNNING BILL NO 1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2687,9 +2686,6 @@
     </r>
   </si>
   <si>
-    <t>SUMMARY OF RUNNING BILL NO 1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2821,6 +2817,9 @@
   <si>
     <t>Total QTY</t>
   </si>
+  <si>
+    <t>SUMMARY OF FINAL BILL</t>
+  </si>
 </sst>
 </file>
 
@@ -2832,7 +2831,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="98" x14ac:knownFonts="1">
+  <fonts count="97" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3529,12 +3528,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4032,12 +4025,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="97" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4489,9 +4481,6 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -4549,6 +4538,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="32" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4582,9 +4583,6 @@
     <xf numFmtId="0" fontId="94" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4609,6 +4607,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -4648,41 +4655,73 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="32" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="32" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="32" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="42" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5794,7 +5833,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>602237</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6013,7 +6052,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="678560" y="10166921"/>
+          <a:off x="678560" y="10235183"/>
           <a:ext cx="387350" cy="12700"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="387350" cy="12700"/>
@@ -6154,7 +6193,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6209,7 +6248,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>602237</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6428,7 +6467,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="678560" y="10428858"/>
+          <a:off x="678560" y="10230421"/>
           <a:ext cx="387350" cy="12700"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="387350" cy="12700"/>
@@ -6569,7 +6608,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6909,8 +6948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCF929F-FB20-4935-9641-63EA9CE81B38}">
   <dimension ref="A4:E31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6959,14 +6998,14 @@
         <v>141</v>
       </c>
       <c r="E12" s="116">
-        <v>45205</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="174" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="171"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="117"/>
       <c r="D13" s="117"/>
       <c r="E13" s="118"/>
@@ -6976,13 +7015,13 @@
       <c r="E14" s="118"/>
     </row>
     <row r="15" spans="1:5" s="113" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="172" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
+      <c r="A15" s="175" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
     </row>
     <row r="16" spans="1:5" s="113" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="120"/>
@@ -7009,7 +7048,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="160">
+      <c r="A18" s="159">
         <v>1</v>
       </c>
       <c r="B18" s="125" t="s">
@@ -7017,19 +7056,19 @@
       </c>
       <c r="C18" s="126">
         <f>'HVAC 22nd Floor'!K69</f>
-        <v>13125993.5</v>
+        <v>1948672.4</v>
       </c>
       <c r="D18" s="126">
         <f>'HVAC 22nd Floor'!O69</f>
-        <v>1004056.5</v>
-      </c>
-      <c r="E18" s="161">
+        <v>347232.69999999995</v>
+      </c>
+      <c r="E18" s="160">
         <f>'HVAC 22nd Floor'!P69</f>
-        <v>14130050</v>
+        <v>2295905.0999999996</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="162">
+      <c r="A19" s="161">
         <v>2</v>
       </c>
       <c r="B19" s="127" t="s">
@@ -7037,94 +7076,94 @@
       </c>
       <c r="C19" s="128">
         <f>'HVAC 23rd Floor'!K70</f>
-        <v>12293464.5</v>
+        <v>3206770.25</v>
       </c>
       <c r="D19" s="128">
         <f>'HVAC 23rd Floor'!O70</f>
-        <v>844753.5</v>
-      </c>
-      <c r="E19" s="163">
+        <v>483086.39999999997</v>
+      </c>
+      <c r="E19" s="162">
         <f>'HVAC 23rd Floor'!P70</f>
-        <v>13138218</v>
+        <v>3689856.65</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="164"/>
-      <c r="B20" s="158" t="s">
+      <c r="A20" s="163"/>
+      <c r="B20" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="165">
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="164">
         <f>E19+E18</f>
-        <v>27268268</v>
+        <v>5985761.75</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="166"/>
-      <c r="B21" s="167"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="168"/>
+      <c r="A21" s="165"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="167"/>
     </row>
     <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="162">
+      <c r="A22" s="161">
         <v>3</v>
       </c>
       <c r="B22" s="127" t="s">
         <v>151</v>
       </c>
       <c r="C22" s="128">
-        <f>'Fire 22nd'!H22</f>
-        <v>2455204.19</v>
+        <f>'Fire 22nd'!J22</f>
+        <v>380534.19</v>
       </c>
       <c r="D22" s="128">
-        <f>'Fire 22nd'!J22</f>
-        <v>536974.01</v>
-      </c>
-      <c r="E22" s="163">
-        <f>'Fire 22nd'!K22</f>
-        <v>2992178.2</v>
+        <f>'Fire 22nd'!N22</f>
+        <v>359487.81000000006</v>
+      </c>
+      <c r="E22" s="162">
+        <f>'Fire 22nd'!O22</f>
+        <v>740022</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="162">
+      <c r="A23" s="161">
         <v>4</v>
       </c>
       <c r="B23" s="127" t="s">
         <v>152</v>
       </c>
       <c r="C23" s="128">
-        <f>'Fire 23rd'!H23</f>
-        <v>2074932.24</v>
+        <f>'Fire 23rd'!J23</f>
+        <v>986384.19</v>
       </c>
       <c r="D23" s="128">
-        <f>'Fire 23rd'!J23</f>
-        <v>444977.98</v>
-      </c>
-      <c r="E23" s="163">
-        <f>'Fire 23rd'!K23</f>
-        <v>2519910.2199999997</v>
+        <f>'Fire 23rd'!N23</f>
+        <v>211437.81</v>
+      </c>
+      <c r="E23" s="162">
+        <f>'Fire 23rd'!O23</f>
+        <v>1197822</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="164"/>
-      <c r="B24" s="158" t="s">
+      <c r="A24" s="163"/>
+      <c r="B24" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="165">
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="164">
         <f>E23+E22</f>
-        <v>5512088.4199999999</v>
+        <v>1937844</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="166"/>
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="168"/>
+      <c r="A25" s="165"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="167"/>
     </row>
     <row r="26" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="121"/>
@@ -7133,15 +7172,15 @@
       </c>
       <c r="C26" s="129">
         <f>C23+C22+C19+C18</f>
-        <v>29949594.43</v>
+        <v>6522361.0299999993</v>
       </c>
       <c r="D26" s="129">
         <f>D23+D22+D19+D18</f>
-        <v>2830761.99</v>
+        <v>1401244.72</v>
       </c>
       <c r="E26" s="129">
         <f>E24+E20</f>
-        <v>32780356.420000002</v>
+        <v>7923605.75</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -7179,8 +7218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E680CEF-CDBB-4B93-8860-904931DE0C82}">
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:P3"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
@@ -7211,113 +7250,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="179"/>
-      <c r="N1" s="179"/>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
+      <c r="A1" s="181" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
+      <c r="P1" s="182"/>
       <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="184" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="204" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="206"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="193" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="195"/>
       <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="185" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="187" t="s">
+      <c r="A3" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="187" t="s">
+      <c r="E3" s="189" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="191" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="189" t="s">
+      <c r="G3" s="191" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="189" t="s">
+      <c r="H3" s="168" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="168" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="145" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="145" t="s">
         <v>158</v>
       </c>
-      <c r="H3" s="169" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" s="169" t="s">
+      <c r="M3" s="168" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="145" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" s="145" t="s">
+      <c r="O3" s="145" t="s">
         <v>160</v>
       </c>
-      <c r="L3" s="145" t="s">
-        <v>159</v>
-      </c>
-      <c r="M3" s="169" t="s">
-        <v>169</v>
-      </c>
-      <c r="N3" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="O3" s="145" t="s">
+      <c r="P3" s="145" t="s">
         <v>161</v>
       </c>
-      <c r="P3" s="145" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="4" spans="1:17" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="184"/>
-      <c r="B4" s="186"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
+      <c r="A4" s="186"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
       <c r="J4" s="145"/>
       <c r="K4" s="145"/>
       <c r="L4" s="145"/>
-      <c r="M4" s="170"/>
+      <c r="M4" s="169"/>
       <c r="N4" s="145"/>
       <c r="O4" s="145"/>
       <c r="P4" s="145" t="s">
@@ -7391,24 +7430,26 @@
         <v>0</v>
       </c>
       <c r="K7" s="80">
-        <f>J7*F7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="207">
+        <f>I7*F7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="152">
         <v>0.8</v>
       </c>
-      <c r="M7" s="80"/>
-      <c r="N7" s="207">
+      <c r="M7" s="152">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="152">
         <f>M7+L7</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O7" s="80">
-        <f>L7*G7</f>
-        <v>84000</v>
+        <f>M7*G7</f>
+        <v>21000</v>
       </c>
       <c r="P7" s="80">
         <f>O7+K7</f>
-        <v>84000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="300" x14ac:dyDescent="0.3">
@@ -7437,8 +7478,8 @@
         <f>I8+H8</f>
         <v>0</v>
       </c>
-      <c r="K8" s="81">
-        <f>J8*F8</f>
+      <c r="K8" s="80">
+        <f t="shared" ref="K8:K68" si="0">I8*F8</f>
         <v>0</v>
       </c>
       <c r="L8" s="81">
@@ -7449,13 +7490,13 @@
         <f>M8+L8</f>
         <v>2</v>
       </c>
-      <c r="O8" s="81">
-        <f>L8*G8</f>
-        <v>10500</v>
+      <c r="O8" s="80">
+        <f t="shared" ref="O8:O68" si="1">M8*G8</f>
+        <v>0</v>
       </c>
       <c r="P8" s="81">
         <f>O8+K8</f>
-        <v>10500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7477,14 +7518,20 @@
       <c r="H9" s="86"/>
       <c r="I9" s="86"/>
       <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
+      <c r="K9" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L9" s="80">
-        <f t="shared" ref="L9:L68" si="0">J9</f>
+        <f t="shared" ref="L9:L65" si="2">J9</f>
         <v>0</v>
       </c>
       <c r="M9" s="86"/>
       <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
+      <c r="O9" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P9" s="84"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -7504,14 +7551,20 @@
       <c r="H10" s="86"/>
       <c r="I10" s="86"/>
       <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
+      <c r="K10" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L10" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M10" s="86"/>
       <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
+      <c r="O10" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P10" s="84"/>
     </row>
     <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -7537,31 +7590,35 @@
       <c r="H11" s="80">
         <v>4</v>
       </c>
-      <c r="I11" s="80"/>
+      <c r="I11" s="80">
+        <v>1</v>
+      </c>
       <c r="J11" s="80">
         <f>I11+H11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11" s="80">
-        <f>J11*F11</f>
-        <v>35072</v>
+        <f t="shared" si="0"/>
+        <v>8768</v>
       </c>
       <c r="L11" s="80">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M11" s="80"/>
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M11" s="80">
+        <v>1</v>
+      </c>
       <c r="N11" s="80">
         <f>M11+L11</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O11" s="80">
-        <f>L11*G11</f>
-        <v>4200</v>
+        <f t="shared" si="1"/>
+        <v>1050</v>
       </c>
       <c r="P11" s="80">
         <f>O11+K11</f>
-        <v>39272</v>
+        <v>9818</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7577,14 +7634,20 @@
       <c r="H12" s="86"/>
       <c r="I12" s="86"/>
       <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
+      <c r="K12" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L12" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M12" s="86"/>
       <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
+      <c r="O12" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P12" s="87" t="s">
         <v>136</v>
       </c>
@@ -7618,11 +7681,11 @@
         <v>2</v>
       </c>
       <c r="K13" s="80">
-        <f>J13*F13</f>
-        <v>15226</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L13" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M13" s="80"/>
@@ -7631,12 +7694,12 @@
         <v>2</v>
       </c>
       <c r="O13" s="80">
-        <f>L13*G13</f>
-        <v>2100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P13" s="80">
         <f>O13+K13</f>
-        <v>17326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="37.5" x14ac:dyDescent="0.2">
@@ -7654,16 +7717,22 @@
       <c r="H14" s="86"/>
       <c r="I14" s="86"/>
       <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
+      <c r="K14" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L14" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="86"/>
       <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
+      <c r="O14" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P14" s="86"/>
-      <c r="Q14" s="173"/>
+      <c r="Q14" s="176"/>
     </row>
     <row r="15" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
@@ -7688,15 +7757,15 @@
       </c>
       <c r="I15" s="80"/>
       <c r="J15" s="80">
-        <f t="shared" ref="J15:J50" si="1">I15+H15</f>
+        <f t="shared" ref="J15:J50" si="3">I15+H15</f>
         <v>2</v>
       </c>
       <c r="K15" s="80">
-        <f>J15*F15</f>
-        <v>38850</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L15" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M15" s="80"/>
@@ -7705,14 +7774,14 @@
         <v>2</v>
       </c>
       <c r="O15" s="80">
-        <f t="shared" ref="O15:O16" si="2">L15*G15</f>
-        <v>2100</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P15" s="80">
         <f>O15+K15</f>
-        <v>40950</v>
-      </c>
-      <c r="Q15" s="180"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="183"/>
     </row>
     <row r="16" spans="1:17" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
@@ -7737,15 +7806,15 @@
       <c r="H16" s="80"/>
       <c r="I16" s="80"/>
       <c r="J16" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K16" s="80">
-        <f>J16*F16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="80"/>
@@ -7753,14 +7822,14 @@
         <v>0</v>
       </c>
       <c r="O16" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P16" s="80">
         <f>O16+K16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="180"/>
+      <c r="Q16" s="183"/>
     </row>
     <row r="17" spans="1:18" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
@@ -7785,15 +7854,15 @@
       <c r="H17" s="80"/>
       <c r="I17" s="80"/>
       <c r="J17" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K17" s="80">
-        <f>J17*F17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="80"/>
@@ -7801,14 +7870,14 @@
         <v>0</v>
       </c>
       <c r="O17" s="80">
-        <f>L17*G17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P17" s="80">
         <f>O17+K17</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="180"/>
+      <c r="Q17" s="183"/>
     </row>
     <row r="18" spans="1:18" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
@@ -7825,19 +7894,25 @@
       <c r="H18" s="86"/>
       <c r="I18" s="86"/>
       <c r="J18" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="86"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L18" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M18" s="86"/>
       <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
+      <c r="O18" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P18" s="86"/>
-      <c r="Q18" s="180"/>
+      <c r="Q18" s="183"/>
     </row>
     <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
@@ -7862,33 +7937,33 @@
       </c>
       <c r="I19" s="80"/>
       <c r="J19" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K19" s="80">
-        <f>J19*F19</f>
-        <v>92400</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L19" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M19" s="80"/>
       <c r="N19" s="80">
-        <f>M19+L19</f>
+        <f t="shared" ref="N19:N21" si="4">M19+L19</f>
         <v>1</v>
       </c>
       <c r="O19" s="80">
-        <f t="shared" ref="O19:O21" si="3">L19*G19</f>
-        <v>1050</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P19" s="80">
         <f>O19+K19</f>
-        <v>93450</v>
-      </c>
-      <c r="Q19" s="180"/>
-    </row>
-    <row r="20" spans="1:18" ht="56.25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="183"/>
+    </row>
+    <row r="20" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
       <c r="B20" s="56">
         <v>3.7</v>
@@ -7909,35 +7984,34 @@
         <v>1050</v>
       </c>
       <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
+      <c r="I20" s="80">
+        <v>2</v>
+      </c>
       <c r="J20" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="K20" s="80">
-        <f>J20*F20</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>115500</v>
+      </c>
+      <c r="L20" s="80"/>
       <c r="M20" s="80">
         <v>2</v>
       </c>
       <c r="N20" s="80">
-        <f>M20+L20</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O20" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2100</v>
       </c>
       <c r="P20" s="80">
         <f>O20+K20</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="180"/>
+        <v>117600</v>
+      </c>
+      <c r="Q20" s="183"/>
     </row>
     <row r="21" spans="1:18" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
@@ -7960,35 +8034,34 @@
         <v>3150</v>
       </c>
       <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
+      <c r="I21" s="80">
+        <v>2</v>
+      </c>
       <c r="J21" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="K21" s="80">
-        <f>J21*F21</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>42000</v>
+      </c>
+      <c r="L21" s="80"/>
       <c r="M21" s="80">
         <v>2</v>
       </c>
       <c r="N21" s="80">
-        <f>M21+L21</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O21" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6300</v>
       </c>
       <c r="P21" s="80">
         <f>O21+K21</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="180"/>
+        <v>48300</v>
+      </c>
+      <c r="Q21" s="183"/>
     </row>
     <row r="22" spans="1:18" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="47">
@@ -8009,16 +8082,22 @@
       <c r="H22" s="86"/>
       <c r="I22" s="86"/>
       <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
+      <c r="K22" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L22" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M22" s="86"/>
       <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
+      <c r="O22" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P22" s="86"/>
-      <c r="Q22" s="173"/>
+      <c r="Q22" s="176"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
@@ -8041,35 +8120,34 @@
         <v>735</v>
       </c>
       <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="80">
+      <c r="I23" s="171">
+        <v>43.29</v>
+      </c>
+      <c r="J23" s="211">
+        <f t="shared" si="3"/>
+        <v>43.29</v>
+      </c>
+      <c r="K23" s="80">
+        <f t="shared" si="0"/>
+        <v>131818.04999999999</v>
+      </c>
+      <c r="L23" s="80"/>
+      <c r="M23" s="171">
+        <v>43.29</v>
+      </c>
+      <c r="N23" s="211">
+        <f t="shared" ref="N23:N24" si="5">M23+L23</f>
+        <v>43.29</v>
+      </c>
+      <c r="O23" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="80">
-        <f>J23*F23</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="209">
-        <v>43.29</v>
-      </c>
-      <c r="N23" s="80">
-        <f t="shared" ref="N23:N24" si="4">M23+L23</f>
-        <v>43.29</v>
-      </c>
-      <c r="O23" s="80">
-        <f t="shared" ref="O23:O24" si="5">L23*G23</f>
-        <v>0</v>
+        <v>31818.149999999998</v>
       </c>
       <c r="P23" s="80">
         <f>O23+K23</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="174"/>
+        <v>163636.19999999998</v>
+      </c>
+      <c r="Q23" s="177"/>
     </row>
     <row r="24" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
@@ -8092,33 +8170,32 @@
         <v>840</v>
       </c>
       <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="80">
+      <c r="I24" s="171">
+        <v>15.55</v>
+      </c>
+      <c r="J24" s="211">
+        <f t="shared" si="3"/>
+        <v>15.55</v>
+      </c>
+      <c r="K24" s="80">
+        <f t="shared" si="0"/>
+        <v>57146.25</v>
+      </c>
+      <c r="L24" s="80"/>
+      <c r="M24" s="171">
+        <v>15.55</v>
+      </c>
+      <c r="N24" s="211">
+        <f t="shared" si="5"/>
+        <v>15.55</v>
+      </c>
+      <c r="O24" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="80">
-        <f>J24*F24</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="209">
-        <v>15.55</v>
-      </c>
-      <c r="N24" s="80">
-        <f t="shared" si="4"/>
-        <v>15.55</v>
-      </c>
-      <c r="O24" s="80">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>13062</v>
       </c>
       <c r="P24" s="80">
         <f>O24+K24</f>
-        <v>0</v>
+        <v>70208.25</v>
       </c>
       <c r="Q24" s="4"/>
     </row>
@@ -8141,17 +8218,23 @@
       <c r="H25" s="86"/>
       <c r="I25" s="86"/>
       <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
+      <c r="K25" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L25" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M25" s="86"/>
       <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
+      <c r="O25" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P25" s="86"/>
       <c r="Q25" s="19"/>
-      <c r="R25" s="175"/>
+      <c r="R25" s="178"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
@@ -8174,36 +8257,35 @@
         <v>210</v>
       </c>
       <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="80">
+      <c r="I26" s="171">
+        <v>43.29</v>
+      </c>
+      <c r="J26" s="211">
+        <f t="shared" si="3"/>
+        <v>43.29</v>
+      </c>
+      <c r="K26" s="80">
+        <f t="shared" si="0"/>
+        <v>122727.15</v>
+      </c>
+      <c r="L26" s="80"/>
+      <c r="M26" s="171">
+        <v>43.29</v>
+      </c>
+      <c r="N26" s="152">
+        <f t="shared" ref="N26:N28" si="6">M26+L26</f>
+        <v>43.29</v>
+      </c>
+      <c r="O26" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="80">
-        <f>J26*F26</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="82">
-        <v>30</v>
-      </c>
-      <c r="N26" s="80">
-        <f t="shared" ref="N26:N27" si="6">M26+L26</f>
-        <v>30</v>
-      </c>
-      <c r="O26" s="80">
-        <f t="shared" ref="O26:O27" si="7">L26*G26</f>
-        <v>0</v>
+        <v>9090.9</v>
       </c>
       <c r="P26" s="80">
         <f>O26+K26</f>
-        <v>0</v>
+        <v>131818.04999999999</v>
       </c>
       <c r="Q26" s="26"/>
-      <c r="R26" s="176"/>
+      <c r="R26" s="179"/>
     </row>
     <row r="27" spans="1:18" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
@@ -8226,36 +8308,35 @@
         <v>315</v>
       </c>
       <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="80">
+      <c r="I27" s="171">
+        <v>15.55</v>
+      </c>
+      <c r="J27" s="211">
+        <f t="shared" si="3"/>
+        <v>15.55</v>
+      </c>
+      <c r="K27" s="80">
+        <f t="shared" si="0"/>
+        <v>62044.5</v>
+      </c>
+      <c r="L27" s="80"/>
+      <c r="M27" s="171">
+        <v>15.55</v>
+      </c>
+      <c r="N27" s="152">
+        <f t="shared" si="6"/>
+        <v>15.55</v>
+      </c>
+      <c r="O27" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="80">
-        <f>J27*F27</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="82">
-        <v>15</v>
-      </c>
-      <c r="N27" s="80">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="O27" s="80">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4898.25</v>
       </c>
       <c r="P27" s="80">
         <f>O27+K27</f>
-        <v>0</v>
+        <v>66942.75</v>
       </c>
       <c r="Q27" s="24"/>
-      <c r="R27" s="176"/>
+      <c r="R27" s="179"/>
     </row>
     <row r="28" spans="1:18" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34">
@@ -8280,33 +8361,35 @@
         <v>315</v>
       </c>
       <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
+      <c r="I28" s="224">
+        <v>18</v>
+      </c>
       <c r="J28" s="81">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="K28" s="81">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+      <c r="L28" s="81"/>
+      <c r="M28" s="108">
+        <v>18</v>
+      </c>
+      <c r="N28" s="210">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="O28" s="81">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="80">
-        <f>J28*F28</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="108"/>
-      <c r="N28" s="81">
-        <v>0</v>
-      </c>
-      <c r="O28" s="80">
-        <f>L28*G28</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="80">
+        <v>5670</v>
+      </c>
+      <c r="P28" s="81">
         <f>O28+K28</f>
-        <v>0</v>
+        <v>35910</v>
       </c>
       <c r="Q28" s="20"/>
-      <c r="R28" s="176"/>
+      <c r="R28" s="179"/>
     </row>
     <row r="29" spans="1:18" ht="193.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="47">
@@ -8327,17 +8410,23 @@
       <c r="H29" s="80"/>
       <c r="I29" s="80"/>
       <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
+      <c r="K29" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L29" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M29" s="80"/>
       <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
+      <c r="O29" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P29" s="80"/>
       <c r="Q29" s="25"/>
-      <c r="R29" s="177"/>
+      <c r="R29" s="180"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="34"/>
@@ -8362,29 +8451,29 @@
       </c>
       <c r="I30" s="82"/>
       <c r="J30" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K30" s="80">
-        <f t="shared" ref="K30:K41" si="8">J30*F30</f>
-        <v>295470</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L30" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M30" s="82"/>
       <c r="N30" s="80">
-        <f t="shared" ref="N30:N41" si="9">M30+L30</f>
+        <f t="shared" ref="N30:N41" si="7">M30+L30</f>
         <v>1</v>
       </c>
       <c r="O30" s="80">
-        <f t="shared" ref="O30:O41" si="10">L30*G30</f>
-        <v>3150</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P30" s="80">
-        <f t="shared" ref="P30:P41" si="11">O30+K30</f>
-        <v>298620</v>
+        <f t="shared" ref="P30:P41" si="8">O30+K30</f>
+        <v>0</v>
       </c>
       <c r="Q30" s="25"/>
       <c r="R30" s="2"/>
@@ -8412,29 +8501,29 @@
       </c>
       <c r="I31" s="82"/>
       <c r="J31" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K31" s="80">
-        <f t="shared" si="8"/>
-        <v>308700</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L31" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M31" s="82"/>
       <c r="N31" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O31" s="80">
-        <f t="shared" si="10"/>
-        <v>3150</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P31" s="80">
-        <f t="shared" si="11"/>
-        <v>311850</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q31" s="22"/>
       <c r="R31" s="5"/>
@@ -8462,32 +8551,32 @@
       </c>
       <c r="I32" s="82"/>
       <c r="J32" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K32" s="80">
-        <f t="shared" si="8"/>
-        <v>570360</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L32" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M32" s="82"/>
       <c r="N32" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="O32" s="80">
-        <f t="shared" si="10"/>
-        <v>6300</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P32" s="80">
-        <f t="shared" si="11"/>
-        <v>576660</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q32" s="23"/>
-      <c r="R32" s="175"/>
+      <c r="R32" s="178"/>
     </row>
     <row r="33" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34"/>
@@ -8512,32 +8601,32 @@
       </c>
       <c r="I33" s="82"/>
       <c r="J33" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K33" s="80">
-        <f t="shared" si="8"/>
-        <v>296205</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L33" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M33" s="82"/>
       <c r="N33" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O33" s="80">
-        <f t="shared" si="10"/>
-        <v>3150</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P33" s="80">
-        <f t="shared" si="11"/>
-        <v>299355</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q33" s="21"/>
-      <c r="R33" s="177"/>
+      <c r="R33" s="180"/>
     </row>
     <row r="34" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="34"/>
@@ -8562,29 +8651,29 @@
       </c>
       <c r="I34" s="82"/>
       <c r="J34" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K34" s="80">
-        <f t="shared" si="8"/>
-        <v>926100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L34" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M34" s="82"/>
       <c r="N34" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="O34" s="80">
-        <f t="shared" si="10"/>
-        <v>9450</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P34" s="80">
-        <f t="shared" si="11"/>
-        <v>935550</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q34" s="18"/>
       <c r="R34" s="3"/>
@@ -8612,29 +8701,29 @@
       </c>
       <c r="I35" s="82"/>
       <c r="J35" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K35" s="80">
-        <f t="shared" si="8"/>
-        <v>308700</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L35" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M35" s="82"/>
       <c r="N35" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O35" s="80">
-        <f t="shared" si="10"/>
-        <v>3150</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P35" s="80">
-        <f t="shared" si="11"/>
-        <v>311850</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q35" s="18"/>
       <c r="R35" s="3"/>
@@ -8662,29 +8751,29 @@
       </c>
       <c r="I36" s="82"/>
       <c r="J36" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K36" s="80">
-        <f t="shared" si="8"/>
-        <v>285180</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L36" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M36" s="82"/>
       <c r="N36" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O36" s="80">
-        <f t="shared" si="10"/>
-        <v>3150</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P36" s="80">
-        <f t="shared" si="11"/>
-        <v>288330</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q36" s="18"/>
       <c r="R36" s="3"/>
@@ -8712,29 +8801,29 @@
       </c>
       <c r="I37" s="82"/>
       <c r="J37" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K37" s="80">
-        <f t="shared" si="8"/>
-        <v>295470</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L37" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M37" s="82"/>
       <c r="N37" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O37" s="80">
-        <f t="shared" si="10"/>
-        <v>3150</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P37" s="80">
-        <f t="shared" si="11"/>
-        <v>298620</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q37" s="18"/>
       <c r="R37" s="3"/>
@@ -8762,29 +8851,29 @@
       </c>
       <c r="I38" s="82"/>
       <c r="J38" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K38" s="80">
-        <f t="shared" si="8"/>
-        <v>590940</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L38" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M38" s="82"/>
       <c r="N38" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="O38" s="80">
-        <f t="shared" si="10"/>
-        <v>6300</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P38" s="80">
-        <f t="shared" si="11"/>
-        <v>597240</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q38" s="18"/>
       <c r="R38" s="3"/>
@@ -8812,29 +8901,29 @@
       </c>
       <c r="I39" s="82"/>
       <c r="J39" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K39" s="80">
-        <f t="shared" si="8"/>
-        <v>277463</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L39" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M39" s="82"/>
       <c r="N39" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O39" s="80">
-        <f t="shared" si="10"/>
-        <v>3150</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P39" s="80">
-        <f t="shared" si="11"/>
-        <v>280613</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q39" s="18"/>
       <c r="R39" s="3"/>
@@ -8862,29 +8951,29 @@
       </c>
       <c r="I40" s="82"/>
       <c r="J40" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K40" s="80">
-        <f t="shared" si="8"/>
-        <v>590940</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L40" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M40" s="82"/>
       <c r="N40" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="O40" s="80">
-        <f t="shared" si="10"/>
-        <v>6300</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P40" s="80">
-        <f t="shared" si="11"/>
-        <v>597240</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q40" s="18"/>
       <c r="R40" s="3"/>
@@ -8912,29 +9001,29 @@
       </c>
       <c r="I41" s="82"/>
       <c r="J41" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K41" s="80">
-        <f t="shared" si="8"/>
-        <v>277463</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L41" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M41" s="82"/>
       <c r="N41" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O41" s="80">
-        <f t="shared" si="10"/>
-        <v>3150</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P41" s="80">
-        <f t="shared" si="11"/>
-        <v>280613</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q41" s="18"/>
       <c r="R41" s="3"/>
@@ -8958,14 +9047,20 @@
       <c r="H42" s="84"/>
       <c r="I42" s="84"/>
       <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
+      <c r="K42" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L42" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M42" s="84"/>
       <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
+      <c r="O42" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P42" s="84"/>
       <c r="Q42" s="17"/>
       <c r="R42" s="3"/>
@@ -8997,29 +9092,29 @@
       </c>
       <c r="I43" s="82"/>
       <c r="J43" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K43" s="80">
-        <f t="shared" ref="K43:K47" si="12">J43*F43</f>
-        <v>25200</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L43" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M43" s="82"/>
       <c r="N43" s="80">
-        <f t="shared" ref="N43:N47" si="13">M43+L43</f>
+        <f t="shared" ref="N43:N47" si="9">M43+L43</f>
         <v>1</v>
       </c>
       <c r="O43" s="80">
-        <f t="shared" ref="O43:O47" si="14">L43*G43</f>
-        <v>3150</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P43" s="80">
-        <f t="shared" ref="P43:P47" si="15">O43+K43</f>
-        <v>28350</v>
+        <f t="shared" ref="P43:P47" si="10">O43+K43</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9049,29 +9144,29 @@
       </c>
       <c r="I44" s="82"/>
       <c r="J44" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K44" s="80">
-        <f t="shared" si="12"/>
-        <v>131250</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L44" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M44" s="82"/>
       <c r="N44" s="80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O44" s="80">
-        <f t="shared" si="14"/>
-        <v>6300</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P44" s="80">
-        <f t="shared" si="15"/>
-        <v>137550</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9099,29 +9194,29 @@
       </c>
       <c r="I45" s="82"/>
       <c r="J45" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K45" s="80">
-        <f t="shared" si="12"/>
-        <v>72450</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L45" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M45" s="82"/>
       <c r="N45" s="80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O45" s="80">
-        <f t="shared" si="14"/>
-        <v>3150</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P45" s="80">
-        <f t="shared" si="15"/>
-        <v>75600</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9149,29 +9244,29 @@
       </c>
       <c r="I46" s="82"/>
       <c r="J46" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K46" s="80">
-        <f t="shared" si="12"/>
-        <v>144900</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L46" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M46" s="82"/>
       <c r="N46" s="80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O46" s="80">
-        <f t="shared" si="14"/>
-        <v>6300</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P46" s="80">
-        <f t="shared" si="15"/>
-        <v>151200</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -9199,29 +9294,29 @@
       </c>
       <c r="I47" s="82"/>
       <c r="J47" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K47" s="80">
-        <f t="shared" si="12"/>
-        <v>82950</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L47" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M47" s="82"/>
       <c r="N47" s="80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O47" s="80">
-        <f t="shared" si="14"/>
-        <v>3150</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P47" s="80">
-        <f t="shared" si="15"/>
-        <v>86100</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="206.25" x14ac:dyDescent="0.2">
@@ -9244,36 +9339,38 @@
       <c r="G48" s="82">
         <v>693</v>
       </c>
-      <c r="H48" s="209">
+      <c r="H48" s="171">
         <v>586.5</v>
       </c>
-      <c r="I48" s="82"/>
-      <c r="J48" s="211">
-        <f t="shared" si="1"/>
-        <v>586.5</v>
+      <c r="I48" s="170">
+        <v>37.9</v>
+      </c>
+      <c r="J48" s="172">
+        <f t="shared" si="3"/>
+        <v>624.4</v>
       </c>
       <c r="K48" s="80">
-        <f>J48*F48</f>
-        <v>3387037.5</v>
-      </c>
-      <c r="L48" s="153">
         <f t="shared" si="0"/>
-        <v>586.5</v>
-      </c>
-      <c r="M48" s="82">
+        <v>218872.5</v>
+      </c>
+      <c r="L48" s="152">
+        <f t="shared" si="2"/>
+        <v>624.4</v>
+      </c>
+      <c r="M48" s="170">
         <v>37.9</v>
       </c>
       <c r="N48" s="80">
         <f>M48+L48</f>
-        <v>624.4</v>
+        <v>662.3</v>
       </c>
       <c r="O48" s="80">
-        <f>L48*G48</f>
-        <v>406444.5</v>
+        <f t="shared" si="1"/>
+        <v>26264.7</v>
       </c>
       <c r="P48" s="80">
         <f>O48+K48</f>
-        <v>3793482</v>
+        <v>245137.2</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9296,22 +9393,24 @@
       <c r="G49" s="82">
         <v>578</v>
       </c>
-      <c r="H49" s="209">
+      <c r="H49" s="171">
         <v>586.5</v>
       </c>
-      <c r="I49" s="82"/>
-      <c r="J49" s="211">
-        <f t="shared" si="1"/>
+      <c r="I49" s="170">
+        <v>37.9</v>
+      </c>
+      <c r="J49" s="172">
+        <f t="shared" si="3"/>
+        <v>624.4</v>
+      </c>
+      <c r="K49" s="80">
+        <f t="shared" si="0"/>
+        <v>228840.19999999998</v>
+      </c>
+      <c r="L49" s="152">
         <v>586.5</v>
       </c>
-      <c r="K49" s="80">
-        <f>J49*F49</f>
-        <v>3541287</v>
-      </c>
-      <c r="L49" s="153">
-        <v>586.5</v>
-      </c>
-      <c r="M49" s="82">
+      <c r="M49" s="170">
         <v>37.9</v>
       </c>
       <c r="N49" s="80">
@@ -9319,15 +9418,15 @@
         <v>624.4</v>
       </c>
       <c r="O49" s="80">
-        <f>L49*G49</f>
-        <v>338997</v>
+        <f t="shared" si="1"/>
+        <v>21906.2</v>
       </c>
       <c r="P49" s="80">
         <f>O49+K49</f>
-        <v>3880284</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>250746.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="47">
         <v>11</v>
       </c>
@@ -9348,33 +9447,32 @@
         <v>578</v>
       </c>
       <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="211">
+      <c r="I50" s="225">
+        <v>25.25</v>
+      </c>
+      <c r="J50" s="172">
+        <f t="shared" si="3"/>
+        <v>25.25</v>
+      </c>
+      <c r="K50" s="80">
+        <f t="shared" si="0"/>
+        <v>144505.75</v>
+      </c>
+      <c r="L50" s="80"/>
+      <c r="M50" s="222">
+        <v>25.25</v>
+      </c>
+      <c r="N50" s="211">
+        <f>M50+L50</f>
+        <v>25.25</v>
+      </c>
+      <c r="O50" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="80">
-        <f>J50*F50</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="208">
-        <v>20.6</v>
-      </c>
-      <c r="N50" s="80">
-        <f>M50+L50</f>
-        <v>20.6</v>
-      </c>
-      <c r="O50" s="80">
-        <f>L50*G50</f>
-        <v>0</v>
+        <v>14594.5</v>
       </c>
       <c r="P50" s="80">
         <f>O50+K50</f>
-        <v>0</v>
+        <v>159100.25</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="175.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9396,14 +9494,20 @@
       <c r="H51" s="86"/>
       <c r="I51" s="86"/>
       <c r="J51" s="86"/>
-      <c r="K51" s="86"/>
+      <c r="K51" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L51" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M51" s="86"/>
       <c r="N51" s="86"/>
-      <c r="O51" s="86"/>
+      <c r="O51" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P51" s="89"/>
     </row>
     <row r="52" spans="1:16" ht="37.5" x14ac:dyDescent="0.2">
@@ -9423,14 +9527,20 @@
       <c r="H52" s="86"/>
       <c r="I52" s="86"/>
       <c r="J52" s="86"/>
-      <c r="K52" s="86"/>
+      <c r="K52" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L52" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M52" s="86"/>
       <c r="N52" s="86"/>
-      <c r="O52" s="86"/>
+      <c r="O52" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P52" s="89"/>
     </row>
     <row r="53" spans="1:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -9454,33 +9564,32 @@
         <v>735</v>
       </c>
       <c r="H53" s="82"/>
-      <c r="I53" s="82"/>
-      <c r="J53" s="211">
-        <f t="shared" ref="J53:J60" si="16">I53+H53</f>
-        <v>0</v>
+      <c r="I53" s="82">
+        <v>22</v>
+      </c>
+      <c r="J53" s="172">
+        <f t="shared" ref="J53:J60" si="11">I53+H53</f>
+        <v>22</v>
       </c>
       <c r="K53" s="80">
-        <f t="shared" ref="K53:K55" si="17">J53*F53</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>92400</v>
+      </c>
+      <c r="L53" s="80"/>
       <c r="M53" s="82">
         <v>22</v>
       </c>
       <c r="N53" s="80">
-        <f t="shared" ref="N53:N54" si="18">M53+L53</f>
+        <f t="shared" ref="N53:N54" si="12">M53+L53</f>
         <v>22</v>
       </c>
       <c r="O53" s="80">
-        <f t="shared" ref="O53:O55" si="19">L53*G53</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>16170</v>
       </c>
       <c r="P53" s="80">
-        <f t="shared" ref="P53:P55" si="20">O53+K53</f>
-        <v>0</v>
+        <f t="shared" ref="P53:P55" si="13">O53+K53</f>
+        <v>108570</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -9502,33 +9611,32 @@
         <v>735</v>
       </c>
       <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="211">
-        <f t="shared" si="16"/>
-        <v>0</v>
+      <c r="I54" s="82">
+        <v>4</v>
+      </c>
+      <c r="J54" s="172">
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="K54" s="80">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>24152</v>
+      </c>
+      <c r="L54" s="80"/>
       <c r="M54" s="82">
         <v>4</v>
       </c>
       <c r="N54" s="80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="O54" s="80">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2940</v>
       </c>
       <c r="P54" s="80">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>27092</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9553,29 +9661,26 @@
       </c>
       <c r="H55" s="82"/>
       <c r="I55" s="82"/>
-      <c r="J55" s="211">
-        <f t="shared" si="16"/>
+      <c r="J55" s="172">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K55" s="80">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L55" s="80"/>
       <c r="M55" s="82"/>
       <c r="N55" s="80">
         <f>M55+L55</f>
         <v>0</v>
       </c>
       <c r="O55" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P55" s="80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9595,18 +9700,21 @@
       </c>
       <c r="H56" s="86"/>
       <c r="I56" s="86"/>
-      <c r="J56" s="211">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="86"/>
-      <c r="L56" s="80">
+      <c r="J56" s="172">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L56" s="80"/>
       <c r="M56" s="86"/>
       <c r="N56" s="86"/>
-      <c r="O56" s="86"/>
+      <c r="O56" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P56" s="89"/>
     </row>
     <row r="57" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9631,29 +9739,26 @@
       </c>
       <c r="H57" s="82"/>
       <c r="I57" s="82"/>
-      <c r="J57" s="211">
-        <f t="shared" si="16"/>
+      <c r="J57" s="172">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K57" s="80">
-        <f t="shared" ref="K57:K58" si="21">J57*F57</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L57" s="80"/>
       <c r="M57" s="82"/>
       <c r="N57" s="80">
         <f>M57+L57</f>
         <v>0</v>
       </c>
       <c r="O57" s="80">
-        <f t="shared" ref="O57:O58" si="22">L57*G57</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P57" s="80">
-        <f t="shared" ref="P57:P58" si="23">O57+K57</f>
+        <f t="shared" ref="P57:P58" si="14">O57+K57</f>
         <v>0</v>
       </c>
     </row>
@@ -9678,19 +9783,18 @@
         <v>525</v>
       </c>
       <c r="H58" s="82"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="211">
-        <f t="shared" si="16"/>
-        <v>0</v>
+      <c r="I58" s="82">
+        <v>3</v>
+      </c>
+      <c r="J58" s="172">
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="K58" s="80">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>9450</v>
+      </c>
+      <c r="L58" s="80"/>
       <c r="M58" s="82">
         <v>3</v>
       </c>
@@ -9699,12 +9803,12 @@
         <v>3</v>
       </c>
       <c r="O58" s="80">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1575</v>
       </c>
       <c r="P58" s="80">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>11025</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9723,18 +9827,21 @@
       </c>
       <c r="H59" s="86"/>
       <c r="I59" s="86"/>
-      <c r="J59" s="211">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="86"/>
-      <c r="L59" s="80">
+      <c r="J59" s="172">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L59" s="80"/>
       <c r="M59" s="86"/>
       <c r="N59" s="86"/>
-      <c r="O59" s="86"/>
+      <c r="O59" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P59" s="89"/>
     </row>
     <row r="60" spans="1:16" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -9758,33 +9865,32 @@
         <v>735</v>
       </c>
       <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="211">
-        <f t="shared" si="16"/>
-        <v>0</v>
+      <c r="I60" s="223">
+        <v>120</v>
+      </c>
+      <c r="J60" s="172">
+        <f t="shared" si="11"/>
+        <v>120</v>
       </c>
       <c r="K60" s="80">
-        <f>J60*F60</f>
-        <v>0</v>
-      </c>
-      <c r="L60" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="208">
-        <v>11.3</v>
-      </c>
-      <c r="N60" s="80">
+        <v>567000</v>
+      </c>
+      <c r="L60" s="80"/>
+      <c r="M60" s="170">
+        <v>120</v>
+      </c>
+      <c r="N60" s="152">
         <f>M60+L60</f>
-        <v>11.3</v>
+        <v>120</v>
       </c>
       <c r="O60" s="80">
-        <f>L60*G60</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>88200</v>
       </c>
       <c r="P60" s="80">
         <f>O60+K60</f>
-        <v>0</v>
+        <v>655200</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9806,14 +9912,20 @@
       <c r="H61" s="86"/>
       <c r="I61" s="86"/>
       <c r="J61" s="86"/>
-      <c r="K61" s="86"/>
+      <c r="K61" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L61" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M61" s="86"/>
       <c r="N61" s="86"/>
-      <c r="O61" s="86"/>
+      <c r="O61" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P61" s="89"/>
     </row>
     <row r="62" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -9839,30 +9951,34 @@
       <c r="H62" s="82">
         <v>80</v>
       </c>
-      <c r="I62" s="82"/>
-      <c r="J62" s="211">
-        <f t="shared" ref="J62" si="24">I62+H62</f>
-        <v>80</v>
+      <c r="I62" s="227">
+        <v>30</v>
+      </c>
+      <c r="J62" s="172">
+        <f t="shared" ref="J62" si="15">I62+H62</f>
+        <v>110</v>
       </c>
       <c r="K62" s="80">
-        <f>J62*F62</f>
-        <v>121840</v>
+        <f t="shared" si="0"/>
+        <v>45690</v>
       </c>
       <c r="L62" s="80">
         <v>80</v>
       </c>
-      <c r="M62" s="82"/>
+      <c r="M62" s="82">
+        <v>30</v>
+      </c>
       <c r="N62" s="80">
         <f>M62+L62</f>
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="O62" s="80">
-        <f>L62*G62</f>
-        <v>25200</v>
+        <f t="shared" si="1"/>
+        <v>9450</v>
       </c>
       <c r="P62" s="80">
         <f>O62+K62</f>
-        <v>147040</v>
+        <v>55140</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="96" customHeight="1" x14ac:dyDescent="0.2">
@@ -9882,16 +9998,22 @@
         <v>0</v>
       </c>
       <c r="H63" s="86"/>
-      <c r="I63" s="86"/>
+      <c r="I63" s="228"/>
       <c r="J63" s="86"/>
-      <c r="K63" s="86"/>
+      <c r="K63" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L63" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M63" s="86"/>
       <c r="N63" s="86"/>
-      <c r="O63" s="86"/>
+      <c r="O63" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P63" s="89"/>
     </row>
     <row r="64" spans="1:16" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9917,31 +10039,35 @@
       <c r="H64" s="82">
         <v>105</v>
       </c>
-      <c r="I64" s="82"/>
-      <c r="J64" s="211">
-        <f t="shared" ref="J64:J68" si="25">I64+H64</f>
-        <v>105</v>
+      <c r="I64" s="227">
+        <v>11</v>
+      </c>
+      <c r="J64" s="172">
+        <f t="shared" ref="J64:J68" si="16">I64+H64</f>
+        <v>116</v>
       </c>
       <c r="K64" s="80">
-        <f>J64*F64</f>
-        <v>303240</v>
+        <f t="shared" si="0"/>
+        <v>31768</v>
       </c>
       <c r="L64" s="80">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="M64" s="82"/>
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="M64" s="82">
+        <v>11</v>
+      </c>
       <c r="N64" s="80">
         <f>M64+L64</f>
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="O64" s="80">
-        <f>L64*G64</f>
-        <v>27615</v>
+        <f t="shared" si="1"/>
+        <v>2893</v>
       </c>
       <c r="P64" s="80">
         <f>O64+K64</f>
-        <v>330855</v>
+        <v>34661</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="114" customHeight="1" x14ac:dyDescent="0.2">
@@ -9967,17 +10093,17 @@
       <c r="H65" s="82">
         <v>2</v>
       </c>
-      <c r="I65" s="82"/>
+      <c r="I65" s="227"/>
       <c r="J65" s="80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="K65" s="80">
-        <f>J65*F65</f>
-        <v>95550</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L65" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M65" s="82"/>
@@ -9986,12 +10112,12 @@
         <v>2</v>
       </c>
       <c r="O65" s="80">
-        <f>L65*G65</f>
-        <v>10500</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P65" s="80">
         <f>O65+K65</f>
-        <v>106050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10014,28 +10140,32 @@
       <c r="G66" s="82">
         <v>15750</v>
       </c>
-      <c r="H66" s="210">
+      <c r="H66" s="170">
         <v>0.5</v>
       </c>
-      <c r="I66" s="82"/>
-      <c r="J66" s="210">
-        <f t="shared" si="25"/>
+      <c r="I66" s="223">
         <v>0.5</v>
       </c>
+      <c r="J66" s="170">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
       <c r="K66" s="80">
-        <f>J66*F66</f>
+        <f t="shared" si="0"/>
         <v>10500</v>
       </c>
-      <c r="L66" s="207">
+      <c r="L66" s="170">
         <v>0.5</v>
       </c>
-      <c r="M66" s="82"/>
-      <c r="N66" s="80">
+      <c r="M66" s="170">
+        <v>0.5</v>
+      </c>
+      <c r="N66" s="152">
         <f>M66+L66</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O66" s="80">
-        <f>L66*G66</f>
+        <f t="shared" si="1"/>
         <v>7875</v>
       </c>
       <c r="P66" s="80">
@@ -10066,26 +10196,28 @@
       </c>
       <c r="I67" s="82"/>
       <c r="J67" s="80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K67" s="80">
-        <f>J67*F67</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L67" s="80"/>
-      <c r="M67" s="82"/>
+      <c r="M67" s="82">
+        <v>1</v>
+      </c>
       <c r="N67" s="80">
         <f>M67+L67</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" s="80">
-        <f>L67*G67</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>52500</v>
       </c>
       <c r="P67" s="80">
         <f>O67+K67</f>
-        <v>0</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="150" x14ac:dyDescent="0.2">
@@ -10108,28 +10240,32 @@
       <c r="G68" s="82">
         <v>15750</v>
       </c>
-      <c r="H68" s="210">
+      <c r="H68" s="170">
         <v>0.5</v>
       </c>
-      <c r="I68" s="82"/>
-      <c r="J68" s="210">
-        <f t="shared" si="25"/>
+      <c r="I68" s="170">
         <v>0.5</v>
       </c>
+      <c r="J68" s="170">
+        <f t="shared" ref="J68" si="17">I68+H68</f>
+        <v>1</v>
+      </c>
       <c r="K68" s="80">
-        <f>J68*F68</f>
+        <f t="shared" si="0"/>
         <v>5250</v>
       </c>
-      <c r="L68" s="207">
+      <c r="L68" s="170">
         <v>0.5</v>
       </c>
-      <c r="M68" s="82"/>
-      <c r="N68" s="80">
+      <c r="M68" s="170">
+        <v>0.5</v>
+      </c>
+      <c r="N68" s="152">
         <f>M68+L68</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O68" s="80">
-        <f>L68*G68</f>
+        <f t="shared" si="1"/>
         <v>7875</v>
       </c>
       <c r="P68" s="80">
@@ -10151,19 +10287,19 @@
       <c r="I69" s="91"/>
       <c r="J69" s="91"/>
       <c r="K69" s="91">
-        <f t="shared" ref="K69:O69" si="26">SUM(K5:K68)</f>
-        <v>13125993.5</v>
+        <f t="shared" ref="K69:O69" si="18">SUM(K5:K68)</f>
+        <v>1948672.4</v>
       </c>
       <c r="L69" s="91"/>
       <c r="M69" s="91"/>
       <c r="N69" s="91"/>
       <c r="O69" s="91">
-        <f t="shared" si="26"/>
-        <v>1004056.5</v>
+        <f t="shared" si="18"/>
+        <v>347232.69999999995</v>
       </c>
       <c r="P69" s="91">
         <f>SUM(P5:P68)</f>
-        <v>14130050</v>
+        <v>2295905.0999999996</v>
       </c>
     </row>
   </sheetData>
@@ -10186,17 +10322,17 @@
   </mergeCells>
   <phoneticPr fontId="49" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="50" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X70"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P72" sqref="P72"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
@@ -10217,47 +10353,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
       <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="184" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="204" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="206"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="193" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="195"/>
       <c r="Q2" s="18"/>
       <c r="S2" s="141"/>
       <c r="T2" s="141"/>
@@ -10280,40 +10416,40 @@
         <v>3</v>
       </c>
       <c r="E3" s="145" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="146" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="146" t="s">
+      <c r="G3" s="146" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="146" t="s">
+      <c r="H3" s="168" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="168" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="145" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="145" t="s">
         <v>158</v>
       </c>
-      <c r="H3" s="169" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" s="169" t="s">
+      <c r="M3" s="168" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="145" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" s="145" t="s">
+      <c r="O3" s="145" t="s">
         <v>160</v>
       </c>
-      <c r="L3" s="145" t="s">
-        <v>159</v>
-      </c>
-      <c r="M3" s="169" t="s">
-        <v>169</v>
-      </c>
-      <c r="N3" s="145" t="s">
-        <v>171</v>
-      </c>
-      <c r="O3" s="145" t="s">
+      <c r="P3" s="145" t="s">
         <v>161</v>
-      </c>
-      <c r="P3" s="145" t="s">
-        <v>162</v>
       </c>
       <c r="S3" s="141"/>
       <c r="T3" s="141"/>
@@ -10382,25 +10518,35 @@
       <c r="G6" s="78">
         <v>105000</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="80"/>
+      <c r="H6" s="173">
+        <v>0</v>
+      </c>
+      <c r="I6" s="173"/>
+      <c r="J6" s="152">
+        <f>I6+H6</f>
+        <v>0</v>
+      </c>
       <c r="K6" s="80">
-        <f>J6*F6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="207">
+        <f>I6*F6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="211">
         <v>0.8</v>
       </c>
+      <c r="M6" s="211">
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="211">
+        <f>M6+L6</f>
+        <v>1</v>
+      </c>
       <c r="O6" s="80">
-        <f>N6*G6</f>
-        <v>84000</v>
+        <f>M6*G6</f>
+        <v>21000</v>
       </c>
       <c r="P6" s="80">
         <f>O6+K6</f>
-        <v>84000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="305.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10423,25 +10569,31 @@
       <c r="G7" s="78">
         <v>5250</v>
       </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="80"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="152">
+        <f t="shared" ref="J7:J69" si="0">I7+H7</f>
+        <v>0</v>
+      </c>
       <c r="K7" s="80">
-        <f>J7*F7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80">
+        <f t="shared" ref="K7:K69" si="1">I7*F7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="211">
         <v>2</v>
       </c>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211">
+        <f t="shared" ref="N7:N69" si="2">M7+L7</f>
+        <v>2</v>
+      </c>
       <c r="O7" s="80">
-        <f>N7*G7</f>
-        <v>10500</v>
+        <f t="shared" ref="O7:O69" si="3">M7*G7</f>
+        <v>0</v>
       </c>
       <c r="P7" s="80">
         <f>O7+K7</f>
-        <v>10500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10456,17 +10608,28 @@
       <c r="E8" s="97"/>
       <c r="F8" s="93"/>
       <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="80">
-        <f t="shared" ref="N8:N69" si="0">J8</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="93"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="216"/>
+      <c r="J8" s="152">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="212">
+        <v>0</v>
+      </c>
+      <c r="M8" s="212"/>
+      <c r="N8" s="211">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P8" s="98"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -10479,17 +10642,28 @@
       <c r="E9" s="58"/>
       <c r="F9" s="93"/>
       <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="80">
+      <c r="H9" s="216"/>
+      <c r="I9" s="216"/>
+      <c r="J9" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O9" s="93"/>
+      <c r="K9" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="212">
+        <v>0</v>
+      </c>
+      <c r="M9" s="212"/>
+      <c r="N9" s="211">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P9" s="98"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -10512,28 +10686,37 @@
       <c r="G10" s="78">
         <v>1050</v>
       </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="80">
+      <c r="H10" s="173">
         <v>4</v>
       </c>
+      <c r="I10" s="173">
+        <v>1</v>
+      </c>
+      <c r="J10" s="152">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="K10" s="80">
-        <f>J10*F10</f>
-        <v>35072</v>
-      </c>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>8768</v>
+      </c>
+      <c r="L10" s="211">
         <v>4</v>
       </c>
+      <c r="M10" s="211">
+        <v>1</v>
+      </c>
+      <c r="N10" s="211">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="O10" s="80">
-        <f>N10*G10</f>
-        <v>4200</v>
+        <f t="shared" si="3"/>
+        <v>1050</v>
       </c>
       <c r="P10" s="80">
         <f>O10+K10</f>
-        <v>39272</v>
+        <v>9818</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10546,17 +10729,28 @@
       <c r="E11" s="58"/>
       <c r="F11" s="93"/>
       <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="80">
+      <c r="H11" s="216"/>
+      <c r="I11" s="216"/>
+      <c r="J11" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="93"/>
+      <c r="K11" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="212">
+        <v>0</v>
+      </c>
+      <c r="M11" s="212"/>
+      <c r="N11" s="211">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P11" s="99" t="s">
         <v>138</v>
       </c>
@@ -10581,28 +10775,33 @@
       <c r="G12" s="78">
         <v>1050</v>
       </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="80">
+      <c r="H12" s="173">
         <v>2</v>
       </c>
-      <c r="K12" s="80">
-        <f>J12*F12</f>
-        <v>15226</v>
-      </c>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80">
+      <c r="I12" s="173"/>
+      <c r="J12" s="152">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="K12" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="211">
+        <v>2</v>
+      </c>
+      <c r="M12" s="211"/>
+      <c r="N12" s="211">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="O12" s="80">
-        <f>N12*G12</f>
-        <v>2100</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P12" s="80">
         <f>O12+K12</f>
-        <v>17326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="37.5" x14ac:dyDescent="0.2">
@@ -10617,19 +10816,30 @@
       <c r="E13" s="54"/>
       <c r="F13" s="93"/>
       <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="80">
+      <c r="H13" s="216"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="93"/>
+      <c r="K13" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="212">
+        <v>0</v>
+      </c>
+      <c r="M13" s="212"/>
+      <c r="N13" s="211">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P13" s="93"/>
-      <c r="Q13" s="173"/>
+      <c r="Q13" s="176"/>
     </row>
     <row r="14" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
@@ -10649,30 +10859,35 @@
       <c r="G14" s="78">
         <v>1050</v>
       </c>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="80">
+      <c r="H14" s="173">
         <v>2</v>
       </c>
-      <c r="K14" s="80">
-        <f>J14*F14</f>
-        <v>38850</v>
-      </c>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80">
+      <c r="I14" s="173"/>
+      <c r="J14" s="152">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="K14" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="211">
+        <v>2</v>
+      </c>
+      <c r="M14" s="211"/>
+      <c r="N14" s="211">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="O14" s="80">
-        <f>N14*G14</f>
-        <v>2100</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P14" s="80">
         <f>O14+K14</f>
-        <v>40950</v>
-      </c>
-      <c r="Q14" s="180"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="183"/>
     </row>
     <row r="15" spans="1:24" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
@@ -10694,30 +10909,35 @@
       <c r="G15" s="78">
         <v>1050</v>
       </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="80">
+      <c r="H15" s="173">
+        <v>0</v>
+      </c>
+      <c r="I15" s="173"/>
+      <c r="J15" s="152">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="80">
-        <f>J15*F15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="211">
+        <v>0</v>
+      </c>
+      <c r="M15" s="211"/>
+      <c r="N15" s="211">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O15" s="80">
-        <f>N15*G15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P15" s="80">
         <f>O15+K15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="180"/>
+      <c r="Q15" s="183"/>
     </row>
     <row r="16" spans="1:24" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
@@ -10739,30 +10959,35 @@
       <c r="G16" s="78">
         <v>1050</v>
       </c>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="80">
+      <c r="H16" s="173">
+        <v>0</v>
+      </c>
+      <c r="I16" s="173"/>
+      <c r="J16" s="152">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="80">
-        <f>J16*F16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="211">
+        <v>0</v>
+      </c>
+      <c r="M16" s="211"/>
+      <c r="N16" s="211">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O16" s="80">
-        <f>N16*G16</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P16" s="80">
         <f>O16+K16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="180"/>
+      <c r="Q16" s="183"/>
     </row>
     <row r="17" spans="1:17" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
@@ -10776,19 +11001,30 @@
       <c r="E17" s="54"/>
       <c r="F17" s="93"/>
       <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="80">
+      <c r="H17" s="216"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O17" s="93"/>
+      <c r="K17" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="212">
+        <v>0</v>
+      </c>
+      <c r="M17" s="212"/>
+      <c r="N17" s="211">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P17" s="93"/>
-      <c r="Q17" s="180"/>
+      <c r="Q17" s="183"/>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
@@ -10808,30 +11044,35 @@
       <c r="G18" s="78">
         <v>1050</v>
       </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="80">
+      <c r="H18" s="173">
+        <v>1</v>
+      </c>
+      <c r="I18" s="173"/>
+      <c r="J18" s="152">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K18" s="80">
-        <f>J18*F18</f>
-        <v>92400</v>
-      </c>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="211">
+        <v>1</v>
+      </c>
+      <c r="M18" s="211"/>
+      <c r="N18" s="211">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O18" s="80">
-        <f>N18*G18</f>
-        <v>1050</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P18" s="80">
         <f>O18+K18</f>
-        <v>93450</v>
-      </c>
-      <c r="Q18" s="180"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="183"/>
     </row>
     <row r="19" spans="1:17" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
@@ -10853,32 +11094,37 @@
       <c r="G19" s="78">
         <v>1050</v>
       </c>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78">
+      <c r="H19" s="173"/>
+      <c r="I19" s="173">
         <v>2</v>
       </c>
-      <c r="J19" s="80"/>
+      <c r="J19" s="152">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="K19" s="80">
-        <f>J19*F19</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80">
+        <f t="shared" si="1"/>
+        <v>115500</v>
+      </c>
+      <c r="L19" s="211">
+        <v>0</v>
+      </c>
+      <c r="M19" s="211">
         <v>2</v>
       </c>
-      <c r="N19" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N19" s="211">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="O19" s="80">
-        <f>N19*G19</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2100</v>
       </c>
       <c r="P19" s="80">
         <f>O19+K19</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="180"/>
+        <v>117600</v>
+      </c>
+      <c r="Q19" s="183"/>
     </row>
     <row r="20" spans="1:17" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
@@ -10900,32 +11146,37 @@
       <c r="G20" s="78">
         <v>1050</v>
       </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78">
+      <c r="H20" s="173"/>
+      <c r="I20" s="173">
         <v>2</v>
       </c>
-      <c r="J20" s="80"/>
+      <c r="J20" s="152">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="K20" s="80">
-        <f>J20*F20</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80">
+        <f t="shared" si="1"/>
+        <v>42000</v>
+      </c>
+      <c r="L20" s="211">
+        <v>0</v>
+      </c>
+      <c r="M20" s="211">
         <v>2</v>
       </c>
-      <c r="N20" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N20" s="211">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="O20" s="80">
-        <f>N20*G20</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2100</v>
       </c>
       <c r="P20" s="80">
         <f>O20+K20</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="180"/>
+        <v>44100</v>
+      </c>
+      <c r="Q20" s="183"/>
     </row>
     <row r="21" spans="1:17" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="47">
@@ -10939,19 +11190,30 @@
       <c r="E21" s="54"/>
       <c r="F21" s="93"/>
       <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="80">
+      <c r="H21" s="216"/>
+      <c r="I21" s="216"/>
+      <c r="J21" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O21" s="93"/>
+      <c r="K21" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="212">
+        <v>0</v>
+      </c>
+      <c r="M21" s="212"/>
+      <c r="N21" s="211">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P21" s="93"/>
-      <c r="Q21" s="173"/>
+      <c r="Q21" s="176"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="34"/>
@@ -10973,34 +11235,39 @@
       <c r="G22" s="78">
         <v>735</v>
       </c>
-      <c r="H22" s="78"/>
+      <c r="H22" s="173">
+        <v>0</v>
+      </c>
       <c r="I22" s="213">
         <v>43.29</v>
       </c>
-      <c r="J22" s="80">
-        <v>0</v>
+      <c r="J22" s="152">
+        <f t="shared" si="0"/>
+        <v>43.29</v>
       </c>
       <c r="K22" s="80">
-        <f>J22*F22</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="80"/>
+        <f t="shared" si="1"/>
+        <v>131818.04999999999</v>
+      </c>
+      <c r="L22" s="211">
+        <v>0</v>
+      </c>
       <c r="M22" s="213">
         <v>43.29</v>
       </c>
-      <c r="N22" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N22" s="211">
+        <f t="shared" si="2"/>
+        <v>43.29</v>
       </c>
       <c r="O22" s="80">
-        <f>N22*G22</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>31818.149999999998</v>
       </c>
       <c r="P22" s="80">
         <f>O22+K22</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="174"/>
+        <v>163636.19999999998</v>
+      </c>
+      <c r="Q22" s="177"/>
     </row>
     <row r="23" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
@@ -11022,32 +11289,37 @@
       <c r="G23" s="78">
         <v>840</v>
       </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="213">
+      <c r="H23" s="173">
+        <v>0</v>
+      </c>
+      <c r="I23" s="173">
         <v>15.55</v>
       </c>
-      <c r="J23" s="80">
-        <v>0</v>
+      <c r="J23" s="152">
+        <f t="shared" si="0"/>
+        <v>15.55</v>
       </c>
       <c r="K23" s="80">
-        <f>J23*F23</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="80"/>
+        <f t="shared" si="1"/>
+        <v>57146.25</v>
+      </c>
+      <c r="L23" s="211">
+        <v>0</v>
+      </c>
       <c r="M23" s="213">
         <v>15.55</v>
       </c>
-      <c r="N23" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N23" s="211">
+        <f t="shared" si="2"/>
+        <v>15.55</v>
       </c>
       <c r="O23" s="80">
-        <f>N23*G23</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>13062</v>
       </c>
       <c r="P23" s="80">
         <f>O23+K23</f>
-        <v>0</v>
+        <v>70208.25</v>
       </c>
       <c r="Q23" s="4"/>
     </row>
@@ -11063,17 +11335,28 @@
       <c r="E24" s="54"/>
       <c r="F24" s="93"/>
       <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="80">
+      <c r="H24" s="216"/>
+      <c r="I24" s="216"/>
+      <c r="J24" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O24" s="93"/>
+      <c r="K24" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="212">
+        <v>0</v>
+      </c>
+      <c r="M24" s="212"/>
+      <c r="N24" s="211">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P24" s="93"/>
       <c r="Q24" s="19"/>
     </row>
@@ -11097,32 +11380,37 @@
       <c r="G25" s="78">
         <v>210</v>
       </c>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78">
-        <v>25</v>
-      </c>
-      <c r="J25" s="80">
-        <v>0</v>
+      <c r="H25" s="173">
+        <v>0</v>
+      </c>
+      <c r="I25" s="213">
+        <v>43.29</v>
+      </c>
+      <c r="J25" s="152">
+        <f t="shared" si="0"/>
+        <v>43.29</v>
       </c>
       <c r="K25" s="80">
-        <f>J25*F25</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80">
-        <v>25</v>
-      </c>
-      <c r="N25" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>122727.15</v>
+      </c>
+      <c r="L25" s="211">
+        <v>0</v>
+      </c>
+      <c r="M25" s="213">
+        <v>43.29</v>
+      </c>
+      <c r="N25" s="211">
+        <f t="shared" si="2"/>
+        <v>43.29</v>
       </c>
       <c r="O25" s="80">
-        <f>N25*G25</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>9090.9</v>
       </c>
       <c r="P25" s="80">
         <f>O25+K25</f>
-        <v>0</v>
+        <v>131818.04999999999</v>
       </c>
       <c r="Q25" s="26"/>
     </row>
@@ -11146,32 +11434,37 @@
       <c r="G26" s="78">
         <v>315</v>
       </c>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78">
-        <v>15</v>
-      </c>
-      <c r="J26" s="80">
-        <v>0</v>
+      <c r="H26" s="173">
+        <v>0</v>
+      </c>
+      <c r="I26" s="173">
+        <v>15.55</v>
+      </c>
+      <c r="J26" s="152">
+        <f t="shared" si="0"/>
+        <v>15.55</v>
       </c>
       <c r="K26" s="80">
-        <f>J26*F26</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80">
-        <v>15</v>
-      </c>
-      <c r="N26" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>62044.5</v>
+      </c>
+      <c r="L26" s="211">
+        <v>0</v>
+      </c>
+      <c r="M26" s="173">
+        <v>15.55</v>
+      </c>
+      <c r="N26" s="211">
+        <f t="shared" si="2"/>
+        <v>15.55</v>
       </c>
       <c r="O26" s="80">
-        <f>N26*G26</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4898.25</v>
       </c>
       <c r="P26" s="80">
         <f>O26+K26</f>
-        <v>0</v>
+        <v>66942.75</v>
       </c>
       <c r="Q26" s="24"/>
     </row>
@@ -11197,28 +11490,37 @@
       <c r="G27" s="107">
         <v>315</v>
       </c>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="80">
-        <v>0</v>
-      </c>
-      <c r="K27" s="80">
-        <f>J27*F27</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80">
+      <c r="H27" s="217">
+        <v>0</v>
+      </c>
+      <c r="I27" s="229">
+        <v>17</v>
+      </c>
+      <c r="J27" s="210">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="80">
-        <f>N27*G27</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="80">
+        <v>17</v>
+      </c>
+      <c r="K27" s="81">
+        <f t="shared" si="1"/>
+        <v>28560</v>
+      </c>
+      <c r="L27" s="220">
+        <v>0</v>
+      </c>
+      <c r="M27" s="220">
+        <v>17</v>
+      </c>
+      <c r="N27" s="220">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O27" s="81">
+        <f t="shared" si="3"/>
+        <v>5355</v>
+      </c>
+      <c r="P27" s="81">
         <f>O27+K27</f>
-        <v>0</v>
+        <v>33915</v>
       </c>
       <c r="Q27" s="20"/>
     </row>
@@ -11238,17 +11540,28 @@
       <c r="G28" s="96">
         <v>0</v>
       </c>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="80">
+      <c r="H28" s="218"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O28" s="96"/>
+      <c r="K28" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="214">
+        <v>0</v>
+      </c>
+      <c r="M28" s="214"/>
+      <c r="N28" s="211">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P28" s="96"/>
       <c r="Q28" s="25"/>
     </row>
@@ -11270,28 +11583,33 @@
       <c r="G29" s="78">
         <v>3150</v>
       </c>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="80">
+      <c r="H29" s="173">
+        <v>1</v>
+      </c>
+      <c r="I29" s="173"/>
+      <c r="J29" s="152">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K29" s="80">
-        <f t="shared" ref="K29:K45" si="1">J29*F29</f>
-        <v>270480</v>
-      </c>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="211">
+        <v>1</v>
+      </c>
+      <c r="M29" s="211"/>
+      <c r="N29" s="211">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O29" s="80">
-        <f t="shared" ref="O29:O45" si="2">N29*G29</f>
-        <v>3150</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P29" s="80">
-        <f t="shared" ref="P29:P45" si="3">O29+K29</f>
-        <v>273630</v>
+        <f t="shared" ref="P29:P45" si="4">O29+K29</f>
+        <v>0</v>
       </c>
       <c r="Q29" s="25"/>
     </row>
@@ -11313,28 +11631,33 @@
       <c r="G30" s="78">
         <v>3150</v>
       </c>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="80">
+      <c r="H30" s="173">
+        <v>1</v>
+      </c>
+      <c r="I30" s="173"/>
+      <c r="J30" s="152">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K30" s="80">
         <f t="shared" si="1"/>
-        <v>277463</v>
-      </c>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="211">
+        <v>1</v>
+      </c>
+      <c r="M30" s="211"/>
+      <c r="N30" s="211">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O30" s="80">
-        <f t="shared" si="2"/>
-        <v>3150</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P30" s="80">
-        <f t="shared" si="3"/>
-        <v>280613</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q30" s="22"/>
     </row>
@@ -11356,28 +11679,33 @@
       <c r="G31" s="78">
         <v>3150</v>
       </c>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="80">
+      <c r="H31" s="173">
+        <v>2</v>
+      </c>
+      <c r="I31" s="173"/>
+      <c r="J31" s="152">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K31" s="80">
         <f t="shared" si="1"/>
-        <v>620340</v>
-      </c>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="211">
         <v>2</v>
       </c>
+      <c r="M31" s="211"/>
+      <c r="N31" s="211">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="O31" s="80">
-        <f t="shared" si="2"/>
-        <v>6300</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P31" s="80">
-        <f t="shared" si="3"/>
-        <v>626640</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q31" s="23"/>
     </row>
@@ -11399,28 +11727,33 @@
       <c r="G32" s="78">
         <v>3150</v>
       </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="80">
+      <c r="H32" s="173">
+        <v>1</v>
+      </c>
+      <c r="I32" s="173"/>
+      <c r="J32" s="152">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K32" s="80">
         <f t="shared" si="1"/>
-        <v>295470</v>
-      </c>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="211">
+        <v>1</v>
+      </c>
+      <c r="M32" s="211"/>
+      <c r="N32" s="211">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O32" s="80">
-        <f t="shared" si="2"/>
-        <v>3150</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P32" s="80">
-        <f t="shared" si="3"/>
-        <v>298620</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q32" s="21"/>
     </row>
@@ -11442,28 +11775,33 @@
       <c r="G33" s="78">
         <v>3150</v>
       </c>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="80">
+      <c r="H33" s="173">
+        <v>2</v>
+      </c>
+      <c r="I33" s="173"/>
+      <c r="J33" s="152">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K33" s="80">
         <f t="shared" si="1"/>
-        <v>570360</v>
-      </c>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="211">
         <v>2</v>
       </c>
+      <c r="M33" s="211"/>
+      <c r="N33" s="211">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="O33" s="80">
-        <f t="shared" si="2"/>
-        <v>6300</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P33" s="80">
-        <f t="shared" si="3"/>
-        <v>576660</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q33" s="18"/>
     </row>
@@ -11485,28 +11823,33 @@
       <c r="G34" s="78">
         <v>3150</v>
       </c>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="80">
+      <c r="H34" s="173">
+        <v>2</v>
+      </c>
+      <c r="I34" s="173"/>
+      <c r="J34" s="152">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K34" s="80">
         <f t="shared" si="1"/>
-        <v>590940</v>
-      </c>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="211">
         <v>2</v>
       </c>
+      <c r="M34" s="211"/>
+      <c r="N34" s="211">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="O34" s="80">
-        <f t="shared" si="2"/>
-        <v>6300</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P34" s="80">
-        <f t="shared" si="3"/>
-        <v>597240</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q34" s="18"/>
     </row>
@@ -11528,28 +11871,33 @@
       <c r="G35" s="78">
         <v>3150</v>
       </c>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="80">
+      <c r="H35" s="173">
+        <v>1</v>
+      </c>
+      <c r="I35" s="173"/>
+      <c r="J35" s="152">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K35" s="80">
         <f t="shared" si="1"/>
-        <v>308700</v>
-      </c>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="211">
+        <v>1</v>
+      </c>
+      <c r="M35" s="211"/>
+      <c r="N35" s="211">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O35" s="80">
-        <f t="shared" si="2"/>
-        <v>3150</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P35" s="80">
-        <f t="shared" si="3"/>
-        <v>311850</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q35" s="18"/>
     </row>
@@ -11571,28 +11919,33 @@
       <c r="G36" s="78">
         <v>3150</v>
       </c>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="80">
+      <c r="H36" s="173">
+        <v>1</v>
+      </c>
+      <c r="I36" s="173"/>
+      <c r="J36" s="152">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K36" s="80">
         <f t="shared" si="1"/>
-        <v>295470</v>
-      </c>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="80">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="211">
+        <v>1</v>
+      </c>
+      <c r="M36" s="211"/>
+      <c r="N36" s="211">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O36" s="80">
-        <f t="shared" si="2"/>
-        <v>3150</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P36" s="80">
-        <f t="shared" si="3"/>
-        <v>298620</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q36" s="18"/>
     </row>
@@ -11614,28 +11967,33 @@
       <c r="G37" s="78">
         <v>3150</v>
       </c>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="80">
+      <c r="H37" s="173">
+        <v>1</v>
+      </c>
+      <c r="I37" s="173"/>
+      <c r="J37" s="152">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K37" s="80">
         <f t="shared" si="1"/>
-        <v>285180</v>
-      </c>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="211">
+        <v>1</v>
+      </c>
+      <c r="M37" s="211"/>
+      <c r="N37" s="211">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O37" s="80">
-        <f t="shared" si="2"/>
-        <v>3150</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P37" s="80">
-        <f t="shared" si="3"/>
-        <v>288330</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q37" s="18"/>
     </row>
@@ -11657,28 +12015,33 @@
       <c r="G38" s="78">
         <v>3150</v>
       </c>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="80">
+      <c r="H38" s="173">
+        <v>1</v>
+      </c>
+      <c r="I38" s="173"/>
+      <c r="J38" s="152">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K38" s="80">
         <f t="shared" si="1"/>
-        <v>295470</v>
-      </c>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="211">
+        <v>1</v>
+      </c>
+      <c r="M38" s="211"/>
+      <c r="N38" s="211">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O38" s="80">
-        <f t="shared" si="2"/>
-        <v>3150</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P38" s="80">
-        <f t="shared" si="3"/>
-        <v>298620</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q38" s="18"/>
     </row>
@@ -11700,28 +12063,33 @@
       <c r="G39" s="78">
         <v>3150</v>
       </c>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="80">
+      <c r="H39" s="173">
+        <v>1</v>
+      </c>
+      <c r="I39" s="173"/>
+      <c r="J39" s="152">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K39" s="80">
         <f t="shared" si="1"/>
-        <v>285180</v>
-      </c>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
-      <c r="N39" s="80">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="211">
+        <v>1</v>
+      </c>
+      <c r="M39" s="211"/>
+      <c r="N39" s="211">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O39" s="80">
-        <f t="shared" si="2"/>
-        <v>3150</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P39" s="80">
-        <f t="shared" si="3"/>
-        <v>288330</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q39" s="18"/>
     </row>
@@ -11743,28 +12111,33 @@
       <c r="G40" s="78">
         <v>3150</v>
       </c>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="80">
+      <c r="H40" s="173">
+        <v>1</v>
+      </c>
+      <c r="I40" s="173"/>
+      <c r="J40" s="152">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K40" s="80">
         <f t="shared" si="1"/>
-        <v>285180</v>
-      </c>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="211">
+        <v>1</v>
+      </c>
+      <c r="M40" s="211"/>
+      <c r="N40" s="211">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O40" s="80">
-        <f t="shared" si="2"/>
-        <v>3150</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P40" s="80">
-        <f t="shared" si="3"/>
-        <v>288330</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q40" s="18"/>
     </row>
@@ -11786,28 +12159,33 @@
       <c r="G41" s="78">
         <v>3150</v>
       </c>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="80">
+      <c r="H41" s="173">
+        <v>1</v>
+      </c>
+      <c r="I41" s="173"/>
+      <c r="J41" s="152">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K41" s="80">
         <f t="shared" si="1"/>
-        <v>285170</v>
-      </c>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="211">
+        <v>1</v>
+      </c>
+      <c r="M41" s="211"/>
+      <c r="N41" s="211">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O41" s="80">
-        <f t="shared" si="2"/>
-        <v>3150</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P41" s="80">
-        <f t="shared" si="3"/>
-        <v>288320</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q41" s="18"/>
     </row>
@@ -11829,28 +12207,33 @@
       <c r="G42" s="78">
         <v>3150</v>
       </c>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="80">
+      <c r="H42" s="173">
+        <v>1</v>
+      </c>
+      <c r="I42" s="173"/>
+      <c r="J42" s="152">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K42" s="80">
         <f t="shared" si="1"/>
-        <v>296205</v>
-      </c>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="211">
+        <v>1</v>
+      </c>
+      <c r="M42" s="211"/>
+      <c r="N42" s="211">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O42" s="80">
-        <f t="shared" si="2"/>
-        <v>3150</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P42" s="80">
-        <f t="shared" si="3"/>
-        <v>299355</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q42" s="18"/>
     </row>
@@ -11872,28 +12255,33 @@
       <c r="G43" s="78">
         <v>3150</v>
       </c>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="80">
+      <c r="H43" s="173">
+        <v>1</v>
+      </c>
+      <c r="I43" s="173"/>
+      <c r="J43" s="152">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K43" s="80">
         <f t="shared" si="1"/>
-        <v>285180</v>
-      </c>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="211">
+        <v>1</v>
+      </c>
+      <c r="M43" s="211"/>
+      <c r="N43" s="211">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O43" s="80">
-        <f t="shared" si="2"/>
-        <v>3150</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P43" s="80">
-        <f t="shared" si="3"/>
-        <v>288330</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q43" s="18"/>
     </row>
@@ -11915,28 +12303,33 @@
       <c r="G44" s="78">
         <v>3150</v>
       </c>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="80">
+      <c r="H44" s="173">
+        <v>1</v>
+      </c>
+      <c r="I44" s="173"/>
+      <c r="J44" s="152">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K44" s="80">
         <f t="shared" si="1"/>
-        <v>277463</v>
-      </c>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="211">
+        <v>1</v>
+      </c>
+      <c r="M44" s="211"/>
+      <c r="N44" s="211">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O44" s="80">
-        <f t="shared" si="2"/>
-        <v>3150</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P44" s="80">
-        <f t="shared" si="3"/>
-        <v>280613</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q44" s="18"/>
     </row>
@@ -11958,28 +12351,33 @@
       <c r="G45" s="78">
         <v>3150</v>
       </c>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="80">
+      <c r="H45" s="173">
+        <v>1</v>
+      </c>
+      <c r="I45" s="173"/>
+      <c r="J45" s="152">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K45" s="80">
         <f t="shared" si="1"/>
-        <v>285180</v>
-      </c>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="211">
+        <v>1</v>
+      </c>
+      <c r="M45" s="211"/>
+      <c r="N45" s="211">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O45" s="80">
-        <f t="shared" si="2"/>
-        <v>3150</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P45" s="80">
-        <f t="shared" si="3"/>
-        <v>288330</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q45" s="18"/>
       <c r="S45" s="144">
@@ -11999,17 +12397,28 @@
       <c r="E46" s="58"/>
       <c r="F46" s="94"/>
       <c r="G46" s="98"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="98"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="98"/>
-      <c r="N46" s="80">
+      <c r="H46" s="219"/>
+      <c r="I46" s="219"/>
+      <c r="J46" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O46" s="98"/>
+      <c r="K46" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="215">
+        <v>0</v>
+      </c>
+      <c r="M46" s="215"/>
+      <c r="N46" s="211">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P46" s="98"/>
       <c r="Q46" s="17"/>
     </row>
@@ -12035,28 +12444,33 @@
       <c r="G47" s="78">
         <v>3150</v>
       </c>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="80">
+      <c r="H47" s="173">
+        <v>1</v>
+      </c>
+      <c r="I47" s="173"/>
+      <c r="J47" s="152">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K47" s="80">
-        <f t="shared" ref="K47:K52" si="4">J47*F47</f>
-        <v>24675</v>
-      </c>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="211">
+        <v>1</v>
+      </c>
+      <c r="M47" s="211"/>
+      <c r="N47" s="211">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O47" s="80">
-        <f t="shared" ref="O47:O52" si="5">N47*G47</f>
-        <v>3150</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P47" s="80">
-        <f t="shared" ref="P47:P52" si="6">O47+K47</f>
-        <v>27825</v>
+        <f t="shared" ref="P47:P52" si="5">O47+K47</f>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
@@ -12081,28 +12495,33 @@
       <c r="G48" s="78">
         <v>3150</v>
       </c>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="80">
+      <c r="H48" s="173">
         <v>2</v>
       </c>
-      <c r="K48" s="80">
-        <f t="shared" si="4"/>
-        <v>119700</v>
-      </c>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
-      <c r="N48" s="80">
+      <c r="I48" s="173"/>
+      <c r="J48" s="152">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="K48" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="211">
+        <v>2</v>
+      </c>
+      <c r="M48" s="211"/>
+      <c r="N48" s="211">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="O48" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="80">
         <f t="shared" si="5"/>
-        <v>6300</v>
-      </c>
-      <c r="P48" s="80">
-        <f t="shared" si="6"/>
-        <v>126000</v>
+        <v>0</v>
       </c>
       <c r="V48" s="142" t="e">
         <f>#REF!+#REF!+#REF!</f>
@@ -12129,28 +12548,33 @@
       <c r="G49" s="78">
         <v>3150</v>
       </c>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="80">
+      <c r="H49" s="173">
         <v>2</v>
       </c>
-      <c r="K49" s="80">
-        <f t="shared" si="4"/>
-        <v>135450</v>
-      </c>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="80">
+      <c r="I49" s="173"/>
+      <c r="J49" s="152">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="K49" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="211">
+        <v>2</v>
+      </c>
+      <c r="M49" s="211"/>
+      <c r="N49" s="211">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="O49" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="80">
         <f t="shared" si="5"/>
-        <v>6300</v>
-      </c>
-      <c r="P49" s="80">
-        <f t="shared" si="6"/>
-        <v>141750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="206.25" x14ac:dyDescent="0.2">
@@ -12173,28 +12597,37 @@
       <c r="G50" s="78">
         <v>693</v>
       </c>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="153">
+      <c r="H50" s="173">
         <v>508.5</v>
       </c>
+      <c r="I50" s="173">
+        <v>97.6</v>
+      </c>
+      <c r="J50" s="152">
+        <f t="shared" si="0"/>
+        <v>606.1</v>
+      </c>
       <c r="K50" s="80">
-        <f t="shared" si="4"/>
-        <v>2936587.5</v>
-      </c>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="153">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>563640</v>
+      </c>
+      <c r="L50" s="211">
         <v>508.5</v>
       </c>
+      <c r="M50" s="211">
+        <v>97.6</v>
+      </c>
+      <c r="N50" s="211">
+        <f t="shared" si="2"/>
+        <v>606.1</v>
+      </c>
       <c r="O50" s="80">
+        <f t="shared" si="3"/>
+        <v>67636.800000000003</v>
+      </c>
+      <c r="P50" s="80">
         <f t="shared" si="5"/>
-        <v>352390.5</v>
-      </c>
-      <c r="P50" s="80">
-        <f t="shared" si="6"/>
-        <v>3288978</v>
+        <v>631276.80000000005</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12217,28 +12650,37 @@
       <c r="G51" s="78">
         <v>578</v>
       </c>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="153">
+      <c r="H51" s="173">
         <v>508.5</v>
       </c>
+      <c r="I51" s="173">
+        <v>97.6</v>
+      </c>
+      <c r="J51" s="152">
+        <f t="shared" si="0"/>
+        <v>606.1</v>
+      </c>
       <c r="K51" s="80">
-        <f t="shared" si="4"/>
-        <v>3070323</v>
-      </c>
-      <c r="L51" s="80"/>
-      <c r="M51" s="80"/>
-      <c r="N51" s="153">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>589308.79999999993</v>
+      </c>
+      <c r="L51" s="211">
         <v>508.5</v>
       </c>
+      <c r="M51" s="173">
+        <v>97.6</v>
+      </c>
+      <c r="N51" s="211">
+        <f t="shared" si="2"/>
+        <v>606.1</v>
+      </c>
       <c r="O51" s="80">
+        <f t="shared" si="3"/>
+        <v>56412.799999999996</v>
+      </c>
+      <c r="P51" s="80">
         <f t="shared" si="5"/>
-        <v>293913</v>
-      </c>
-      <c r="P51" s="80">
-        <f t="shared" si="6"/>
-        <v>3364236</v>
+        <v>645721.59999999998</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="123" customHeight="1" x14ac:dyDescent="0.2">
@@ -12261,32 +12703,37 @@
       <c r="G52" s="78">
         <v>578</v>
       </c>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78">
+      <c r="H52" s="173">
+        <v>0</v>
+      </c>
+      <c r="I52" s="226">
         <v>32</v>
       </c>
-      <c r="J52" s="80">
-        <v>0</v>
+      <c r="J52" s="152">
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="K52" s="80">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="80"/>
-      <c r="M52" s="80">
+        <f t="shared" si="1"/>
+        <v>183136</v>
+      </c>
+      <c r="L52" s="211">
+        <v>0</v>
+      </c>
+      <c r="M52" s="211">
         <v>32</v>
       </c>
-      <c r="N52" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N52" s="211">
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="O52" s="80">
+        <f t="shared" si="3"/>
+        <v>18496</v>
+      </c>
+      <c r="P52" s="80">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="80">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>201632</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="175.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12301,17 +12748,28 @@
       <c r="E53" s="54"/>
       <c r="F53" s="93"/>
       <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="93"/>
-      <c r="L53" s="93"/>
-      <c r="M53" s="93"/>
-      <c r="N53" s="80">
+      <c r="H53" s="216"/>
+      <c r="I53" s="216"/>
+      <c r="J53" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O53" s="93"/>
+      <c r="K53" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="212">
+        <v>0</v>
+      </c>
+      <c r="M53" s="212"/>
+      <c r="N53" s="211">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P53" s="104"/>
     </row>
     <row r="54" spans="1:16" ht="37.5" x14ac:dyDescent="0.2">
@@ -12324,17 +12782,28 @@
       <c r="E54" s="54"/>
       <c r="F54" s="93"/>
       <c r="G54" s="93"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="93"/>
-      <c r="J54" s="93"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="93"/>
-      <c r="M54" s="93"/>
-      <c r="N54" s="80">
+      <c r="H54" s="216"/>
+      <c r="I54" s="216"/>
+      <c r="J54" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O54" s="93"/>
+      <c r="K54" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="212">
+        <v>0</v>
+      </c>
+      <c r="M54" s="212"/>
+      <c r="N54" s="211">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P54" s="104"/>
     </row>
     <row r="55" spans="1:16" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -12357,32 +12826,37 @@
       <c r="G55" s="78">
         <v>735</v>
       </c>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78">
+      <c r="H55" s="173">
+        <v>0</v>
+      </c>
+      <c r="I55" s="173">
         <v>15</v>
       </c>
-      <c r="J55" s="80">
-        <v>0</v>
+      <c r="J55" s="152">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="K55" s="80">
-        <f>J55*F55</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="80"/>
-      <c r="M55" s="78">
+        <f t="shared" si="1"/>
+        <v>63000</v>
+      </c>
+      <c r="L55" s="211">
+        <v>0</v>
+      </c>
+      <c r="M55" s="213">
         <v>15</v>
       </c>
-      <c r="N55" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N55" s="211">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="O55" s="80">
-        <f>N55*G55</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>11025</v>
       </c>
       <c r="P55" s="80">
         <f>O55+K55</f>
-        <v>0</v>
+        <v>74025</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12405,32 +12879,37 @@
       <c r="G56" s="78">
         <v>1050</v>
       </c>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78">
+      <c r="H56" s="173">
+        <v>0</v>
+      </c>
+      <c r="I56" s="173">
         <v>4</v>
       </c>
-      <c r="J56" s="80">
-        <v>0</v>
+      <c r="J56" s="152">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="K56" s="80">
-        <f>J56*F56</f>
-        <v>0</v>
-      </c>
-      <c r="L56" s="80"/>
-      <c r="M56" s="78">
+        <f t="shared" si="1"/>
+        <v>37800</v>
+      </c>
+      <c r="L56" s="211">
+        <v>0</v>
+      </c>
+      <c r="M56" s="213">
         <v>4</v>
       </c>
-      <c r="N56" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N56" s="211">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="O56" s="80">
-        <f>N56*G56</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4200</v>
       </c>
       <c r="P56" s="80">
         <f>O56+K56</f>
-        <v>0</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12443,17 +12922,28 @@
       <c r="E57" s="54"/>
       <c r="F57" s="93"/>
       <c r="G57" s="93"/>
-      <c r="H57" s="93"/>
-      <c r="I57" s="93"/>
-      <c r="J57" s="93"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="93"/>
-      <c r="M57" s="93"/>
-      <c r="N57" s="80">
+      <c r="H57" s="216"/>
+      <c r="I57" s="216"/>
+      <c r="J57" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O57" s="93"/>
+      <c r="K57" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="212">
+        <v>0</v>
+      </c>
+      <c r="M57" s="212"/>
+      <c r="N57" s="211">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P57" s="104"/>
     </row>
     <row r="58" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12476,23 +12966,28 @@
       <c r="G58" s="78">
         <v>735</v>
       </c>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="80">
+      <c r="H58" s="173">
+        <v>0</v>
+      </c>
+      <c r="I58" s="173"/>
+      <c r="J58" s="152">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K58" s="80">
-        <f>J58*F58</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="80"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="211">
+        <v>0</v>
+      </c>
+      <c r="M58" s="213"/>
+      <c r="N58" s="211">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O58" s="80">
-        <f>N58*G58</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P58" s="80">
@@ -12520,32 +13015,37 @@
       <c r="G59" s="78">
         <v>525</v>
       </c>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78">
+      <c r="H59" s="173">
+        <v>0</v>
+      </c>
+      <c r="I59" s="173">
         <v>2</v>
       </c>
-      <c r="J59" s="80">
-        <v>0</v>
+      <c r="J59" s="152">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="K59" s="80">
-        <f>J59*F59</f>
-        <v>0</v>
-      </c>
-      <c r="L59" s="80"/>
-      <c r="M59" s="78">
+        <f t="shared" si="1"/>
+        <v>6300</v>
+      </c>
+      <c r="L59" s="211">
+        <v>0</v>
+      </c>
+      <c r="M59" s="213">
         <v>2</v>
       </c>
-      <c r="N59" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N59" s="211">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="O59" s="80">
-        <f>N59*G59</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1050</v>
       </c>
       <c r="P59" s="80">
         <f>O59+K59</f>
-        <v>0</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -12558,17 +13058,28 @@
       <c r="E60" s="54"/>
       <c r="F60" s="93"/>
       <c r="G60" s="93"/>
-      <c r="H60" s="93"/>
-      <c r="I60" s="93"/>
-      <c r="J60" s="93"/>
-      <c r="K60" s="93"/>
-      <c r="L60" s="93"/>
-      <c r="M60" s="93"/>
-      <c r="N60" s="80">
+      <c r="H60" s="216"/>
+      <c r="I60" s="216"/>
+      <c r="J60" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O60" s="93"/>
+      <c r="K60" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="212">
+        <v>0</v>
+      </c>
+      <c r="M60" s="212"/>
+      <c r="N60" s="211">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P60" s="104"/>
     </row>
     <row r="61" spans="1:16" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -12591,32 +13102,37 @@
       <c r="G61" s="78">
         <v>735</v>
       </c>
-      <c r="H61" s="78"/>
-      <c r="I61" s="212">
+      <c r="H61" s="173">
+        <v>0</v>
+      </c>
+      <c r="I61" s="173">
         <v>115.5</v>
       </c>
-      <c r="J61" s="80">
-        <v>0</v>
+      <c r="J61" s="152">
+        <f t="shared" si="0"/>
+        <v>115.5</v>
       </c>
       <c r="K61" s="80">
-        <f>J61*F61</f>
-        <v>0</v>
-      </c>
-      <c r="L61" s="80"/>
-      <c r="M61" s="212">
+        <f t="shared" si="1"/>
+        <v>545737.5</v>
+      </c>
+      <c r="L61" s="211">
+        <v>0</v>
+      </c>
+      <c r="M61" s="213">
         <v>115.5</v>
       </c>
-      <c r="N61" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N61" s="211">
+        <f t="shared" si="2"/>
+        <v>115.5</v>
       </c>
       <c r="O61" s="80">
-        <f>N61*G61</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>84892.5</v>
       </c>
       <c r="P61" s="80">
         <f>O61+K61</f>
-        <v>0</v>
+        <v>630630</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12631,17 +13147,28 @@
       <c r="E62" s="54"/>
       <c r="F62" s="93"/>
       <c r="G62" s="93"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="93"/>
-      <c r="J62" s="93"/>
-      <c r="K62" s="93"/>
-      <c r="L62" s="93"/>
-      <c r="M62" s="93"/>
-      <c r="N62" s="80">
+      <c r="H62" s="216"/>
+      <c r="I62" s="216"/>
+      <c r="J62" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O62" s="93"/>
+      <c r="K62" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="212">
+        <v>0</v>
+      </c>
+      <c r="M62" s="212"/>
+      <c r="N62" s="211">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P62" s="104"/>
     </row>
     <row r="63" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -12664,30 +13191,35 @@
       <c r="G63" s="78">
         <v>315</v>
       </c>
-      <c r="H63" s="78"/>
-      <c r="I63" s="78">
+      <c r="H63" s="173"/>
+      <c r="I63" s="173">
         <v>120</v>
       </c>
-      <c r="J63" s="80"/>
+      <c r="J63" s="152">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
       <c r="K63" s="80">
-        <f>J63*F63</f>
-        <v>0</v>
-      </c>
-      <c r="L63" s="80"/>
-      <c r="M63" s="80">
+        <f t="shared" si="1"/>
+        <v>182760</v>
+      </c>
+      <c r="L63" s="211">
+        <v>0</v>
+      </c>
+      <c r="M63" s="211">
         <v>120</v>
       </c>
-      <c r="N63" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N63" s="211">
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="O63" s="80">
-        <f>N63*G63</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>37800</v>
       </c>
       <c r="P63" s="80">
         <f>O63+K63</f>
-        <v>0</v>
+        <v>220560</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="96" customHeight="1" x14ac:dyDescent="0.2">
@@ -12702,17 +13234,28 @@
       <c r="E64" s="54"/>
       <c r="F64" s="93"/>
       <c r="G64" s="93"/>
-      <c r="H64" s="93"/>
-      <c r="I64" s="93"/>
-      <c r="J64" s="93"/>
-      <c r="K64" s="93"/>
-      <c r="L64" s="93"/>
-      <c r="M64" s="93"/>
-      <c r="N64" s="80">
+      <c r="H64" s="216"/>
+      <c r="I64" s="216"/>
+      <c r="J64" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O64" s="93"/>
+      <c r="K64" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="212">
+        <v>0</v>
+      </c>
+      <c r="M64" s="212"/>
+      <c r="N64" s="211">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P64" s="104"/>
     </row>
     <row r="65" spans="1:21" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12735,28 +13278,35 @@
       <c r="G65" s="78">
         <v>263</v>
       </c>
-      <c r="H65" s="78"/>
-      <c r="I65" s="78">
-        <v>120</v>
-      </c>
-      <c r="J65" s="80"/>
+      <c r="H65" s="173"/>
+      <c r="I65" s="173">
+        <v>123</v>
+      </c>
+      <c r="J65" s="152">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
       <c r="K65" s="80">
-        <f>J65*F65</f>
-        <v>0</v>
-      </c>
-      <c r="L65" s="80"/>
-      <c r="M65" s="80"/>
-      <c r="N65" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>355224</v>
+      </c>
+      <c r="L65" s="211">
+        <v>0</v>
+      </c>
+      <c r="M65" s="211">
+        <v>123</v>
+      </c>
+      <c r="N65" s="211">
+        <f t="shared" si="2"/>
+        <v>123</v>
       </c>
       <c r="O65" s="80">
-        <f>N65*G65</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>32349</v>
       </c>
       <c r="P65" s="80">
         <f>O65+K65</f>
-        <v>0</v>
+        <v>387573</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="120" customHeight="1" x14ac:dyDescent="0.2">
@@ -12779,28 +13329,35 @@
       <c r="G66" s="78">
         <v>5250</v>
       </c>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78">
+      <c r="H66" s="173"/>
+      <c r="I66" s="226">
         <v>2</v>
       </c>
-      <c r="J66" s="80"/>
+      <c r="J66" s="152">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="K66" s="80">
-        <f>J66*F66</f>
-        <v>0</v>
-      </c>
-      <c r="L66" s="80"/>
-      <c r="M66" s="80"/>
-      <c r="N66" s="80">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>95550</v>
+      </c>
+      <c r="L66" s="211">
+        <v>0</v>
+      </c>
+      <c r="M66" s="211">
+        <v>2</v>
+      </c>
+      <c r="N66" s="211">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="O66" s="80">
-        <f>N66*G66</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10500</v>
       </c>
       <c r="P66" s="80">
         <f>O66+K66</f>
-        <v>0</v>
+        <v>106050</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12823,24 +13380,32 @@
       <c r="G67" s="78">
         <v>15750</v>
       </c>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78">
-        <v>100</v>
-      </c>
-      <c r="J67" s="207">
+      <c r="H67" s="173">
         <v>0.5</v>
       </c>
+      <c r="I67" s="173">
+        <v>0.5</v>
+      </c>
+      <c r="J67" s="152">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="K67" s="80">
-        <f>J67*F67</f>
+        <f t="shared" si="1"/>
         <v>10500</v>
       </c>
-      <c r="L67" s="80"/>
-      <c r="M67" s="80"/>
-      <c r="N67" s="207">
+      <c r="L67" s="211">
         <v>0.5</v>
       </c>
+      <c r="M67" s="211">
+        <v>0.5</v>
+      </c>
+      <c r="N67" s="211">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="O67" s="80">
-        <f>N67*G67</f>
+        <f t="shared" si="3"/>
         <v>7875</v>
       </c>
       <c r="P67" s="80">
@@ -12868,25 +13433,33 @@
       <c r="G68" s="78">
         <v>52500</v>
       </c>
-      <c r="H68" s="78"/>
-      <c r="I68" s="78"/>
-      <c r="J68" s="80">
+      <c r="H68" s="173">
+        <v>1</v>
+      </c>
+      <c r="I68" s="173"/>
+      <c r="J68" s="152">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K68" s="80">
-        <f>J68*F68</f>
-        <v>0</v>
-      </c>
-      <c r="L68" s="80"/>
-      <c r="M68" s="80"/>
-      <c r="N68" s="80"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="211"/>
+      <c r="M68" s="211">
+        <v>1</v>
+      </c>
+      <c r="N68" s="211">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="O68" s="80">
-        <f>N68*G68</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>52500</v>
       </c>
       <c r="P68" s="80">
         <f>O68+K68</f>
-        <v>0</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="150" x14ac:dyDescent="0.2">
@@ -12909,22 +13482,32 @@
       <c r="G69" s="78">
         <v>15750</v>
       </c>
-      <c r="H69" s="78"/>
-      <c r="I69" s="78"/>
-      <c r="J69" s="207">
+      <c r="H69" s="173">
         <v>0.5</v>
       </c>
+      <c r="I69" s="173">
+        <v>0.5</v>
+      </c>
+      <c r="J69" s="152">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="K69" s="80">
-        <f>J69*F69</f>
+        <f t="shared" si="1"/>
         <v>5250</v>
       </c>
-      <c r="L69" s="80"/>
-      <c r="M69" s="80"/>
-      <c r="N69" s="207">
+      <c r="L69" s="211">
         <v>0.5</v>
       </c>
+      <c r="M69" s="211">
+        <v>0.5</v>
+      </c>
+      <c r="N69" s="211">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="O69" s="80">
-        <f>N69*G69</f>
+        <f t="shared" si="3"/>
         <v>7875</v>
       </c>
       <c r="P69" s="80">
@@ -12946,32 +13529,35 @@
       <c r="I70" s="138"/>
       <c r="J70" s="138"/>
       <c r="K70" s="91">
-        <f t="shared" ref="K70:O70" si="7">SUM(K6:K69)</f>
-        <v>12293464.5</v>
+        <f t="shared" ref="K70:O70" si="6">SUM(K6:K69)</f>
+        <v>3206770.25</v>
       </c>
       <c r="L70" s="91"/>
       <c r="M70" s="91"/>
       <c r="N70" s="91"/>
       <c r="O70" s="91">
-        <f t="shared" si="7"/>
-        <v>844753.5</v>
+        <f>SUM(O6:O69)</f>
+        <v>483086.39999999997</v>
       </c>
       <c r="P70" s="91">
         <f>SUM(P6:P69)</f>
-        <v>13138218</v>
+        <v>3689856.65</v>
       </c>
       <c r="S70" s="141">
         <f>P70/95%</f>
-        <v>13829703.157894738</v>
+        <v>3884059.6315789474</v>
       </c>
       <c r="T70" s="141">
         <f>S70*5%</f>
-        <v>691485.15789473697</v>
+        <v>194202.98157894739</v>
       </c>
       <c r="U70" s="141">
         <f>S70-T70</f>
-        <v>13138218.000000002</v>
-      </c>
+        <v>3689856.65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P71" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12984,17 +13570,17 @@
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="63" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="48" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C25DFE2-1E29-4804-9C8C-35BFC94D2CE6}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13004,48 +13590,56 @@
     <col min="3" max="3" width="8.5" style="68" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="68" customWidth="1"/>
     <col min="5" max="5" width="11" style="67" customWidth="1"/>
-    <col min="6" max="7" width="14.1640625" style="67" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="67" customWidth="1"/>
-    <col min="9" max="10" width="14.1640625" style="67" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="67" customWidth="1"/>
-    <col min="12" max="13" width="9.33203125" style="67"/>
-    <col min="14" max="16" width="19.33203125" style="67" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="67"/>
+    <col min="6" max="9" width="14.1640625" style="67" customWidth="1"/>
+    <col min="10" max="12" width="17.33203125" style="67" customWidth="1"/>
+    <col min="13" max="14" width="14.1640625" style="67" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="67" customWidth="1"/>
+    <col min="16" max="17" width="9.33203125" style="67"/>
+    <col min="18" max="20" width="19.33203125" style="67" customWidth="1"/>
+    <col min="21" max="16384" width="9.33203125" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="195" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-    </row>
-    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="194" t="s">
+    <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="200" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+    </row>
+    <row r="2" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="199" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="182" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-    </row>
-    <row r="3" spans="1:11" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="193" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="195"/>
+    </row>
+    <row r="3" spans="1:15" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
         <v>116</v>
       </c>
@@ -13059,29 +13653,41 @@
         <v>119</v>
       </c>
       <c r="E3" s="149" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="150" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="150" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="151" t="s">
+      <c r="G3" s="168" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="168" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="145" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="145" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="151" t="s">
+      <c r="K3" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="168" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" s="145" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="145" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="151" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3" s="151" t="s">
+      <c r="O3" s="145" t="s">
         <v>161</v>
       </c>
-      <c r="K3" s="151" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="197" t="s">
+    </row>
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="202" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="73" t="s">
@@ -13093,27 +13699,33 @@
       <c r="D4" s="75">
         <v>1</v>
       </c>
-      <c r="E4" s="152"/>
+      <c r="E4" s="151"/>
       <c r="F4" s="81">
         <v>273000</v>
       </c>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152">
-        <f>G4*E4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152">
-        <f>I4*F4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="152">
-        <f>J4+H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="198"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151">
+        <f>H4*E4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151">
+        <v>1</v>
+      </c>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151">
+        <f>L4*F4</f>
+        <v>273000</v>
+      </c>
+      <c r="O4" s="151">
+        <f>N4+J4</f>
+        <v>273000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="203"/>
       <c r="B5" s="73" t="s">
         <v>122</v>
       </c>
@@ -13126,9 +13738,16 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="198"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="66">
+        <f t="shared" ref="N5:N21" si="0">L5*F5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" s="6" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="203"/>
       <c r="B6" s="73" t="s">
         <v>123</v>
       </c>
@@ -13141,9 +13760,16 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="198"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="203"/>
       <c r="B7" s="11" t="s">
         <v>54</v>
       </c>
@@ -13159,29 +13785,43 @@
       <c r="F7" s="80">
         <v>727</v>
       </c>
-      <c r="G7" s="154">
+      <c r="G7" s="211">
+        <v>215.92</v>
+      </c>
+      <c r="H7" s="172">
+        <f>23.17+19.5</f>
+        <v>42.67</v>
+      </c>
+      <c r="I7" s="153">
         <f>168.13+47.79</f>
         <v>215.92</v>
       </c>
-      <c r="H7" s="66">
-        <f t="shared" ref="H7:H21" si="0">G7*E7</f>
-        <v>569165.12</v>
-      </c>
-      <c r="I7" s="154">
-        <f>G7</f>
+      <c r="J7" s="66">
+        <f>H7*E7</f>
+        <v>112478.12000000001</v>
+      </c>
+      <c r="K7" s="221">
         <v>215.92</v>
       </c>
-      <c r="J7" s="66">
-        <f t="shared" ref="J7:J21" si="1">I7*F7</f>
-        <v>156973.84</v>
-      </c>
-      <c r="K7" s="66">
-        <f t="shared" ref="K7:K21" si="2">J7+H7</f>
-        <v>726138.96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="198"/>
+      <c r="L7" s="172">
+        <f>23.17+19.5</f>
+        <v>42.67</v>
+      </c>
+      <c r="M7" s="153">
+        <f>I7</f>
+        <v>215.92</v>
+      </c>
+      <c r="N7" s="66">
+        <f t="shared" si="0"/>
+        <v>31021.09</v>
+      </c>
+      <c r="O7" s="66">
+        <f t="shared" ref="O7:O21" si="1">N7+J7</f>
+        <v>143499.21000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="203"/>
       <c r="B8" s="11" t="s">
         <v>53</v>
       </c>
@@ -13197,28 +13837,40 @@
       <c r="F8" s="80">
         <v>882</v>
       </c>
-      <c r="G8" s="154">
+      <c r="G8" s="211">
         <v>23.45</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="211">
+        <v>7.32</v>
+      </c>
+      <c r="I8" s="153">
+        <v>23.45</v>
+      </c>
+      <c r="J8" s="66">
+        <f t="shared" ref="J8:J21" si="2">H8*E8</f>
+        <v>26849.760000000002</v>
+      </c>
+      <c r="K8" s="221">
+        <v>23.45</v>
+      </c>
+      <c r="L8" s="211">
+        <v>7.32</v>
+      </c>
+      <c r="M8" s="153">
+        <f t="shared" ref="M8:M21" si="3">I8</f>
+        <v>23.45</v>
+      </c>
+      <c r="N8" s="66">
         <f t="shared" si="0"/>
-        <v>86014.599999999991</v>
-      </c>
-      <c r="I8" s="154">
-        <f t="shared" ref="I8:I21" si="3">G8</f>
-        <v>23.45</v>
-      </c>
-      <c r="J8" s="66">
+        <v>6456.2400000000007</v>
+      </c>
+      <c r="O8" s="66">
         <f t="shared" si="1"/>
-        <v>20682.899999999998</v>
-      </c>
-      <c r="K8" s="66">
-        <f t="shared" si="2"/>
-        <v>106697.49999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="198"/>
+        <v>33306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="203"/>
       <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
@@ -13234,28 +13886,40 @@
       <c r="F9" s="80">
         <v>1113</v>
       </c>
-      <c r="G9" s="154">
+      <c r="G9" s="211">
         <v>10.66</v>
       </c>
-      <c r="H9" s="66">
-        <f t="shared" si="0"/>
-        <v>41637.96</v>
-      </c>
-      <c r="I9" s="154">
+      <c r="H9" s="211">
+        <v>3.81</v>
+      </c>
+      <c r="I9" s="153">
+        <v>10.66</v>
+      </c>
+      <c r="J9" s="66">
+        <f t="shared" si="2"/>
+        <v>14881.86</v>
+      </c>
+      <c r="K9" s="221">
+        <v>10.66</v>
+      </c>
+      <c r="L9" s="211">
+        <v>3.81</v>
+      </c>
+      <c r="M9" s="153">
         <f t="shared" si="3"/>
         <v>10.66</v>
       </c>
-      <c r="J9" s="66">
+      <c r="N9" s="66">
+        <f t="shared" si="0"/>
+        <v>4240.53</v>
+      </c>
+      <c r="O9" s="66">
         <f t="shared" si="1"/>
-        <v>11864.58</v>
-      </c>
-      <c r="K9" s="66">
-        <f t="shared" si="2"/>
-        <v>53502.54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="198"/>
+        <v>19122.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="203"/>
       <c r="B10" s="12" t="s">
         <v>56</v>
       </c>
@@ -13271,28 +13935,40 @@
       <c r="F10" s="80">
         <v>1297</v>
       </c>
-      <c r="G10" s="154">
+      <c r="G10" s="211">
         <v>23.93</v>
       </c>
-      <c r="H10" s="66">
-        <f t="shared" si="0"/>
-        <v>169113.31</v>
-      </c>
-      <c r="I10" s="154">
+      <c r="H10" s="211">
+        <v>3.35</v>
+      </c>
+      <c r="I10" s="153">
+        <v>23.93</v>
+      </c>
+      <c r="J10" s="66">
+        <f t="shared" si="2"/>
+        <v>23674.45</v>
+      </c>
+      <c r="K10" s="221">
+        <v>23.93</v>
+      </c>
+      <c r="L10" s="211">
+        <v>3.35</v>
+      </c>
+      <c r="M10" s="153">
         <f t="shared" si="3"/>
         <v>23.93</v>
       </c>
-      <c r="J10" s="66">
+      <c r="N10" s="66">
+        <f t="shared" si="0"/>
+        <v>4344.95</v>
+      </c>
+      <c r="O10" s="66">
         <f t="shared" si="1"/>
-        <v>31037.21</v>
-      </c>
-      <c r="K10" s="66">
-        <f t="shared" si="2"/>
-        <v>200150.52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="198"/>
+        <v>28019.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="203"/>
       <c r="B11" s="12" t="s">
         <v>58</v>
       </c>
@@ -13308,28 +13984,36 @@
       <c r="F11" s="80">
         <v>1565</v>
       </c>
-      <c r="G11" s="154">
+      <c r="G11" s="211">
         <v>49.72</v>
       </c>
-      <c r="H11" s="66">
-        <f t="shared" si="0"/>
-        <v>467666.32</v>
-      </c>
-      <c r="I11" s="154">
+      <c r="H11" s="80"/>
+      <c r="I11" s="153">
+        <v>49.72</v>
+      </c>
+      <c r="J11" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="221">
+        <v>49.72</v>
+      </c>
+      <c r="L11" s="66"/>
+      <c r="M11" s="153">
         <f t="shared" si="3"/>
         <v>49.72</v>
       </c>
-      <c r="J11" s="66">
+      <c r="N11" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="66">
         <f t="shared" si="1"/>
-        <v>77811.8</v>
-      </c>
-      <c r="K11" s="66">
-        <f t="shared" si="2"/>
-        <v>545478.12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="198"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="203"/>
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -13345,28 +14029,36 @@
       <c r="F12" s="80">
         <v>1638</v>
       </c>
-      <c r="G12" s="154">
+      <c r="G12" s="211">
         <v>6.2</v>
       </c>
-      <c r="H12" s="66">
-        <f t="shared" si="0"/>
-        <v>64058.400000000001</v>
-      </c>
-      <c r="I12" s="154">
+      <c r="H12" s="80"/>
+      <c r="I12" s="153">
+        <v>6.2</v>
+      </c>
+      <c r="J12" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="221">
+        <v>6.2</v>
+      </c>
+      <c r="L12" s="66"/>
+      <c r="M12" s="153">
         <f t="shared" si="3"/>
         <v>6.2</v>
       </c>
-      <c r="J12" s="66">
+      <c r="N12" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="66">
         <f t="shared" si="1"/>
-        <v>10155.6</v>
-      </c>
-      <c r="K12" s="66">
-        <f t="shared" si="2"/>
-        <v>74214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="198"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="203"/>
       <c r="B13" s="12" t="s">
         <v>124</v>
       </c>
@@ -13382,27 +14074,35 @@
       <c r="F13" s="80">
         <v>1911</v>
       </c>
-      <c r="G13" s="154">
+      <c r="G13" s="211">
         <v>8.2799999999999994</v>
       </c>
-      <c r="H13" s="66">
-        <f t="shared" si="0"/>
-        <v>111498.48</v>
-      </c>
-      <c r="I13" s="154">
+      <c r="H13" s="80"/>
+      <c r="I13" s="153">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="J13" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="221">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="L13" s="66"/>
+      <c r="M13" s="153">
         <f t="shared" si="3"/>
         <v>8.2799999999999994</v>
       </c>
-      <c r="J13" s="66">
+      <c r="N13" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="66">
         <f t="shared" si="1"/>
-        <v>15823.079999999998</v>
-      </c>
-      <c r="K13" s="66">
-        <f t="shared" si="2"/>
-        <v>127321.56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A14" s="71"/>
       <c r="B14" s="11" t="s">
         <v>135</v>
@@ -13419,27 +14119,39 @@
       <c r="F14" s="80">
         <v>1575</v>
       </c>
-      <c r="G14" s="66">
-        <v>87</v>
-      </c>
-      <c r="H14" s="66">
+      <c r="G14" s="211">
+        <v>70</v>
+      </c>
+      <c r="H14" s="80">
+        <v>17</v>
+      </c>
+      <c r="I14" s="66">
+        <v>70</v>
+      </c>
+      <c r="J14" s="66">
+        <f t="shared" si="2"/>
+        <v>142800</v>
+      </c>
+      <c r="K14" s="221">
+        <v>70</v>
+      </c>
+      <c r="L14" s="66">
+        <v>17</v>
+      </c>
+      <c r="M14" s="66">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="N14" s="66">
         <f t="shared" si="0"/>
-        <v>730800</v>
-      </c>
-      <c r="I14" s="66">
-        <f t="shared" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="J14" s="66">
+        <v>26775</v>
+      </c>
+      <c r="O14" s="66">
         <f t="shared" si="1"/>
-        <v>137025</v>
-      </c>
-      <c r="K14" s="66">
-        <f t="shared" si="2"/>
-        <v>867825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+        <v>169575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A15" s="71"/>
       <c r="B15" s="11" t="s">
         <v>126</v>
@@ -13456,29 +14168,33 @@
       <c r="F15" s="80">
         <v>2100</v>
       </c>
-      <c r="G15" s="66">
-        <v>1</v>
-      </c>
-      <c r="H15" s="66">
+      <c r="G15" s="211"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="221">
+        <v>0</v>
+      </c>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="66">
         <f t="shared" si="0"/>
-        <v>36750</v>
-      </c>
-      <c r="I15" s="66">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="66">
+        <v>0</v>
+      </c>
+      <c r="O15" s="66">
         <f t="shared" si="1"/>
-        <v>2100</v>
-      </c>
-      <c r="K15" s="66">
-        <f t="shared" si="2"/>
-        <v>38850</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="157" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="155"/>
-      <c r="B16" s="156" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="156" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="154"/>
+      <c r="B16" s="155" t="s">
         <v>127</v>
       </c>
       <c r="C16" s="52" t="s">
@@ -13493,29 +14209,37 @@
       <c r="F16" s="80">
         <v>3675</v>
       </c>
-      <c r="G16" s="66">
-        <v>0</v>
-      </c>
-      <c r="H16" s="66">
+      <c r="G16" s="211">
+        <v>0</v>
+      </c>
+      <c r="H16" s="80"/>
+      <c r="I16" s="66">
+        <v>0</v>
+      </c>
+      <c r="J16" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="221">
+        <v>0</v>
+      </c>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="66">
+      <c r="O16" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="157" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="155"/>
-      <c r="B17" s="156" t="s">
+    </row>
+    <row r="17" spans="1:20" s="156" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="154"/>
+      <c r="B17" s="155" t="s">
         <v>134</v>
       </c>
       <c r="C17" s="52" t="s">
@@ -13530,27 +14254,35 @@
       <c r="F17" s="80">
         <v>15750</v>
       </c>
-      <c r="G17" s="66">
-        <v>0</v>
-      </c>
-      <c r="H17" s="66">
+      <c r="G17" s="211">
+        <v>0</v>
+      </c>
+      <c r="H17" s="80"/>
+      <c r="I17" s="66">
+        <v>0</v>
+      </c>
+      <c r="J17" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="221">
+        <v>0</v>
+      </c>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="66">
+      <c r="O17" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="72"/>
       <c r="B18" s="73" t="s">
         <v>130</v>
@@ -13567,27 +14299,38 @@
       <c r="F18" s="80">
         <v>10500</v>
       </c>
-      <c r="G18" s="66">
-        <v>1</v>
-      </c>
-      <c r="H18" s="66">
+      <c r="G18" s="211">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="152">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="209">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="66">
+        <f>H18*E18</f>
+        <v>21000</v>
+      </c>
+      <c r="K18" s="221">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="152">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="209">
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="66">
         <f t="shared" si="0"/>
-        <v>42000</v>
-      </c>
-      <c r="I18" s="66">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="66">
+        <v>5250</v>
+      </c>
+      <c r="O18" s="66">
         <f t="shared" si="1"/>
-        <v>10500</v>
-      </c>
-      <c r="K18" s="66">
-        <f t="shared" si="2"/>
-        <v>52500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+        <v>26250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="72"/>
       <c r="B19" s="73" t="s">
         <v>128</v>
@@ -13604,27 +14347,38 @@
       <c r="F19" s="80">
         <v>21000</v>
       </c>
-      <c r="G19" s="66">
-        <v>1</v>
-      </c>
-      <c r="H19" s="66">
+      <c r="G19" s="211">
+        <v>0.8</v>
+      </c>
+      <c r="H19" s="152">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="209">
+        <v>0.8</v>
+      </c>
+      <c r="J19" s="66">
+        <f t="shared" si="2"/>
+        <v>31500</v>
+      </c>
+      <c r="K19" s="221">
+        <v>0.8</v>
+      </c>
+      <c r="L19" s="152">
+        <v>0.2</v>
+      </c>
+      <c r="M19" s="209">
+        <v>0.8</v>
+      </c>
+      <c r="N19" s="66">
         <f t="shared" si="0"/>
-        <v>63000</v>
-      </c>
-      <c r="I19" s="66">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="66">
+        <v>4200</v>
+      </c>
+      <c r="O19" s="66">
         <f t="shared" si="1"/>
-        <v>21000</v>
-      </c>
-      <c r="K19" s="66">
-        <f t="shared" si="2"/>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+        <v>35700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A20" s="72"/>
       <c r="B20" s="73" t="s">
         <v>129</v>
@@ -13641,27 +14395,35 @@
       <c r="F20" s="80">
         <v>21000</v>
       </c>
-      <c r="G20" s="66">
-        <v>1</v>
-      </c>
-      <c r="H20" s="66">
+      <c r="G20" s="211">
+        <v>1</v>
+      </c>
+      <c r="H20" s="152"/>
+      <c r="I20" s="66">
+        <v>1</v>
+      </c>
+      <c r="J20" s="66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="221">
+        <v>1</v>
+      </c>
+      <c r="L20" s="152"/>
+      <c r="M20" s="66">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="66">
         <f t="shared" si="0"/>
-        <v>36750</v>
-      </c>
-      <c r="I20" s="66">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J20" s="66">
+        <v>0</v>
+      </c>
+      <c r="O20" s="66">
         <f t="shared" si="1"/>
-        <v>21000</v>
-      </c>
-      <c r="K20" s="66">
-        <f t="shared" si="2"/>
-        <v>57750</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" s="72"/>
       <c r="B21" s="73" t="s">
         <v>131</v>
@@ -13678,27 +14440,38 @@
       <c r="F21" s="80">
         <v>21000</v>
       </c>
-      <c r="G21" s="66">
-        <v>1</v>
-      </c>
-      <c r="H21" s="66">
+      <c r="G21" s="211">
+        <v>0.8</v>
+      </c>
+      <c r="H21" s="152">
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="209">
+        <v>0.8</v>
+      </c>
+      <c r="J21" s="66">
+        <f t="shared" si="2"/>
+        <v>7350</v>
+      </c>
+      <c r="K21" s="221">
+        <v>0.8</v>
+      </c>
+      <c r="L21" s="152">
+        <v>0.2</v>
+      </c>
+      <c r="M21" s="209">
+        <v>0.8</v>
+      </c>
+      <c r="N21" s="66">
         <f t="shared" si="0"/>
-        <v>36750</v>
-      </c>
-      <c r="I21" s="66">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J21" s="66">
+        <v>4200</v>
+      </c>
+      <c r="O21" s="66">
         <f t="shared" si="1"/>
-        <v>21000</v>
-      </c>
-      <c r="K21" s="66">
-        <f t="shared" si="2"/>
-        <v>57750</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11550</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="70"/>
       <c r="B22" s="110" t="s">
         <v>132</v>
@@ -13708,73 +14481,85 @@
       <c r="E22" s="109"/>
       <c r="F22" s="111"/>
       <c r="G22" s="111"/>
-      <c r="H22" s="111">
-        <f t="shared" ref="H22:J22" si="4">SUM(H4:H21)</f>
-        <v>2455204.19</v>
-      </c>
+      <c r="H22" s="111"/>
       <c r="I22" s="111"/>
       <c r="J22" s="111">
+        <f t="shared" ref="J22:N22" si="4">SUM(J4:J21)</f>
+        <v>380534.19</v>
+      </c>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111">
         <f t="shared" si="4"/>
-        <v>536974.01</v>
-      </c>
-      <c r="K22" s="111">
-        <f>SUM(K4:K21)</f>
-        <v>2992178.2</v>
-      </c>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="141"/>
-    </row>
-    <row r="23" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="199"/>
-      <c r="B23" s="199"/>
-      <c r="C23" s="199"/>
-      <c r="D23" s="199"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="200"/>
-      <c r="I23" s="200"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="200"/>
-    </row>
-    <row r="24" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="192"/>
-      <c r="B24" s="192"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="193"/>
+        <v>359487.81000000006</v>
+      </c>
+      <c r="O22" s="111">
+        <f>SUM(O4:O21)</f>
+        <v>740022</v>
+      </c>
+      <c r="R22" s="141"/>
+      <c r="S22" s="141"/>
+      <c r="T22" s="141"/>
+    </row>
+    <row r="23" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="204"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="205"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="205"/>
+      <c r="I23" s="205"/>
+      <c r="J23" s="205"/>
+      <c r="K23" s="205"/>
+      <c r="L23" s="205"/>
+      <c r="M23" s="205"/>
+      <c r="N23" s="205"/>
+      <c r="O23" s="205"/>
+    </row>
+    <row r="24" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="197"/>
+      <c r="B24" s="197"/>
+      <c r="C24" s="197"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="198"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="198"/>
+      <c r="J24" s="198"/>
+      <c r="K24" s="198"/>
+      <c r="L24" s="198"/>
+      <c r="M24" s="198"/>
+      <c r="N24" s="198"/>
+      <c r="O24" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="F24:O24"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:K2"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F1:O1"/>
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="F23:O23"/>
+    <mergeCell ref="G2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="52" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C8B3FC-4370-4A51-A5E5-5724AC39AA1F}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13784,49 +14569,57 @@
     <col min="3" max="3" width="8.5" style="68" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="68" customWidth="1"/>
     <col min="5" max="5" width="11" style="67" customWidth="1"/>
-    <col min="6" max="7" width="14.1640625" style="67" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="67" customWidth="1"/>
-    <col min="9" max="10" width="14.1640625" style="67" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="67" customWidth="1"/>
-    <col min="12" max="13" width="9.33203125" style="67"/>
-    <col min="14" max="14" width="18.1640625" style="67" customWidth="1"/>
-    <col min="15" max="16" width="14.33203125" style="67" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="67"/>
+    <col min="6" max="9" width="14.1640625" style="67" customWidth="1"/>
+    <col min="10" max="12" width="16.5" style="67" customWidth="1"/>
+    <col min="13" max="14" width="14.1640625" style="67" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="67" customWidth="1"/>
+    <col min="16" max="17" width="9.33203125" style="67"/>
+    <col min="18" max="18" width="18.1640625" style="67" customWidth="1"/>
+    <col min="19" max="20" width="14.33203125" style="67" customWidth="1"/>
+    <col min="21" max="16384" width="9.33203125" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="195" t="s">
+    <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-    </row>
-    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="194" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+    </row>
+    <row r="2" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="199" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="182" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-    </row>
-    <row r="3" spans="1:11" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="193" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="195"/>
+    </row>
+    <row r="3" spans="1:15" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
         <v>116</v>
       </c>
@@ -13840,29 +14633,41 @@
         <v>119</v>
       </c>
       <c r="E3" s="149" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="150" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="150" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="151" t="s">
+      <c r="G3" s="168" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="168" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="145" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="145" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="151" t="s">
+      <c r="K3" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="168" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" s="145" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="145" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="151" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3" s="151" t="s">
+      <c r="O3" s="145" t="s">
         <v>161</v>
       </c>
-      <c r="K3" s="151" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="197" t="s">
+    </row>
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="202" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="73" t="s">
@@ -13879,22 +14684,34 @@
         <v>273000</v>
       </c>
       <c r="G4" s="81"/>
-      <c r="H4" s="81">
-        <f>G4*E4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81">
+        <f>H4+G4</f>
+        <v>0</v>
+      </c>
       <c r="J4" s="81">
-        <f>I4*F4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="81">
-        <f>J4+H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="198"/>
+        <f>I4*E4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81">
+        <v>1</v>
+      </c>
+      <c r="M4" s="81">
+        <f>L4+K4</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="81">
+        <f>M4*F4</f>
+        <v>273000</v>
+      </c>
+      <c r="O4" s="81">
+        <f>N4+J4</f>
+        <v>273000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="203"/>
       <c r="B5" s="73" t="s">
         <v>122</v>
       </c>
@@ -13907,9 +14724,13 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="198"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" s="6" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="203"/>
       <c r="B6" s="73" t="s">
         <v>123</v>
       </c>
@@ -13922,9 +14743,13 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="198"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="203"/>
       <c r="B7" s="11" t="s">
         <v>54</v>
       </c>
@@ -13940,28 +14765,43 @@
       <c r="F7" s="80">
         <v>727</v>
       </c>
-      <c r="G7" s="154">
+      <c r="G7" s="211">
         <v>147</v>
       </c>
-      <c r="H7" s="80">
-        <f t="shared" ref="H7:H22" si="0">G7*E7</f>
-        <v>387492</v>
-      </c>
-      <c r="I7" s="154">
-        <f>G7</f>
+      <c r="H7" s="172">
+        <f>23.17+19.5</f>
+        <v>42.67</v>
+      </c>
+      <c r="I7" s="211">
+        <f>H7+G7</f>
+        <v>189.67000000000002</v>
+      </c>
+      <c r="J7" s="80">
+        <f>H7*E7</f>
+        <v>112478.12000000001</v>
+      </c>
+      <c r="K7" s="211">
         <v>147</v>
       </c>
-      <c r="J7" s="80">
-        <f t="shared" ref="J7:J22" si="1">I7*F7</f>
-        <v>106869</v>
-      </c>
-      <c r="K7" s="80">
-        <f t="shared" ref="K7:K22" si="2">J7+H7</f>
-        <v>494361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="198"/>
+      <c r="L7" s="172">
+        <f>23.17+19.5</f>
+        <v>42.67</v>
+      </c>
+      <c r="M7" s="220">
+        <f>L7+K7</f>
+        <v>189.67000000000002</v>
+      </c>
+      <c r="N7" s="80">
+        <f>L7*F7</f>
+        <v>31021.09</v>
+      </c>
+      <c r="O7" s="80">
+        <f t="shared" ref="O7:O22" si="0">N7+J7</f>
+        <v>143499.21000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="203"/>
       <c r="B8" s="11" t="s">
         <v>53</v>
       </c>
@@ -13977,28 +14817,41 @@
       <c r="F8" s="80">
         <v>882</v>
       </c>
-      <c r="G8" s="154">
+      <c r="G8" s="211">
         <v>20.34</v>
       </c>
-      <c r="H8" s="80">
+      <c r="H8" s="211">
+        <v>7.32</v>
+      </c>
+      <c r="I8" s="211">
+        <f t="shared" ref="I8:I22" si="1">H8+G8</f>
+        <v>27.66</v>
+      </c>
+      <c r="J8" s="80">
+        <f t="shared" ref="J8:J22" si="2">H8*E8</f>
+        <v>26849.760000000002</v>
+      </c>
+      <c r="K8" s="211">
+        <v>20.34</v>
+      </c>
+      <c r="L8" s="211">
+        <v>7.32</v>
+      </c>
+      <c r="M8" s="220">
+        <f t="shared" ref="M8:M22" si="3">L8+K8</f>
+        <v>27.66</v>
+      </c>
+      <c r="N8" s="80">
+        <f t="shared" ref="N8:N22" si="4">L8*F8</f>
+        <v>6456.2400000000007</v>
+      </c>
+      <c r="O8" s="80">
         <f t="shared" si="0"/>
-        <v>74607.12</v>
-      </c>
-      <c r="I8" s="154">
-        <f t="shared" ref="I8:I22" si="3">G8</f>
-        <v>20.34</v>
-      </c>
-      <c r="J8" s="80">
-        <f t="shared" si="1"/>
-        <v>17939.88</v>
-      </c>
-      <c r="K8" s="80">
-        <f t="shared" si="2"/>
-        <v>92547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="198"/>
+        <v>33306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="203"/>
       <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
@@ -14014,28 +14867,41 @@
       <c r="F9" s="80">
         <v>1113</v>
       </c>
-      <c r="G9" s="154">
+      <c r="G9" s="211">
         <v>3.63</v>
       </c>
-      <c r="H9" s="80">
+      <c r="H9" s="211">
+        <v>3.81</v>
+      </c>
+      <c r="I9" s="211">
+        <f t="shared" si="1"/>
+        <v>7.4399999999999995</v>
+      </c>
+      <c r="J9" s="80">
+        <f t="shared" si="2"/>
+        <v>14881.86</v>
+      </c>
+      <c r="K9" s="211">
+        <v>3.63</v>
+      </c>
+      <c r="L9" s="211">
+        <v>3.81</v>
+      </c>
+      <c r="M9" s="220">
+        <f t="shared" si="3"/>
+        <v>7.4399999999999995</v>
+      </c>
+      <c r="N9" s="80">
+        <f t="shared" si="4"/>
+        <v>4240.53</v>
+      </c>
+      <c r="O9" s="80">
         <f t="shared" si="0"/>
-        <v>14178.779999999999</v>
-      </c>
-      <c r="I9" s="154">
-        <f t="shared" si="3"/>
-        <v>3.63</v>
-      </c>
-      <c r="J9" s="80">
-        <f t="shared" si="1"/>
-        <v>4040.19</v>
-      </c>
-      <c r="K9" s="80">
-        <f t="shared" si="2"/>
-        <v>18218.969999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="198"/>
+        <v>19122.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="203"/>
       <c r="B10" s="12" t="s">
         <v>56</v>
       </c>
@@ -14051,28 +14917,41 @@
       <c r="F10" s="80">
         <v>1297</v>
       </c>
-      <c r="G10" s="154">
+      <c r="G10" s="211">
         <v>25.2</v>
       </c>
-      <c r="H10" s="80">
+      <c r="H10" s="211">
+        <v>3.35</v>
+      </c>
+      <c r="I10" s="211">
+        <f t="shared" si="1"/>
+        <v>28.55</v>
+      </c>
+      <c r="J10" s="80">
+        <f t="shared" si="2"/>
+        <v>23674.45</v>
+      </c>
+      <c r="K10" s="211">
+        <v>25.2</v>
+      </c>
+      <c r="L10" s="211">
+        <v>3.35</v>
+      </c>
+      <c r="M10" s="220">
+        <f t="shared" si="3"/>
+        <v>28.55</v>
+      </c>
+      <c r="N10" s="80">
+        <f t="shared" si="4"/>
+        <v>4344.95</v>
+      </c>
+      <c r="O10" s="80">
         <f t="shared" si="0"/>
-        <v>178088.4</v>
-      </c>
-      <c r="I10" s="154">
-        <f t="shared" si="3"/>
-        <v>25.2</v>
-      </c>
-      <c r="J10" s="80">
-        <f t="shared" si="1"/>
-        <v>32684.399999999998</v>
-      </c>
-      <c r="K10" s="80">
-        <f t="shared" si="2"/>
-        <v>210772.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="198"/>
+        <v>28019.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="203"/>
       <c r="B11" s="12" t="s">
         <v>58</v>
       </c>
@@ -14088,28 +14967,37 @@
       <c r="F11" s="80">
         <v>1565</v>
       </c>
-      <c r="G11" s="154">
+      <c r="G11" s="211">
         <v>25.94</v>
       </c>
-      <c r="H11" s="80">
-        <f t="shared" si="0"/>
-        <v>243991.64</v>
-      </c>
-      <c r="I11" s="154">
+      <c r="H11" s="211"/>
+      <c r="I11" s="211">
+        <f t="shared" si="1"/>
+        <v>25.94</v>
+      </c>
+      <c r="J11" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="211">
+        <v>25.94</v>
+      </c>
+      <c r="L11" s="211"/>
+      <c r="M11" s="220">
         <f t="shared" si="3"/>
         <v>25.94</v>
       </c>
-      <c r="J11" s="80">
-        <f t="shared" si="1"/>
-        <v>40596.1</v>
-      </c>
-      <c r="K11" s="80">
-        <f t="shared" si="2"/>
-        <v>284587.74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="198"/>
+      <c r="N11" s="80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="203"/>
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -14125,28 +15013,37 @@
       <c r="F12" s="80">
         <v>1638</v>
       </c>
-      <c r="G12" s="154">
+      <c r="G12" s="211">
         <v>8.4600000000000009</v>
       </c>
-      <c r="H12" s="80">
-        <f t="shared" si="0"/>
-        <v>87408.720000000016</v>
-      </c>
-      <c r="I12" s="154">
+      <c r="H12" s="211"/>
+      <c r="I12" s="211">
+        <f t="shared" si="1"/>
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="J12" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="211">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="L12" s="211"/>
+      <c r="M12" s="220">
         <f t="shared" si="3"/>
         <v>8.4600000000000009</v>
       </c>
-      <c r="J12" s="80">
-        <f t="shared" si="1"/>
-        <v>13857.480000000001</v>
-      </c>
-      <c r="K12" s="80">
-        <f t="shared" si="2"/>
-        <v>101266.20000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="198"/>
+      <c r="N12" s="80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="203"/>
       <c r="B13" s="12" t="s">
         <v>124</v>
       </c>
@@ -14162,29 +15059,38 @@
       <c r="F13" s="80">
         <v>1911</v>
       </c>
-      <c r="G13" s="154">
+      <c r="G13" s="211">
         <v>17.63</v>
       </c>
-      <c r="H13" s="80">
-        <f t="shared" si="0"/>
-        <v>237405.58</v>
-      </c>
-      <c r="I13" s="154">
+      <c r="H13" s="211"/>
+      <c r="I13" s="211">
+        <f t="shared" si="1"/>
+        <v>17.63</v>
+      </c>
+      <c r="J13" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="211">
+        <v>17.63</v>
+      </c>
+      <c r="L13" s="211"/>
+      <c r="M13" s="220">
         <f t="shared" si="3"/>
         <v>17.63</v>
       </c>
-      <c r="J13" s="80">
-        <f t="shared" si="1"/>
-        <v>33690.93</v>
-      </c>
-      <c r="K13" s="80">
-        <f t="shared" si="2"/>
-        <v>271096.51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="N13" s="80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A14" s="71"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="155" t="s">
         <v>125</v>
       </c>
       <c r="C14" s="52" t="s">
@@ -14199,29 +15105,36 @@
       <c r="F14" s="80">
         <v>1575</v>
       </c>
-      <c r="G14" s="80">
-        <v>1</v>
-      </c>
-      <c r="H14" s="80">
+      <c r="G14" s="211"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="211">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="211">
+        <v>0</v>
+      </c>
+      <c r="L14" s="211"/>
+      <c r="M14" s="211">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="80">
         <f t="shared" si="0"/>
-        <v>6510</v>
-      </c>
-      <c r="I14" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="80">
-        <f t="shared" si="1"/>
-        <v>1575</v>
-      </c>
-      <c r="K14" s="80">
-        <f t="shared" si="2"/>
-        <v>8085</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" s="71"/>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="155" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="52" t="s">
@@ -14236,29 +15149,40 @@
       <c r="F15" s="80">
         <v>1575</v>
       </c>
-      <c r="G15" s="80">
+      <c r="G15" s="211"/>
+      <c r="H15" s="211">
         <v>75</v>
       </c>
-      <c r="H15" s="80">
-        <f t="shared" si="0"/>
+      <c r="I15" s="211">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="J15" s="80">
+        <f t="shared" si="2"/>
         <v>630000</v>
       </c>
-      <c r="I15" s="80">
+      <c r="K15" s="211">
+        <v>0</v>
+      </c>
+      <c r="L15" s="211">
+        <v>75</v>
+      </c>
+      <c r="M15" s="211">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="J15" s="80">
-        <f t="shared" si="1"/>
+      <c r="N15" s="80">
+        <f t="shared" si="4"/>
         <v>118125</v>
       </c>
-      <c r="K15" s="80">
-        <f t="shared" si="2"/>
+      <c r="O15" s="80">
+        <f t="shared" si="0"/>
         <v>748125</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A16" s="71"/>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="155" t="s">
         <v>126</v>
       </c>
       <c r="C16" s="52" t="s">
@@ -14273,27 +15197,34 @@
       <c r="F16" s="80">
         <v>2100</v>
       </c>
-      <c r="G16" s="80">
-        <v>1</v>
-      </c>
-      <c r="H16" s="80">
+      <c r="G16" s="211"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="211">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="211">
+        <v>0</v>
+      </c>
+      <c r="L16" s="211"/>
+      <c r="M16" s="211">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="80">
         <f t="shared" si="0"/>
-        <v>36750</v>
-      </c>
-      <c r="I16" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="80">
-        <f t="shared" si="1"/>
-        <v>2100</v>
-      </c>
-      <c r="K16" s="80">
-        <f t="shared" si="2"/>
-        <v>38850</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="71"/>
       <c r="B17" s="11" t="s">
         <v>127</v>
@@ -14310,27 +15241,36 @@
       <c r="F17" s="80">
         <v>3675</v>
       </c>
-      <c r="G17" s="80">
-        <v>0</v>
-      </c>
-      <c r="H17" s="80">
+      <c r="G17" s="211">
+        <v>0</v>
+      </c>
+      <c r="H17" s="211"/>
+      <c r="I17" s="211">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="211">
+        <v>0</v>
+      </c>
+      <c r="L17" s="211"/>
+      <c r="M17" s="220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="71"/>
       <c r="B18" s="11" t="s">
         <v>134</v>
@@ -14347,27 +15287,36 @@
       <c r="F18" s="80">
         <v>15750</v>
       </c>
-      <c r="G18" s="80">
-        <v>0</v>
-      </c>
-      <c r="H18" s="80">
+      <c r="G18" s="211">
+        <v>0</v>
+      </c>
+      <c r="H18" s="211"/>
+      <c r="I18" s="211">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="211">
+        <v>0</v>
+      </c>
+      <c r="L18" s="211"/>
+      <c r="M18" s="220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
       <c r="B19" s="73" t="s">
         <v>139</v>
@@ -14384,27 +15333,38 @@
       <c r="F19" s="80">
         <v>10500</v>
       </c>
-      <c r="G19" s="80">
-        <v>1</v>
-      </c>
-      <c r="H19" s="80">
+      <c r="G19" s="211"/>
+      <c r="H19" s="211">
+        <v>1</v>
+      </c>
+      <c r="I19" s="211">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="80">
+        <f t="shared" si="2"/>
+        <v>42000</v>
+      </c>
+      <c r="K19" s="211">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="211">
+        <v>0.5</v>
+      </c>
+      <c r="M19" s="220">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="80">
+        <f t="shared" si="4"/>
+        <v>5250</v>
+      </c>
+      <c r="O19" s="80">
         <f t="shared" si="0"/>
-        <v>42000</v>
-      </c>
-      <c r="I19" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="80">
-        <f t="shared" si="1"/>
-        <v>10500</v>
-      </c>
-      <c r="K19" s="80">
-        <f t="shared" si="2"/>
-        <v>52500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+        <v>47250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="72"/>
       <c r="B20" s="73" t="s">
         <v>128</v>
@@ -14421,27 +15381,38 @@
       <c r="F20" s="80">
         <v>21000</v>
       </c>
-      <c r="G20" s="80">
-        <v>1</v>
-      </c>
-      <c r="H20" s="80">
+      <c r="G20" s="211"/>
+      <c r="H20" s="211">
+        <v>1</v>
+      </c>
+      <c r="I20" s="211">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="80">
+        <f t="shared" si="2"/>
+        <v>63000</v>
+      </c>
+      <c r="K20" s="211">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="211">
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="220">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="80">
+        <f t="shared" si="4"/>
+        <v>10500</v>
+      </c>
+      <c r="O20" s="80">
         <f t="shared" si="0"/>
-        <v>63000</v>
-      </c>
-      <c r="I20" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J20" s="80">
-        <f t="shared" si="1"/>
-        <v>21000</v>
-      </c>
-      <c r="K20" s="80">
-        <f t="shared" si="2"/>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+        <v>73500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="72"/>
       <c r="B21" s="73" t="s">
         <v>129</v>
@@ -14458,27 +15429,38 @@
       <c r="F21" s="80">
         <v>21000</v>
       </c>
-      <c r="G21" s="80">
-        <v>1</v>
-      </c>
-      <c r="H21" s="80">
+      <c r="G21" s="211"/>
+      <c r="H21" s="211">
+        <v>1</v>
+      </c>
+      <c r="I21" s="211">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="80">
+        <f t="shared" si="2"/>
+        <v>36750</v>
+      </c>
+      <c r="K21" s="211">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="211">
+        <v>0.5</v>
+      </c>
+      <c r="M21" s="220">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="80">
+        <f t="shared" si="4"/>
+        <v>10500</v>
+      </c>
+      <c r="O21" s="80">
         <f t="shared" si="0"/>
-        <v>36750</v>
-      </c>
-      <c r="I21" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J21" s="80">
-        <f t="shared" si="1"/>
-        <v>21000</v>
-      </c>
-      <c r="K21" s="80">
-        <f t="shared" si="2"/>
-        <v>57750</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+        <v>47250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="72"/>
       <c r="B22" s="73" t="s">
         <v>131</v>
@@ -14495,27 +15477,38 @@
       <c r="F22" s="80">
         <v>21000</v>
       </c>
-      <c r="G22" s="80">
-        <v>1</v>
-      </c>
-      <c r="H22" s="80">
+      <c r="G22" s="211"/>
+      <c r="H22" s="211">
+        <v>1</v>
+      </c>
+      <c r="I22" s="211">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="80">
+        <f t="shared" si="2"/>
+        <v>36750</v>
+      </c>
+      <c r="K22" s="211">
+        <v>0</v>
+      </c>
+      <c r="L22" s="211">
+        <v>1</v>
+      </c>
+      <c r="M22" s="220">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="80">
+        <f t="shared" si="4"/>
+        <v>21000</v>
+      </c>
+      <c r="O22" s="80">
         <f t="shared" si="0"/>
-        <v>36750</v>
-      </c>
-      <c r="I22" s="80">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="80">
-        <f t="shared" si="1"/>
-        <v>21000</v>
-      </c>
-      <c r="K22" s="80">
-        <f t="shared" si="2"/>
         <v>57750</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="70"/>
       <c r="B23" s="110" t="s">
         <v>132</v>
@@ -14525,63 +15518,75 @@
       <c r="E23" s="109"/>
       <c r="F23" s="111"/>
       <c r="G23" s="111"/>
-      <c r="H23" s="111">
-        <f>SUM(H7:H22)</f>
-        <v>2074932.24</v>
-      </c>
+      <c r="H23" s="111"/>
       <c r="I23" s="111"/>
       <c r="J23" s="111">
         <f>SUM(J7:J22)</f>
-        <v>444977.98</v>
-      </c>
-      <c r="K23" s="111">
-        <f>SUM(K7:K22)</f>
-        <v>2519910.2199999997</v>
-      </c>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="141"/>
-    </row>
-    <row r="24" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="199"/>
-      <c r="B24" s="199"/>
-      <c r="C24" s="199"/>
-      <c r="D24" s="199"/>
-      <c r="E24" s="199"/>
-      <c r="F24" s="200"/>
-      <c r="G24" s="200"/>
-      <c r="H24" s="200"/>
-      <c r="I24" s="200"/>
-      <c r="J24" s="200"/>
-      <c r="K24" s="200"/>
-    </row>
-    <row r="25" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="192"/>
-      <c r="B25" s="192"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="193"/>
-      <c r="K25" s="193"/>
+        <v>986384.19</v>
+      </c>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111">
+        <f>SUM(N7:N22)</f>
+        <v>211437.81</v>
+      </c>
+      <c r="O23" s="111">
+        <f>SUM(O7:O22)</f>
+        <v>1197822</v>
+      </c>
+      <c r="R23" s="141"/>
+      <c r="S23" s="141"/>
+      <c r="T23" s="141"/>
+    </row>
+    <row r="24" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="204"/>
+      <c r="B24" s="204"/>
+      <c r="C24" s="204"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="204"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="205"/>
+      <c r="K24" s="205"/>
+      <c r="L24" s="205"/>
+      <c r="M24" s="205"/>
+      <c r="N24" s="205"/>
+      <c r="O24" s="205"/>
+    </row>
+    <row r="25" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="197"/>
+      <c r="B25" s="197"/>
+      <c r="C25" s="197"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="198"/>
+      <c r="G25" s="198"/>
+      <c r="H25" s="198"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="198"/>
+      <c r="L25" s="198"/>
+      <c r="M25" s="198"/>
+      <c r="N25" s="198"/>
+      <c r="O25" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:K2"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F1:O1"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="F25:O25"/>
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="F24:O24"/>
     <mergeCell ref="A4:A13"/>
+    <mergeCell ref="G2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="52" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -14590,8 +15595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A985E98-D344-4B16-A801-B249402918F9}">
   <dimension ref="A1:E347"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14601,24 +15606,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="206" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="202" t="s">
+      <c r="C2" s="208"/>
+      <c r="D2" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="203"/>
+      <c r="E2" s="208"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
@@ -14884,24 +15889,24 @@
       <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A22" s="201" t="s">
+      <c r="A22" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="201"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="201"/>
+      <c r="B22" s="206"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="206"/>
+      <c r="E22" s="206"/>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
-      <c r="B23" s="202" t="s">
+      <c r="B23" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="203"/>
-      <c r="D23" s="202" t="s">
+      <c r="C23" s="208"/>
+      <c r="D23" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="203"/>
+      <c r="E23" s="208"/>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
@@ -15117,24 +16122,24 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A37" s="201" t="s">
+      <c r="A37" s="206" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="201"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="201"/>
-      <c r="E37" s="201"/>
+      <c r="B37" s="206"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="206"/>
     </row>
     <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
-      <c r="B38" s="201" t="s">
+      <c r="B38" s="206" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="201"/>
-      <c r="D38" s="201" t="s">
+      <c r="C38" s="206"/>
+      <c r="D38" s="206" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="201"/>
+      <c r="E38" s="206"/>
     </row>
     <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">

--- a/Running projects/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/Running Bills/Final - BAH 2nd & 23rd Floor (On Total Rates).xlsx
+++ b/Running projects/Bank Al-Habib Offices at 22nd & 23rd Floor Center Point Karachi/Running Bills/Final - BAH 2nd & 23rd Floor (On Total Rates).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Bank Al-Habib Offices at 22nd &amp; 23rd Floor Center Point Karachi\Running Bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07809CDB-0F5B-494F-BF9E-937430B4B0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C27B2C-E2FA-4248-8002-AB50DE2C7FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4029,7 +4029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4550,6 +4550,60 @@
     <xf numFmtId="167" fontId="42" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4654,69 +4708,6 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="42" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6052,7 +6043,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="678560" y="10235183"/>
+          <a:off x="678560" y="10473308"/>
           <a:ext cx="387350" cy="12700"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="387350" cy="12700"/>
@@ -6949,7 +6940,7 @@
   <dimension ref="A4:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7002,10 +6993,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="192" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="174"/>
+      <c r="B13" s="192"/>
       <c r="C13" s="117"/>
       <c r="D13" s="117"/>
       <c r="E13" s="118"/>
@@ -7015,13 +7006,13 @@
       <c r="E14" s="118"/>
     </row>
     <row r="15" spans="1:5" s="113" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="175" t="s">
+      <c r="A15" s="193" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
     </row>
     <row r="16" spans="1:5" s="113" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="120"/>
@@ -7218,8 +7209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E680CEF-CDBB-4B93-8860-904931DE0C82}">
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
@@ -7250,69 +7241,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="199" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
       <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="202" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="193" t="s">
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="211" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
-      <c r="P2" s="195"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="212"/>
+      <c r="P2" s="213"/>
       <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="187" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="189" t="s">
+      <c r="A3" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="189" t="s">
+      <c r="D3" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="189" t="s">
+      <c r="E3" s="207" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="191" t="s">
+      <c r="F3" s="209" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="191" t="s">
+      <c r="G3" s="209" t="s">
         <v>157</v>
       </c>
       <c r="H3" s="168" t="s">
@@ -7344,13 +7335,13 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="186"/>
-      <c r="B4" s="188"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
+      <c r="A4" s="204"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
       <c r="H4" s="169"/>
       <c r="I4" s="169"/>
       <c r="J4" s="145"/>
@@ -7732,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="86"/>
-      <c r="Q14" s="176"/>
+      <c r="Q14" s="194"/>
     </row>
     <row r="15" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
@@ -7781,7 +7772,7 @@
         <f>O15+K15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="183"/>
+      <c r="Q15" s="201"/>
     </row>
     <row r="16" spans="1:17" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
@@ -7829,7 +7820,7 @@
         <f>O16+K16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="183"/>
+      <c r="Q16" s="201"/>
     </row>
     <row r="17" spans="1:18" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
@@ -7877,7 +7868,7 @@
         <f>O17+K17</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="183"/>
+      <c r="Q17" s="201"/>
     </row>
     <row r="18" spans="1:18" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
@@ -7912,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="86"/>
-      <c r="Q18" s="183"/>
+      <c r="Q18" s="201"/>
     </row>
     <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
@@ -7961,7 +7952,7 @@
         <f>O19+K19</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="183"/>
+      <c r="Q19" s="201"/>
     </row>
     <row r="20" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
@@ -8011,7 +8002,7 @@
         <f>O20+K20</f>
         <v>117600</v>
       </c>
-      <c r="Q20" s="183"/>
+      <c r="Q20" s="201"/>
     </row>
     <row r="21" spans="1:18" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
@@ -8061,7 +8052,7 @@
         <f>O21+K21</f>
         <v>48300</v>
       </c>
-      <c r="Q21" s="183"/>
+      <c r="Q21" s="201"/>
     </row>
     <row r="22" spans="1:18" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="47">
@@ -8097,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="86"/>
-      <c r="Q22" s="176"/>
+      <c r="Q22" s="194"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
@@ -8123,7 +8114,7 @@
       <c r="I23" s="171">
         <v>43.29</v>
       </c>
-      <c r="J23" s="211">
+      <c r="J23" s="172">
         <f t="shared" si="3"/>
         <v>43.29</v>
       </c>
@@ -8135,7 +8126,7 @@
       <c r="M23" s="171">
         <v>43.29</v>
       </c>
-      <c r="N23" s="211">
+      <c r="N23" s="172">
         <f t="shared" ref="N23:N24" si="5">M23+L23</f>
         <v>43.29</v>
       </c>
@@ -8147,7 +8138,7 @@
         <f>O23+K23</f>
         <v>163636.19999999998</v>
       </c>
-      <c r="Q23" s="177"/>
+      <c r="Q23" s="195"/>
     </row>
     <row r="24" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
@@ -8173,7 +8164,7 @@
       <c r="I24" s="171">
         <v>15.55</v>
       </c>
-      <c r="J24" s="211">
+      <c r="J24" s="172">
         <f t="shared" si="3"/>
         <v>15.55</v>
       </c>
@@ -8185,7 +8176,7 @@
       <c r="M24" s="171">
         <v>15.55</v>
       </c>
-      <c r="N24" s="211">
+      <c r="N24" s="172">
         <f t="shared" si="5"/>
         <v>15.55</v>
       </c>
@@ -8234,7 +8225,7 @@
       </c>
       <c r="P25" s="86"/>
       <c r="Q25" s="19"/>
-      <c r="R25" s="178"/>
+      <c r="R25" s="196"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
@@ -8260,7 +8251,7 @@
       <c r="I26" s="171">
         <v>43.29</v>
       </c>
-      <c r="J26" s="211">
+      <c r="J26" s="172">
         <f t="shared" si="3"/>
         <v>43.29</v>
       </c>
@@ -8285,7 +8276,7 @@
         <v>131818.04999999999</v>
       </c>
       <c r="Q26" s="26"/>
-      <c r="R26" s="179"/>
+      <c r="R26" s="197"/>
     </row>
     <row r="27" spans="1:18" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
@@ -8311,7 +8302,7 @@
       <c r="I27" s="171">
         <v>15.55</v>
       </c>
-      <c r="J27" s="211">
+      <c r="J27" s="172">
         <f t="shared" si="3"/>
         <v>15.55</v>
       </c>
@@ -8336,7 +8327,7 @@
         <v>66942.75</v>
       </c>
       <c r="Q27" s="24"/>
-      <c r="R27" s="179"/>
+      <c r="R27" s="197"/>
     </row>
     <row r="28" spans="1:18" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34">
@@ -8361,7 +8352,7 @@
         <v>315</v>
       </c>
       <c r="H28" s="108"/>
-      <c r="I28" s="224">
+      <c r="I28" s="186">
         <v>18</v>
       </c>
       <c r="J28" s="81">
@@ -8376,7 +8367,7 @@
       <c r="M28" s="108">
         <v>18</v>
       </c>
-      <c r="N28" s="210">
+      <c r="N28" s="175">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
@@ -8389,7 +8380,7 @@
         <v>35910</v>
       </c>
       <c r="Q28" s="20"/>
-      <c r="R28" s="179"/>
+      <c r="R28" s="197"/>
     </row>
     <row r="29" spans="1:18" ht="193.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="47">
@@ -8426,7 +8417,7 @@
       </c>
       <c r="P29" s="80"/>
       <c r="Q29" s="25"/>
-      <c r="R29" s="180"/>
+      <c r="R29" s="198"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="34"/>
@@ -8576,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="23"/>
-      <c r="R32" s="178"/>
+      <c r="R32" s="196"/>
     </row>
     <row r="33" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34"/>
@@ -8626,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="21"/>
-      <c r="R33" s="180"/>
+      <c r="R33" s="198"/>
     </row>
     <row r="34" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="34"/>
@@ -9447,7 +9438,7 @@
         <v>578</v>
       </c>
       <c r="H50" s="82"/>
-      <c r="I50" s="225">
+      <c r="I50" s="187">
         <v>25.25</v>
       </c>
       <c r="J50" s="172">
@@ -9459,10 +9450,10 @@
         <v>144505.75</v>
       </c>
       <c r="L50" s="80"/>
-      <c r="M50" s="222">
+      <c r="M50" s="171">
         <v>25.25</v>
       </c>
-      <c r="N50" s="211">
+      <c r="N50" s="172">
         <f>M50+L50</f>
         <v>25.25</v>
       </c>
@@ -9865,7 +9856,7 @@
         <v>735</v>
       </c>
       <c r="H60" s="82"/>
-      <c r="I60" s="223">
+      <c r="I60" s="185">
         <v>120</v>
       </c>
       <c r="J60" s="172">
@@ -9951,7 +9942,7 @@
       <c r="H62" s="82">
         <v>80</v>
       </c>
-      <c r="I62" s="227">
+      <c r="I62" s="189">
         <v>30</v>
       </c>
       <c r="J62" s="172">
@@ -9998,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="86"/>
-      <c r="I63" s="228"/>
+      <c r="I63" s="190"/>
       <c r="J63" s="86"/>
       <c r="K63" s="80">
         <f t="shared" si="0"/>
@@ -10039,11 +10030,11 @@
       <c r="H64" s="82">
         <v>105</v>
       </c>
-      <c r="I64" s="227">
+      <c r="I64" s="189">
         <v>11</v>
       </c>
       <c r="J64" s="172">
-        <f t="shared" ref="J64:J68" si="16">I64+H64</f>
+        <f t="shared" ref="J64:J67" si="16">I64+H64</f>
         <v>116</v>
       </c>
       <c r="K64" s="80">
@@ -10093,7 +10084,7 @@
       <c r="H65" s="82">
         <v>2</v>
       </c>
-      <c r="I65" s="227"/>
+      <c r="I65" s="189"/>
       <c r="J65" s="80">
         <f t="shared" si="16"/>
         <v>2</v>
@@ -10143,7 +10134,7 @@
       <c r="H66" s="170">
         <v>0.5</v>
       </c>
-      <c r="I66" s="223">
+      <c r="I66" s="185">
         <v>0.5</v>
       </c>
       <c r="J66" s="170">
@@ -10353,47 +10344,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
-      <c r="O1" s="196"/>
-      <c r="P1" s="196"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="P1" s="214"/>
       <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="202" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="193" t="s">
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="211" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="194"/>
-      <c r="P2" s="195"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="212"/>
+      <c r="P2" s="213"/>
       <c r="Q2" s="18"/>
       <c r="S2" s="141"/>
       <c r="T2" s="141"/>
@@ -10530,13 +10521,13 @@
         <f>I6*F6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="211">
+      <c r="L6" s="172">
         <v>0.8</v>
       </c>
-      <c r="M6" s="211">
+      <c r="M6" s="172">
         <v>0.2</v>
       </c>
-      <c r="N6" s="211">
+      <c r="N6" s="172">
         <f>M6+L6</f>
         <v>1</v>
       </c>
@@ -10579,11 +10570,11 @@
         <f t="shared" ref="K7:K69" si="1">I7*F7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="211">
+      <c r="L7" s="172">
         <v>2</v>
       </c>
-      <c r="M7" s="211"/>
-      <c r="N7" s="211">
+      <c r="M7" s="172"/>
+      <c r="N7" s="172">
         <f t="shared" ref="N7:N69" si="2">M7+L7</f>
         <v>2</v>
       </c>
@@ -10608,8 +10599,8 @@
       <c r="E8" s="97"/>
       <c r="F8" s="93"/>
       <c r="G8" s="93"/>
-      <c r="H8" s="216"/>
-      <c r="I8" s="216"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
       <c r="J8" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10618,11 +10609,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="212">
-        <v>0</v>
-      </c>
-      <c r="M8" s="212"/>
-      <c r="N8" s="211">
+      <c r="L8" s="176">
+        <v>0</v>
+      </c>
+      <c r="M8" s="176"/>
+      <c r="N8" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10642,8 +10633,8 @@
       <c r="E9" s="58"/>
       <c r="F9" s="93"/>
       <c r="G9" s="93"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="216"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
       <c r="J9" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10652,11 +10643,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="212">
-        <v>0</v>
-      </c>
-      <c r="M9" s="212"/>
-      <c r="N9" s="211">
+      <c r="L9" s="176">
+        <v>0</v>
+      </c>
+      <c r="M9" s="176"/>
+      <c r="N9" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10700,13 +10691,13 @@
         <f t="shared" si="1"/>
         <v>8768</v>
       </c>
-      <c r="L10" s="211">
+      <c r="L10" s="172">
         <v>4</v>
       </c>
-      <c r="M10" s="211">
-        <v>1</v>
-      </c>
-      <c r="N10" s="211">
+      <c r="M10" s="172">
+        <v>1</v>
+      </c>
+      <c r="N10" s="172">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -10729,8 +10720,8 @@
       <c r="E11" s="58"/>
       <c r="F11" s="93"/>
       <c r="G11" s="93"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="216"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
       <c r="J11" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10739,11 +10730,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="212">
-        <v>0</v>
-      </c>
-      <c r="M11" s="212"/>
-      <c r="N11" s="211">
+      <c r="L11" s="176">
+        <v>0</v>
+      </c>
+      <c r="M11" s="176"/>
+      <c r="N11" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10787,11 +10778,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="211">
+      <c r="L12" s="172">
         <v>2</v>
       </c>
-      <c r="M12" s="211"/>
-      <c r="N12" s="211">
+      <c r="M12" s="172"/>
+      <c r="N12" s="172">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -10816,8 +10807,8 @@
       <c r="E13" s="54"/>
       <c r="F13" s="93"/>
       <c r="G13" s="93"/>
-      <c r="H13" s="216"/>
-      <c r="I13" s="216"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
       <c r="J13" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10826,11 +10817,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="212">
-        <v>0</v>
-      </c>
-      <c r="M13" s="212"/>
-      <c r="N13" s="211">
+      <c r="L13" s="176">
+        <v>0</v>
+      </c>
+      <c r="M13" s="176"/>
+      <c r="N13" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10839,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="93"/>
-      <c r="Q13" s="176"/>
+      <c r="Q13" s="194"/>
     </row>
     <row r="14" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
@@ -10871,11 +10862,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="211">
+      <c r="L14" s="172">
         <v>2</v>
       </c>
-      <c r="M14" s="211"/>
-      <c r="N14" s="211">
+      <c r="M14" s="172"/>
+      <c r="N14" s="172">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -10887,7 +10878,7 @@
         <f>O14+K14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="183"/>
+      <c r="Q14" s="201"/>
     </row>
     <row r="15" spans="1:24" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
@@ -10921,11 +10912,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="211">
-        <v>0</v>
-      </c>
-      <c r="M15" s="211"/>
-      <c r="N15" s="211">
+      <c r="L15" s="172">
+        <v>0</v>
+      </c>
+      <c r="M15" s="172"/>
+      <c r="N15" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10937,7 +10928,7 @@
         <f>O15+K15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="183"/>
+      <c r="Q15" s="201"/>
     </row>
     <row r="16" spans="1:24" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
@@ -10971,11 +10962,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="211">
-        <v>0</v>
-      </c>
-      <c r="M16" s="211"/>
-      <c r="N16" s="211">
+      <c r="L16" s="172">
+        <v>0</v>
+      </c>
+      <c r="M16" s="172"/>
+      <c r="N16" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10987,7 +10978,7 @@
         <f>O16+K16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="183"/>
+      <c r="Q16" s="201"/>
     </row>
     <row r="17" spans="1:17" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
@@ -11001,8 +10992,8 @@
       <c r="E17" s="54"/>
       <c r="F17" s="93"/>
       <c r="G17" s="93"/>
-      <c r="H17" s="216"/>
-      <c r="I17" s="216"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
       <c r="J17" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11011,11 +11002,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="212">
-        <v>0</v>
-      </c>
-      <c r="M17" s="212"/>
-      <c r="N17" s="211">
+      <c r="L17" s="176">
+        <v>0</v>
+      </c>
+      <c r="M17" s="176"/>
+      <c r="N17" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11024,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="93"/>
-      <c r="Q17" s="183"/>
+      <c r="Q17" s="201"/>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
@@ -11056,11 +11047,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="211">
-        <v>1</v>
-      </c>
-      <c r="M18" s="211"/>
-      <c r="N18" s="211">
+      <c r="L18" s="172">
+        <v>1</v>
+      </c>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -11072,7 +11063,7 @@
         <f>O18+K18</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="183"/>
+      <c r="Q18" s="201"/>
     </row>
     <row r="19" spans="1:17" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
@@ -11106,13 +11097,13 @@
         <f t="shared" si="1"/>
         <v>115500</v>
       </c>
-      <c r="L19" s="211">
-        <v>0</v>
-      </c>
-      <c r="M19" s="211">
+      <c r="L19" s="172">
+        <v>0</v>
+      </c>
+      <c r="M19" s="172">
         <v>2</v>
       </c>
-      <c r="N19" s="211">
+      <c r="N19" s="172">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -11124,7 +11115,7 @@
         <f>O19+K19</f>
         <v>117600</v>
       </c>
-      <c r="Q19" s="183"/>
+      <c r="Q19" s="201"/>
     </row>
     <row r="20" spans="1:17" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
@@ -11158,13 +11149,13 @@
         <f t="shared" si="1"/>
         <v>42000</v>
       </c>
-      <c r="L20" s="211">
-        <v>0</v>
-      </c>
-      <c r="M20" s="211">
+      <c r="L20" s="172">
+        <v>0</v>
+      </c>
+      <c r="M20" s="172">
         <v>2</v>
       </c>
-      <c r="N20" s="211">
+      <c r="N20" s="172">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -11176,7 +11167,7 @@
         <f>O20+K20</f>
         <v>44100</v>
       </c>
-      <c r="Q20" s="183"/>
+      <c r="Q20" s="201"/>
     </row>
     <row r="21" spans="1:17" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="47">
@@ -11190,8 +11181,8 @@
       <c r="E21" s="54"/>
       <c r="F21" s="93"/>
       <c r="G21" s="93"/>
-      <c r="H21" s="216"/>
-      <c r="I21" s="216"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="180"/>
       <c r="J21" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11200,11 +11191,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L21" s="212">
-        <v>0</v>
-      </c>
-      <c r="M21" s="212"/>
-      <c r="N21" s="211">
+      <c r="L21" s="176">
+        <v>0</v>
+      </c>
+      <c r="M21" s="176"/>
+      <c r="N21" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11213,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="93"/>
-      <c r="Q21" s="176"/>
+      <c r="Q21" s="194"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="34"/>
@@ -11238,7 +11229,7 @@
       <c r="H22" s="173">
         <v>0</v>
       </c>
-      <c r="I22" s="213">
+      <c r="I22" s="177">
         <v>43.29</v>
       </c>
       <c r="J22" s="152">
@@ -11249,13 +11240,13 @@
         <f t="shared" si="1"/>
         <v>131818.04999999999</v>
       </c>
-      <c r="L22" s="211">
-        <v>0</v>
-      </c>
-      <c r="M22" s="213">
+      <c r="L22" s="172">
+        <v>0</v>
+      </c>
+      <c r="M22" s="177">
         <v>43.29</v>
       </c>
-      <c r="N22" s="211">
+      <c r="N22" s="172">
         <f t="shared" si="2"/>
         <v>43.29</v>
       </c>
@@ -11267,7 +11258,7 @@
         <f>O22+K22</f>
         <v>163636.19999999998</v>
       </c>
-      <c r="Q22" s="177"/>
+      <c r="Q22" s="195"/>
     </row>
     <row r="23" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
@@ -11303,13 +11294,13 @@
         <f t="shared" si="1"/>
         <v>57146.25</v>
       </c>
-      <c r="L23" s="211">
-        <v>0</v>
-      </c>
-      <c r="M23" s="213">
+      <c r="L23" s="172">
+        <v>0</v>
+      </c>
+      <c r="M23" s="177">
         <v>15.55</v>
       </c>
-      <c r="N23" s="211">
+      <c r="N23" s="172">
         <f t="shared" si="2"/>
         <v>15.55</v>
       </c>
@@ -11335,8 +11326,8 @@
       <c r="E24" s="54"/>
       <c r="F24" s="93"/>
       <c r="G24" s="93"/>
-      <c r="H24" s="216"/>
-      <c r="I24" s="216"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="180"/>
       <c r="J24" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11345,11 +11336,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L24" s="212">
-        <v>0</v>
-      </c>
-      <c r="M24" s="212"/>
-      <c r="N24" s="211">
+      <c r="L24" s="176">
+        <v>0</v>
+      </c>
+      <c r="M24" s="176"/>
+      <c r="N24" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11383,7 +11374,7 @@
       <c r="H25" s="173">
         <v>0</v>
       </c>
-      <c r="I25" s="213">
+      <c r="I25" s="177">
         <v>43.29</v>
       </c>
       <c r="J25" s="152">
@@ -11394,13 +11385,13 @@
         <f t="shared" si="1"/>
         <v>122727.15</v>
       </c>
-      <c r="L25" s="211">
-        <v>0</v>
-      </c>
-      <c r="M25" s="213">
+      <c r="L25" s="172">
+        <v>0</v>
+      </c>
+      <c r="M25" s="177">
         <v>43.29</v>
       </c>
-      <c r="N25" s="211">
+      <c r="N25" s="172">
         <f t="shared" si="2"/>
         <v>43.29</v>
       </c>
@@ -11448,13 +11439,13 @@
         <f t="shared" si="1"/>
         <v>62044.5</v>
       </c>
-      <c r="L26" s="211">
+      <c r="L26" s="172">
         <v>0</v>
       </c>
       <c r="M26" s="173">
         <v>15.55</v>
       </c>
-      <c r="N26" s="211">
+      <c r="N26" s="172">
         <f t="shared" si="2"/>
         <v>15.55</v>
       </c>
@@ -11490,13 +11481,13 @@
       <c r="G27" s="107">
         <v>315</v>
       </c>
-      <c r="H27" s="217">
-        <v>0</v>
-      </c>
-      <c r="I27" s="229">
+      <c r="H27" s="181">
+        <v>0</v>
+      </c>
+      <c r="I27" s="191">
         <v>17</v>
       </c>
-      <c r="J27" s="210">
+      <c r="J27" s="175">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -11504,13 +11495,13 @@
         <f t="shared" si="1"/>
         <v>28560</v>
       </c>
-      <c r="L27" s="220">
-        <v>0</v>
-      </c>
-      <c r="M27" s="220">
+      <c r="L27" s="184">
+        <v>0</v>
+      </c>
+      <c r="M27" s="184">
         <v>17</v>
       </c>
-      <c r="N27" s="220">
+      <c r="N27" s="184">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -11540,8 +11531,8 @@
       <c r="G28" s="96">
         <v>0</v>
       </c>
-      <c r="H28" s="218"/>
-      <c r="I28" s="218"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
       <c r="J28" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11550,11 +11541,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L28" s="214">
-        <v>0</v>
-      </c>
-      <c r="M28" s="214"/>
-      <c r="N28" s="211">
+      <c r="L28" s="178">
+        <v>0</v>
+      </c>
+      <c r="M28" s="178"/>
+      <c r="N28" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11595,11 +11586,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L29" s="211">
-        <v>1</v>
-      </c>
-      <c r="M29" s="211"/>
-      <c r="N29" s="211">
+      <c r="L29" s="172">
+        <v>1</v>
+      </c>
+      <c r="M29" s="172"/>
+      <c r="N29" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -11643,11 +11634,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L30" s="211">
-        <v>1</v>
-      </c>
-      <c r="M30" s="211"/>
-      <c r="N30" s="211">
+      <c r="L30" s="172">
+        <v>1</v>
+      </c>
+      <c r="M30" s="172"/>
+      <c r="N30" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -11691,11 +11682,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L31" s="211">
+      <c r="L31" s="172">
         <v>2</v>
       </c>
-      <c r="M31" s="211"/>
-      <c r="N31" s="211">
+      <c r="M31" s="172"/>
+      <c r="N31" s="172">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -11739,11 +11730,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L32" s="211">
-        <v>1</v>
-      </c>
-      <c r="M32" s="211"/>
-      <c r="N32" s="211">
+      <c r="L32" s="172">
+        <v>1</v>
+      </c>
+      <c r="M32" s="172"/>
+      <c r="N32" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -11787,11 +11778,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L33" s="211">
+      <c r="L33" s="172">
         <v>2</v>
       </c>
-      <c r="M33" s="211"/>
-      <c r="N33" s="211">
+      <c r="M33" s="172"/>
+      <c r="N33" s="172">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -11835,11 +11826,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L34" s="211">
+      <c r="L34" s="172">
         <v>2</v>
       </c>
-      <c r="M34" s="211"/>
-      <c r="N34" s="211">
+      <c r="M34" s="172"/>
+      <c r="N34" s="172">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -11883,11 +11874,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L35" s="211">
-        <v>1</v>
-      </c>
-      <c r="M35" s="211"/>
-      <c r="N35" s="211">
+      <c r="L35" s="172">
+        <v>1</v>
+      </c>
+      <c r="M35" s="172"/>
+      <c r="N35" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -11931,11 +11922,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L36" s="211">
-        <v>1</v>
-      </c>
-      <c r="M36" s="211"/>
-      <c r="N36" s="211">
+      <c r="L36" s="172">
+        <v>1</v>
+      </c>
+      <c r="M36" s="172"/>
+      <c r="N36" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -11979,11 +11970,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L37" s="211">
-        <v>1</v>
-      </c>
-      <c r="M37" s="211"/>
-      <c r="N37" s="211">
+      <c r="L37" s="172">
+        <v>1</v>
+      </c>
+      <c r="M37" s="172"/>
+      <c r="N37" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12027,11 +12018,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L38" s="211">
-        <v>1</v>
-      </c>
-      <c r="M38" s="211"/>
-      <c r="N38" s="211">
+      <c r="L38" s="172">
+        <v>1</v>
+      </c>
+      <c r="M38" s="172"/>
+      <c r="N38" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12075,11 +12066,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L39" s="211">
-        <v>1</v>
-      </c>
-      <c r="M39" s="211"/>
-      <c r="N39" s="211">
+      <c r="L39" s="172">
+        <v>1</v>
+      </c>
+      <c r="M39" s="172"/>
+      <c r="N39" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12123,11 +12114,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L40" s="211">
-        <v>1</v>
-      </c>
-      <c r="M40" s="211"/>
-      <c r="N40" s="211">
+      <c r="L40" s="172">
+        <v>1</v>
+      </c>
+      <c r="M40" s="172"/>
+      <c r="N40" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12171,11 +12162,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L41" s="211">
-        <v>1</v>
-      </c>
-      <c r="M41" s="211"/>
-      <c r="N41" s="211">
+      <c r="L41" s="172">
+        <v>1</v>
+      </c>
+      <c r="M41" s="172"/>
+      <c r="N41" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12219,11 +12210,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L42" s="211">
-        <v>1</v>
-      </c>
-      <c r="M42" s="211"/>
-      <c r="N42" s="211">
+      <c r="L42" s="172">
+        <v>1</v>
+      </c>
+      <c r="M42" s="172"/>
+      <c r="N42" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12267,11 +12258,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L43" s="211">
-        <v>1</v>
-      </c>
-      <c r="M43" s="211"/>
-      <c r="N43" s="211">
+      <c r="L43" s="172">
+        <v>1</v>
+      </c>
+      <c r="M43" s="172"/>
+      <c r="N43" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12315,11 +12306,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L44" s="211">
-        <v>1</v>
-      </c>
-      <c r="M44" s="211"/>
-      <c r="N44" s="211">
+      <c r="L44" s="172">
+        <v>1</v>
+      </c>
+      <c r="M44" s="172"/>
+      <c r="N44" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12363,11 +12354,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L45" s="211">
-        <v>1</v>
-      </c>
-      <c r="M45" s="211"/>
-      <c r="N45" s="211">
+      <c r="L45" s="172">
+        <v>1</v>
+      </c>
+      <c r="M45" s="172"/>
+      <c r="N45" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12397,8 +12388,8 @@
       <c r="E46" s="58"/>
       <c r="F46" s="94"/>
       <c r="G46" s="98"/>
-      <c r="H46" s="219"/>
-      <c r="I46" s="219"/>
+      <c r="H46" s="183"/>
+      <c r="I46" s="183"/>
       <c r="J46" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12407,11 +12398,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L46" s="215">
-        <v>0</v>
-      </c>
-      <c r="M46" s="215"/>
-      <c r="N46" s="211">
+      <c r="L46" s="179">
+        <v>0</v>
+      </c>
+      <c r="M46" s="179"/>
+      <c r="N46" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12456,11 +12447,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L47" s="211">
-        <v>1</v>
-      </c>
-      <c r="M47" s="211"/>
-      <c r="N47" s="211">
+      <c r="L47" s="172">
+        <v>1</v>
+      </c>
+      <c r="M47" s="172"/>
+      <c r="N47" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12507,11 +12498,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L48" s="211">
+      <c r="L48" s="172">
         <v>2</v>
       </c>
-      <c r="M48" s="211"/>
-      <c r="N48" s="211">
+      <c r="M48" s="172"/>
+      <c r="N48" s="172">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -12560,11 +12551,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L49" s="211">
+      <c r="L49" s="172">
         <v>2</v>
       </c>
-      <c r="M49" s="211"/>
-      <c r="N49" s="211">
+      <c r="M49" s="172"/>
+      <c r="N49" s="172">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -12611,13 +12602,13 @@
         <f t="shared" si="1"/>
         <v>563640</v>
       </c>
-      <c r="L50" s="211">
+      <c r="L50" s="172">
         <v>508.5</v>
       </c>
-      <c r="M50" s="211">
+      <c r="M50" s="172">
         <v>97.6</v>
       </c>
-      <c r="N50" s="211">
+      <c r="N50" s="172">
         <f t="shared" si="2"/>
         <v>606.1</v>
       </c>
@@ -12664,13 +12655,13 @@
         <f t="shared" si="1"/>
         <v>589308.79999999993</v>
       </c>
-      <c r="L51" s="211">
+      <c r="L51" s="172">
         <v>508.5</v>
       </c>
       <c r="M51" s="173">
         <v>97.6</v>
       </c>
-      <c r="N51" s="211">
+      <c r="N51" s="172">
         <f t="shared" si="2"/>
         <v>606.1</v>
       </c>
@@ -12706,7 +12697,7 @@
       <c r="H52" s="173">
         <v>0</v>
       </c>
-      <c r="I52" s="226">
+      <c r="I52" s="188">
         <v>32</v>
       </c>
       <c r="J52" s="152">
@@ -12717,13 +12708,13 @@
         <f t="shared" si="1"/>
         <v>183136</v>
       </c>
-      <c r="L52" s="211">
-        <v>0</v>
-      </c>
-      <c r="M52" s="211">
+      <c r="L52" s="172">
+        <v>0</v>
+      </c>
+      <c r="M52" s="172">
         <v>32</v>
       </c>
-      <c r="N52" s="211">
+      <c r="N52" s="172">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
@@ -12748,8 +12739,8 @@
       <c r="E53" s="54"/>
       <c r="F53" s="93"/>
       <c r="G53" s="93"/>
-      <c r="H53" s="216"/>
-      <c r="I53" s="216"/>
+      <c r="H53" s="180"/>
+      <c r="I53" s="180"/>
       <c r="J53" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12758,11 +12749,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L53" s="212">
-        <v>0</v>
-      </c>
-      <c r="M53" s="212"/>
-      <c r="N53" s="211">
+      <c r="L53" s="176">
+        <v>0</v>
+      </c>
+      <c r="M53" s="176"/>
+      <c r="N53" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12782,8 +12773,8 @@
       <c r="E54" s="54"/>
       <c r="F54" s="93"/>
       <c r="G54" s="93"/>
-      <c r="H54" s="216"/>
-      <c r="I54" s="216"/>
+      <c r="H54" s="180"/>
+      <c r="I54" s="180"/>
       <c r="J54" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12792,11 +12783,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L54" s="212">
-        <v>0</v>
-      </c>
-      <c r="M54" s="212"/>
-      <c r="N54" s="211">
+      <c r="L54" s="176">
+        <v>0</v>
+      </c>
+      <c r="M54" s="176"/>
+      <c r="N54" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12840,13 +12831,13 @@
         <f t="shared" si="1"/>
         <v>63000</v>
       </c>
-      <c r="L55" s="211">
-        <v>0</v>
-      </c>
-      <c r="M55" s="213">
+      <c r="L55" s="172">
+        <v>0</v>
+      </c>
+      <c r="M55" s="177">
         <v>15</v>
       </c>
-      <c r="N55" s="211">
+      <c r="N55" s="172">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -12893,13 +12884,13 @@
         <f t="shared" si="1"/>
         <v>37800</v>
       </c>
-      <c r="L56" s="211">
-        <v>0</v>
-      </c>
-      <c r="M56" s="213">
+      <c r="L56" s="172">
+        <v>0</v>
+      </c>
+      <c r="M56" s="177">
         <v>4</v>
       </c>
-      <c r="N56" s="211">
+      <c r="N56" s="172">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -12922,8 +12913,8 @@
       <c r="E57" s="54"/>
       <c r="F57" s="93"/>
       <c r="G57" s="93"/>
-      <c r="H57" s="216"/>
-      <c r="I57" s="216"/>
+      <c r="H57" s="180"/>
+      <c r="I57" s="180"/>
       <c r="J57" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12932,11 +12923,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L57" s="212">
-        <v>0</v>
-      </c>
-      <c r="M57" s="212"/>
-      <c r="N57" s="211">
+      <c r="L57" s="176">
+        <v>0</v>
+      </c>
+      <c r="M57" s="176"/>
+      <c r="N57" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12978,11 +12969,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L58" s="211">
-        <v>0</v>
-      </c>
-      <c r="M58" s="213"/>
-      <c r="N58" s="211">
+      <c r="L58" s="172">
+        <v>0</v>
+      </c>
+      <c r="M58" s="177"/>
+      <c r="N58" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13029,13 +13020,13 @@
         <f t="shared" si="1"/>
         <v>6300</v>
       </c>
-      <c r="L59" s="211">
-        <v>0</v>
-      </c>
-      <c r="M59" s="213">
+      <c r="L59" s="172">
+        <v>0</v>
+      </c>
+      <c r="M59" s="177">
         <v>2</v>
       </c>
-      <c r="N59" s="211">
+      <c r="N59" s="172">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -13058,8 +13049,8 @@
       <c r="E60" s="54"/>
       <c r="F60" s="93"/>
       <c r="G60" s="93"/>
-      <c r="H60" s="216"/>
-      <c r="I60" s="216"/>
+      <c r="H60" s="180"/>
+      <c r="I60" s="180"/>
       <c r="J60" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13068,11 +13059,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L60" s="212">
-        <v>0</v>
-      </c>
-      <c r="M60" s="212"/>
-      <c r="N60" s="211">
+      <c r="L60" s="176">
+        <v>0</v>
+      </c>
+      <c r="M60" s="176"/>
+      <c r="N60" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13116,13 +13107,13 @@
         <f t="shared" si="1"/>
         <v>545737.5</v>
       </c>
-      <c r="L61" s="211">
-        <v>0</v>
-      </c>
-      <c r="M61" s="213">
+      <c r="L61" s="172">
+        <v>0</v>
+      </c>
+      <c r="M61" s="177">
         <v>115.5</v>
       </c>
-      <c r="N61" s="211">
+      <c r="N61" s="172">
         <f t="shared" si="2"/>
         <v>115.5</v>
       </c>
@@ -13147,8 +13138,8 @@
       <c r="E62" s="54"/>
       <c r="F62" s="93"/>
       <c r="G62" s="93"/>
-      <c r="H62" s="216"/>
-      <c r="I62" s="216"/>
+      <c r="H62" s="180"/>
+      <c r="I62" s="180"/>
       <c r="J62" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13157,11 +13148,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L62" s="212">
-        <v>0</v>
-      </c>
-      <c r="M62" s="212"/>
-      <c r="N62" s="211">
+      <c r="L62" s="176">
+        <v>0</v>
+      </c>
+      <c r="M62" s="176"/>
+      <c r="N62" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13203,13 +13194,13 @@
         <f t="shared" si="1"/>
         <v>182760</v>
       </c>
-      <c r="L63" s="211">
-        <v>0</v>
-      </c>
-      <c r="M63" s="211">
+      <c r="L63" s="172">
+        <v>0</v>
+      </c>
+      <c r="M63" s="172">
         <v>120</v>
       </c>
-      <c r="N63" s="211">
+      <c r="N63" s="172">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
@@ -13234,8 +13225,8 @@
       <c r="E64" s="54"/>
       <c r="F64" s="93"/>
       <c r="G64" s="93"/>
-      <c r="H64" s="216"/>
-      <c r="I64" s="216"/>
+      <c r="H64" s="180"/>
+      <c r="I64" s="180"/>
       <c r="J64" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13244,11 +13235,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L64" s="212">
-        <v>0</v>
-      </c>
-      <c r="M64" s="212"/>
-      <c r="N64" s="211">
+      <c r="L64" s="176">
+        <v>0</v>
+      </c>
+      <c r="M64" s="176"/>
+      <c r="N64" s="172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13290,13 +13281,13 @@
         <f t="shared" si="1"/>
         <v>355224</v>
       </c>
-      <c r="L65" s="211">
-        <v>0</v>
-      </c>
-      <c r="M65" s="211">
+      <c r="L65" s="172">
+        <v>0</v>
+      </c>
+      <c r="M65" s="172">
         <v>123</v>
       </c>
-      <c r="N65" s="211">
+      <c r="N65" s="172">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
@@ -13330,7 +13321,7 @@
         <v>5250</v>
       </c>
       <c r="H66" s="173"/>
-      <c r="I66" s="226">
+      <c r="I66" s="188">
         <v>2</v>
       </c>
       <c r="J66" s="152">
@@ -13341,13 +13332,13 @@
         <f t="shared" si="1"/>
         <v>95550</v>
       </c>
-      <c r="L66" s="211">
-        <v>0</v>
-      </c>
-      <c r="M66" s="211">
+      <c r="L66" s="172">
+        <v>0</v>
+      </c>
+      <c r="M66" s="172">
         <v>2</v>
       </c>
-      <c r="N66" s="211">
+      <c r="N66" s="172">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -13394,13 +13385,13 @@
         <f t="shared" si="1"/>
         <v>10500</v>
       </c>
-      <c r="L67" s="211">
+      <c r="L67" s="172">
         <v>0.5</v>
       </c>
-      <c r="M67" s="211">
+      <c r="M67" s="172">
         <v>0.5</v>
       </c>
-      <c r="N67" s="211">
+      <c r="N67" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13445,11 +13436,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L68" s="211"/>
-      <c r="M68" s="211">
-        <v>1</v>
-      </c>
-      <c r="N68" s="211">
+      <c r="L68" s="172"/>
+      <c r="M68" s="172">
+        <v>1</v>
+      </c>
+      <c r="N68" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13496,13 +13487,13 @@
         <f t="shared" si="1"/>
         <v>5250</v>
       </c>
-      <c r="L69" s="211">
+      <c r="L69" s="172">
         <v>0.5</v>
       </c>
-      <c r="M69" s="211">
+      <c r="M69" s="172">
         <v>0.5</v>
       </c>
-      <c r="N69" s="211">
+      <c r="N69" s="172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13529,7 +13520,7 @@
       <c r="I70" s="138"/>
       <c r="J70" s="138"/>
       <c r="K70" s="91">
-        <f t="shared" ref="K70:O70" si="6">SUM(K6:K69)</f>
+        <f t="shared" ref="K70" si="6">SUM(K6:K69)</f>
         <v>3206770.25</v>
       </c>
       <c r="L70" s="91"/>
@@ -13600,46 +13591,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="218" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
     </row>
     <row r="2" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="217" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="193" t="s">
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="211" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="195"/>
-    </row>
-    <row r="3" spans="1:15" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="213"/>
+    </row>
+    <row r="3" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
         <v>116</v>
       </c>
@@ -13687,7 +13678,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="202" t="s">
+      <c r="A4" s="220" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="73" t="s">
@@ -13725,7 +13716,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="203"/>
+      <c r="A5" s="221"/>
       <c r="B5" s="73" t="s">
         <v>122</v>
       </c>
@@ -13747,7 +13738,7 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" s="6" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="203"/>
+      <c r="A6" s="221"/>
       <c r="B6" s="73" t="s">
         <v>123</v>
       </c>
@@ -13769,7 +13760,7 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="203"/>
+      <c r="A7" s="221"/>
       <c r="B7" s="11" t="s">
         <v>54</v>
       </c>
@@ -13785,7 +13776,7 @@
       <c r="F7" s="80">
         <v>727</v>
       </c>
-      <c r="G7" s="211">
+      <c r="G7" s="172">
         <v>215.92</v>
       </c>
       <c r="H7" s="172">
@@ -13800,7 +13791,7 @@
         <f>H7*E7</f>
         <v>112478.12000000001</v>
       </c>
-      <c r="K7" s="221">
+      <c r="K7" s="153">
         <v>215.92</v>
       </c>
       <c r="L7" s="172">
@@ -13821,7 +13812,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="203"/>
+      <c r="A8" s="221"/>
       <c r="B8" s="11" t="s">
         <v>53</v>
       </c>
@@ -13837,10 +13828,10 @@
       <c r="F8" s="80">
         <v>882</v>
       </c>
-      <c r="G8" s="211">
+      <c r="G8" s="172">
         <v>23.45</v>
       </c>
-      <c r="H8" s="211">
+      <c r="H8" s="172">
         <v>7.32</v>
       </c>
       <c r="I8" s="153">
@@ -13850,14 +13841,14 @@
         <f t="shared" ref="J8:J21" si="2">H8*E8</f>
         <v>26849.760000000002</v>
       </c>
-      <c r="K8" s="221">
+      <c r="K8" s="153">
         <v>23.45</v>
       </c>
-      <c r="L8" s="211">
+      <c r="L8" s="172">
         <v>7.32</v>
       </c>
       <c r="M8" s="153">
-        <f t="shared" ref="M8:M21" si="3">I8</f>
+        <f t="shared" ref="M8:M20" si="3">I8</f>
         <v>23.45</v>
       </c>
       <c r="N8" s="66">
@@ -13870,7 +13861,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="203"/>
+      <c r="A9" s="221"/>
       <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
@@ -13886,10 +13877,10 @@
       <c r="F9" s="80">
         <v>1113</v>
       </c>
-      <c r="G9" s="211">
+      <c r="G9" s="172">
         <v>10.66</v>
       </c>
-      <c r="H9" s="211">
+      <c r="H9" s="172">
         <v>3.81</v>
       </c>
       <c r="I9" s="153">
@@ -13899,10 +13890,10 @@
         <f t="shared" si="2"/>
         <v>14881.86</v>
       </c>
-      <c r="K9" s="221">
+      <c r="K9" s="153">
         <v>10.66</v>
       </c>
-      <c r="L9" s="211">
+      <c r="L9" s="172">
         <v>3.81</v>
       </c>
       <c r="M9" s="153">
@@ -13919,7 +13910,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="203"/>
+      <c r="A10" s="221"/>
       <c r="B10" s="12" t="s">
         <v>56</v>
       </c>
@@ -13935,10 +13926,10 @@
       <c r="F10" s="80">
         <v>1297</v>
       </c>
-      <c r="G10" s="211">
+      <c r="G10" s="172">
         <v>23.93</v>
       </c>
-      <c r="H10" s="211">
+      <c r="H10" s="172">
         <v>3.35</v>
       </c>
       <c r="I10" s="153">
@@ -13948,10 +13939,10 @@
         <f t="shared" si="2"/>
         <v>23674.45</v>
       </c>
-      <c r="K10" s="221">
+      <c r="K10" s="153">
         <v>23.93</v>
       </c>
-      <c r="L10" s="211">
+      <c r="L10" s="172">
         <v>3.35</v>
       </c>
       <c r="M10" s="153">
@@ -13968,7 +13959,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="203"/>
+      <c r="A11" s="221"/>
       <c r="B11" s="12" t="s">
         <v>58</v>
       </c>
@@ -13984,7 +13975,7 @@
       <c r="F11" s="80">
         <v>1565</v>
       </c>
-      <c r="G11" s="211">
+      <c r="G11" s="172">
         <v>49.72</v>
       </c>
       <c r="H11" s="80"/>
@@ -13995,7 +13986,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="221">
+      <c r="K11" s="153">
         <v>49.72</v>
       </c>
       <c r="L11" s="66"/>
@@ -14013,7 +14004,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="203"/>
+      <c r="A12" s="221"/>
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -14029,7 +14020,7 @@
       <c r="F12" s="80">
         <v>1638</v>
       </c>
-      <c r="G12" s="211">
+      <c r="G12" s="172">
         <v>6.2</v>
       </c>
       <c r="H12" s="80"/>
@@ -14040,7 +14031,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="221">
+      <c r="K12" s="153">
         <v>6.2</v>
       </c>
       <c r="L12" s="66"/>
@@ -14058,7 +14049,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="203"/>
+      <c r="A13" s="221"/>
       <c r="B13" s="12" t="s">
         <v>124</v>
       </c>
@@ -14074,7 +14065,7 @@
       <c r="F13" s="80">
         <v>1911</v>
       </c>
-      <c r="G13" s="211">
+      <c r="G13" s="172">
         <v>8.2799999999999994</v>
       </c>
       <c r="H13" s="80"/>
@@ -14085,7 +14076,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="221">
+      <c r="K13" s="153">
         <v>8.2799999999999994</v>
       </c>
       <c r="L13" s="66"/>
@@ -14119,7 +14110,7 @@
       <c r="F14" s="80">
         <v>1575</v>
       </c>
-      <c r="G14" s="211">
+      <c r="G14" s="172">
         <v>70</v>
       </c>
       <c r="H14" s="80">
@@ -14132,7 +14123,7 @@
         <f t="shared" si="2"/>
         <v>142800</v>
       </c>
-      <c r="K14" s="221">
+      <c r="K14" s="153">
         <v>70</v>
       </c>
       <c r="L14" s="66">
@@ -14168,14 +14159,14 @@
       <c r="F15" s="80">
         <v>2100</v>
       </c>
-      <c r="G15" s="211"/>
+      <c r="G15" s="172"/>
       <c r="H15" s="80"/>
       <c r="I15" s="66"/>
       <c r="J15" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="221">
+      <c r="K15" s="153">
         <v>0</v>
       </c>
       <c r="L15" s="66"/>
@@ -14209,7 +14200,7 @@
       <c r="F16" s="80">
         <v>3675</v>
       </c>
-      <c r="G16" s="211">
+      <c r="G16" s="172">
         <v>0</v>
       </c>
       <c r="H16" s="80"/>
@@ -14220,7 +14211,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="221">
+      <c r="K16" s="153">
         <v>0</v>
       </c>
       <c r="L16" s="66"/>
@@ -14254,7 +14245,7 @@
       <c r="F17" s="80">
         <v>15750</v>
       </c>
-      <c r="G17" s="211">
+      <c r="G17" s="172">
         <v>0</v>
       </c>
       <c r="H17" s="80"/>
@@ -14265,7 +14256,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="221">
+      <c r="K17" s="153">
         <v>0</v>
       </c>
       <c r="L17" s="66"/>
@@ -14299,26 +14290,26 @@
       <c r="F18" s="80">
         <v>10500</v>
       </c>
-      <c r="G18" s="211">
+      <c r="G18" s="172">
         <v>0.5</v>
       </c>
       <c r="H18" s="152">
         <v>0.5</v>
       </c>
-      <c r="I18" s="209">
+      <c r="I18" s="174">
         <v>0.5</v>
       </c>
       <c r="J18" s="66">
         <f>H18*E18</f>
         <v>21000</v>
       </c>
-      <c r="K18" s="221">
+      <c r="K18" s="153">
         <v>0.5</v>
       </c>
       <c r="L18" s="152">
         <v>0.5</v>
       </c>
-      <c r="M18" s="209">
+      <c r="M18" s="174">
         <v>0.5</v>
       </c>
       <c r="N18" s="66">
@@ -14347,26 +14338,26 @@
       <c r="F19" s="80">
         <v>21000</v>
       </c>
-      <c r="G19" s="211">
+      <c r="G19" s="172">
         <v>0.8</v>
       </c>
       <c r="H19" s="152">
         <v>0.5</v>
       </c>
-      <c r="I19" s="209">
+      <c r="I19" s="174">
         <v>0.8</v>
       </c>
       <c r="J19" s="66">
         <f t="shared" si="2"/>
         <v>31500</v>
       </c>
-      <c r="K19" s="221">
+      <c r="K19" s="153">
         <v>0.8</v>
       </c>
       <c r="L19" s="152">
         <v>0.2</v>
       </c>
-      <c r="M19" s="209">
+      <c r="M19" s="174">
         <v>0.8</v>
       </c>
       <c r="N19" s="66">
@@ -14395,7 +14386,7 @@
       <c r="F20" s="80">
         <v>21000</v>
       </c>
-      <c r="G20" s="211">
+      <c r="G20" s="172">
         <v>1</v>
       </c>
       <c r="H20" s="152"/>
@@ -14406,7 +14397,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="221">
+      <c r="K20" s="153">
         <v>1</v>
       </c>
       <c r="L20" s="152"/>
@@ -14440,26 +14431,26 @@
       <c r="F21" s="80">
         <v>21000</v>
       </c>
-      <c r="G21" s="211">
+      <c r="G21" s="172">
         <v>0.8</v>
       </c>
       <c r="H21" s="152">
         <v>0.2</v>
       </c>
-      <c r="I21" s="209">
+      <c r="I21" s="174">
         <v>0.8</v>
       </c>
       <c r="J21" s="66">
         <f t="shared" si="2"/>
         <v>7350</v>
       </c>
-      <c r="K21" s="221">
+      <c r="K21" s="153">
         <v>0.8</v>
       </c>
       <c r="L21" s="152">
         <v>0.2</v>
       </c>
-      <c r="M21" s="209">
+      <c r="M21" s="174">
         <v>0.8</v>
       </c>
       <c r="N21" s="66">
@@ -14503,38 +14494,38 @@
       <c r="T22" s="141"/>
     </row>
     <row r="23" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="204"/>
-      <c r="B23" s="204"/>
-      <c r="C23" s="204"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="205"/>
-      <c r="H23" s="205"/>
-      <c r="I23" s="205"/>
-      <c r="J23" s="205"/>
-      <c r="K23" s="205"/>
-      <c r="L23" s="205"/>
-      <c r="M23" s="205"/>
-      <c r="N23" s="205"/>
-      <c r="O23" s="205"/>
+      <c r="A23" s="222"/>
+      <c r="B23" s="222"/>
+      <c r="C23" s="222"/>
+      <c r="D23" s="222"/>
+      <c r="E23" s="222"/>
+      <c r="F23" s="223"/>
+      <c r="G23" s="223"/>
+      <c r="H23" s="223"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="223"/>
+      <c r="K23" s="223"/>
+      <c r="L23" s="223"/>
+      <c r="M23" s="223"/>
+      <c r="N23" s="223"/>
+      <c r="O23" s="223"/>
     </row>
     <row r="24" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="197"/>
-      <c r="B24" s="197"/>
-      <c r="C24" s="197"/>
-      <c r="D24" s="197"/>
-      <c r="E24" s="197"/>
-      <c r="F24" s="198"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="198"/>
-      <c r="K24" s="198"/>
-      <c r="L24" s="198"/>
-      <c r="M24" s="198"/>
-      <c r="N24" s="198"/>
-      <c r="O24" s="198"/>
+      <c r="A24" s="215"/>
+      <c r="B24" s="215"/>
+      <c r="C24" s="215"/>
+      <c r="D24" s="215"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="216"/>
+      <c r="I24" s="216"/>
+      <c r="J24" s="216"/>
+      <c r="K24" s="216"/>
+      <c r="L24" s="216"/>
+      <c r="M24" s="216"/>
+      <c r="N24" s="216"/>
+      <c r="O24" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -14580,44 +14571,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="218" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
     </row>
     <row r="2" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="217" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="193" t="s">
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="211" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="195"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="213"/>
     </row>
     <row r="3" spans="1:15" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
@@ -14667,7 +14658,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="202" t="s">
+      <c r="A4" s="220" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="73" t="s">
@@ -14711,7 +14702,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="203"/>
+      <c r="A5" s="221"/>
       <c r="B5" s="73" t="s">
         <v>122</v>
       </c>
@@ -14730,7 +14721,7 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" s="6" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="203"/>
+      <c r="A6" s="221"/>
       <c r="B6" s="73" t="s">
         <v>123</v>
       </c>
@@ -14749,7 +14740,7 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="203"/>
+      <c r="A7" s="221"/>
       <c r="B7" s="11" t="s">
         <v>54</v>
       </c>
@@ -14765,14 +14756,14 @@
       <c r="F7" s="80">
         <v>727</v>
       </c>
-      <c r="G7" s="211">
+      <c r="G7" s="172">
         <v>147</v>
       </c>
       <c r="H7" s="172">
         <f>23.17+19.5</f>
         <v>42.67</v>
       </c>
-      <c r="I7" s="211">
+      <c r="I7" s="172">
         <f>H7+G7</f>
         <v>189.67000000000002</v>
       </c>
@@ -14780,14 +14771,14 @@
         <f>H7*E7</f>
         <v>112478.12000000001</v>
       </c>
-      <c r="K7" s="211">
+      <c r="K7" s="172">
         <v>147</v>
       </c>
       <c r="L7" s="172">
         <f>23.17+19.5</f>
         <v>42.67</v>
       </c>
-      <c r="M7" s="220">
+      <c r="M7" s="184">
         <f>L7+K7</f>
         <v>189.67000000000002</v>
       </c>
@@ -14801,7 +14792,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="203"/>
+      <c r="A8" s="221"/>
       <c r="B8" s="11" t="s">
         <v>53</v>
       </c>
@@ -14817,13 +14808,13 @@
       <c r="F8" s="80">
         <v>882</v>
       </c>
-      <c r="G8" s="211">
+      <c r="G8" s="172">
         <v>20.34</v>
       </c>
-      <c r="H8" s="211">
+      <c r="H8" s="172">
         <v>7.32</v>
       </c>
-      <c r="I8" s="211">
+      <c r="I8" s="172">
         <f t="shared" ref="I8:I22" si="1">H8+G8</f>
         <v>27.66</v>
       </c>
@@ -14831,13 +14822,13 @@
         <f t="shared" ref="J8:J22" si="2">H8*E8</f>
         <v>26849.760000000002</v>
       </c>
-      <c r="K8" s="211">
+      <c r="K8" s="172">
         <v>20.34</v>
       </c>
-      <c r="L8" s="211">
+      <c r="L8" s="172">
         <v>7.32</v>
       </c>
-      <c r="M8" s="220">
+      <c r="M8" s="184">
         <f t="shared" ref="M8:M22" si="3">L8+K8</f>
         <v>27.66</v>
       </c>
@@ -14851,7 +14842,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="203"/>
+      <c r="A9" s="221"/>
       <c r="B9" s="12" t="s">
         <v>55</v>
       </c>
@@ -14867,13 +14858,13 @@
       <c r="F9" s="80">
         <v>1113</v>
       </c>
-      <c r="G9" s="211">
+      <c r="G9" s="172">
         <v>3.63</v>
       </c>
-      <c r="H9" s="211">
+      <c r="H9" s="172">
         <v>3.81</v>
       </c>
-      <c r="I9" s="211">
+      <c r="I9" s="172">
         <f t="shared" si="1"/>
         <v>7.4399999999999995</v>
       </c>
@@ -14881,13 +14872,13 @@
         <f t="shared" si="2"/>
         <v>14881.86</v>
       </c>
-      <c r="K9" s="211">
+      <c r="K9" s="172">
         <v>3.63</v>
       </c>
-      <c r="L9" s="211">
+      <c r="L9" s="172">
         <v>3.81</v>
       </c>
-      <c r="M9" s="220">
+      <c r="M9" s="184">
         <f t="shared" si="3"/>
         <v>7.4399999999999995</v>
       </c>
@@ -14901,7 +14892,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="203"/>
+      <c r="A10" s="221"/>
       <c r="B10" s="12" t="s">
         <v>56</v>
       </c>
@@ -14917,13 +14908,13 @@
       <c r="F10" s="80">
         <v>1297</v>
       </c>
-      <c r="G10" s="211">
+      <c r="G10" s="172">
         <v>25.2</v>
       </c>
-      <c r="H10" s="211">
+      <c r="H10" s="172">
         <v>3.35</v>
       </c>
-      <c r="I10" s="211">
+      <c r="I10" s="172">
         <f t="shared" si="1"/>
         <v>28.55</v>
       </c>
@@ -14931,13 +14922,13 @@
         <f t="shared" si="2"/>
         <v>23674.45</v>
       </c>
-      <c r="K10" s="211">
+      <c r="K10" s="172">
         <v>25.2</v>
       </c>
-      <c r="L10" s="211">
+      <c r="L10" s="172">
         <v>3.35</v>
       </c>
-      <c r="M10" s="220">
+      <c r="M10" s="184">
         <f t="shared" si="3"/>
         <v>28.55</v>
       </c>
@@ -14951,7 +14942,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="203"/>
+      <c r="A11" s="221"/>
       <c r="B11" s="12" t="s">
         <v>58</v>
       </c>
@@ -14967,11 +14958,11 @@
       <c r="F11" s="80">
         <v>1565</v>
       </c>
-      <c r="G11" s="211">
+      <c r="G11" s="172">
         <v>25.94</v>
       </c>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211">
+      <c r="H11" s="172"/>
+      <c r="I11" s="172">
         <f t="shared" si="1"/>
         <v>25.94</v>
       </c>
@@ -14979,11 +14970,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="211">
+      <c r="K11" s="172">
         <v>25.94</v>
       </c>
-      <c r="L11" s="211"/>
-      <c r="M11" s="220">
+      <c r="L11" s="172"/>
+      <c r="M11" s="184">
         <f t="shared" si="3"/>
         <v>25.94</v>
       </c>
@@ -14997,7 +14988,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="203"/>
+      <c r="A12" s="221"/>
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -15013,11 +15004,11 @@
       <c r="F12" s="80">
         <v>1638</v>
       </c>
-      <c r="G12" s="211">
+      <c r="G12" s="172">
         <v>8.4600000000000009</v>
       </c>
-      <c r="H12" s="211"/>
-      <c r="I12" s="211">
+      <c r="H12" s="172"/>
+      <c r="I12" s="172">
         <f t="shared" si="1"/>
         <v>8.4600000000000009</v>
       </c>
@@ -15025,11 +15016,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="211">
+      <c r="K12" s="172">
         <v>8.4600000000000009</v>
       </c>
-      <c r="L12" s="211"/>
-      <c r="M12" s="220">
+      <c r="L12" s="172"/>
+      <c r="M12" s="184">
         <f t="shared" si="3"/>
         <v>8.4600000000000009</v>
       </c>
@@ -15043,7 +15034,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="203"/>
+      <c r="A13" s="221"/>
       <c r="B13" s="12" t="s">
         <v>124</v>
       </c>
@@ -15059,11 +15050,11 @@
       <c r="F13" s="80">
         <v>1911</v>
       </c>
-      <c r="G13" s="211">
+      <c r="G13" s="172">
         <v>17.63</v>
       </c>
-      <c r="H13" s="211"/>
-      <c r="I13" s="211">
+      <c r="H13" s="172"/>
+      <c r="I13" s="172">
         <f t="shared" si="1"/>
         <v>17.63</v>
       </c>
@@ -15071,11 +15062,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="211">
+      <c r="K13" s="172">
         <v>17.63</v>
       </c>
-      <c r="L13" s="211"/>
-      <c r="M13" s="220">
+      <c r="L13" s="172"/>
+      <c r="M13" s="184">
         <f t="shared" si="3"/>
         <v>17.63</v>
       </c>
@@ -15105,9 +15096,9 @@
       <c r="F14" s="80">
         <v>1575</v>
       </c>
-      <c r="G14" s="211"/>
-      <c r="H14" s="211"/>
-      <c r="I14" s="211">
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -15115,11 +15106,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="211">
-        <v>0</v>
-      </c>
-      <c r="L14" s="211"/>
-      <c r="M14" s="211">
+      <c r="K14" s="172">
+        <v>0</v>
+      </c>
+      <c r="L14" s="172"/>
+      <c r="M14" s="172">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15149,11 +15140,11 @@
       <c r="F15" s="80">
         <v>1575</v>
       </c>
-      <c r="G15" s="211"/>
-      <c r="H15" s="211">
+      <c r="G15" s="172"/>
+      <c r="H15" s="172">
         <v>75</v>
       </c>
-      <c r="I15" s="211">
+      <c r="I15" s="172">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -15161,13 +15152,13 @@
         <f t="shared" si="2"/>
         <v>630000</v>
       </c>
-      <c r="K15" s="211">
-        <v>0</v>
-      </c>
-      <c r="L15" s="211">
+      <c r="K15" s="172">
+        <v>0</v>
+      </c>
+      <c r="L15" s="172">
         <v>75</v>
       </c>
-      <c r="M15" s="211">
+      <c r="M15" s="172">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
@@ -15197,9 +15188,9 @@
       <c r="F16" s="80">
         <v>2100</v>
       </c>
-      <c r="G16" s="211"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="211">
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -15207,11 +15198,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="211">
-        <v>0</v>
-      </c>
-      <c r="L16" s="211"/>
-      <c r="M16" s="211">
+      <c r="K16" s="172">
+        <v>0</v>
+      </c>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15241,11 +15232,11 @@
       <c r="F17" s="80">
         <v>3675</v>
       </c>
-      <c r="G17" s="211">
-        <v>0</v>
-      </c>
-      <c r="H17" s="211"/>
-      <c r="I17" s="211">
+      <c r="G17" s="172">
+        <v>0</v>
+      </c>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -15253,11 +15244,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="211">
-        <v>0</v>
-      </c>
-      <c r="L17" s="211"/>
-      <c r="M17" s="220">
+      <c r="K17" s="172">
+        <v>0</v>
+      </c>
+      <c r="L17" s="172"/>
+      <c r="M17" s="184">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15287,11 +15278,11 @@
       <c r="F18" s="80">
         <v>15750</v>
       </c>
-      <c r="G18" s="211">
-        <v>0</v>
-      </c>
-      <c r="H18" s="211"/>
-      <c r="I18" s="211">
+      <c r="G18" s="172">
+        <v>0</v>
+      </c>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -15299,11 +15290,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="211">
-        <v>0</v>
-      </c>
-      <c r="L18" s="211"/>
-      <c r="M18" s="220">
+      <c r="K18" s="172">
+        <v>0</v>
+      </c>
+      <c r="L18" s="172"/>
+      <c r="M18" s="184">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -15333,11 +15324,11 @@
       <c r="F19" s="80">
         <v>10500</v>
       </c>
-      <c r="G19" s="211"/>
-      <c r="H19" s="211">
-        <v>1</v>
-      </c>
-      <c r="I19" s="211">
+      <c r="G19" s="172"/>
+      <c r="H19" s="172">
+        <v>1</v>
+      </c>
+      <c r="I19" s="172">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -15345,13 +15336,13 @@
         <f t="shared" si="2"/>
         <v>42000</v>
       </c>
-      <c r="K19" s="211">
+      <c r="K19" s="172">
         <v>0.5</v>
       </c>
-      <c r="L19" s="211">
+      <c r="L19" s="172">
         <v>0.5</v>
       </c>
-      <c r="M19" s="220">
+      <c r="M19" s="184">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15381,11 +15372,11 @@
       <c r="F20" s="80">
         <v>21000</v>
       </c>
-      <c r="G20" s="211"/>
-      <c r="H20" s="211">
-        <v>1</v>
-      </c>
-      <c r="I20" s="211">
+      <c r="G20" s="172"/>
+      <c r="H20" s="172">
+        <v>1</v>
+      </c>
+      <c r="I20" s="172">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -15393,13 +15384,13 @@
         <f t="shared" si="2"/>
         <v>63000</v>
       </c>
-      <c r="K20" s="211">
+      <c r="K20" s="172">
         <v>0.5</v>
       </c>
-      <c r="L20" s="211">
+      <c r="L20" s="172">
         <v>0.5</v>
       </c>
-      <c r="M20" s="220">
+      <c r="M20" s="184">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15429,11 +15420,11 @@
       <c r="F21" s="80">
         <v>21000</v>
       </c>
-      <c r="G21" s="211"/>
-      <c r="H21" s="211">
-        <v>1</v>
-      </c>
-      <c r="I21" s="211">
+      <c r="G21" s="172"/>
+      <c r="H21" s="172">
+        <v>1</v>
+      </c>
+      <c r="I21" s="172">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -15441,13 +15432,13 @@
         <f t="shared" si="2"/>
         <v>36750</v>
       </c>
-      <c r="K21" s="211">
+      <c r="K21" s="172">
         <v>0.5</v>
       </c>
-      <c r="L21" s="211">
+      <c r="L21" s="172">
         <v>0.5</v>
       </c>
-      <c r="M21" s="220">
+      <c r="M21" s="184">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15477,11 +15468,11 @@
       <c r="F22" s="80">
         <v>21000</v>
       </c>
-      <c r="G22" s="211"/>
-      <c r="H22" s="211">
-        <v>1</v>
-      </c>
-      <c r="I22" s="211">
+      <c r="G22" s="172"/>
+      <c r="H22" s="172">
+        <v>1</v>
+      </c>
+      <c r="I22" s="172">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -15489,13 +15480,13 @@
         <f t="shared" si="2"/>
         <v>36750</v>
       </c>
-      <c r="K22" s="211">
-        <v>0</v>
-      </c>
-      <c r="L22" s="211">
-        <v>1</v>
-      </c>
-      <c r="M22" s="220">
+      <c r="K22" s="172">
+        <v>0</v>
+      </c>
+      <c r="L22" s="172">
+        <v>1</v>
+      </c>
+      <c r="M22" s="184">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15540,38 +15531,38 @@
       <c r="T23" s="141"/>
     </row>
     <row r="24" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="204"/>
-      <c r="B24" s="204"/>
-      <c r="C24" s="204"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="204"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="205"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="205"/>
-      <c r="K24" s="205"/>
-      <c r="L24" s="205"/>
-      <c r="M24" s="205"/>
-      <c r="N24" s="205"/>
-      <c r="O24" s="205"/>
+      <c r="A24" s="222"/>
+      <c r="B24" s="222"/>
+      <c r="C24" s="222"/>
+      <c r="D24" s="222"/>
+      <c r="E24" s="222"/>
+      <c r="F24" s="223"/>
+      <c r="G24" s="223"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="223"/>
+      <c r="L24" s="223"/>
+      <c r="M24" s="223"/>
+      <c r="N24" s="223"/>
+      <c r="O24" s="223"/>
     </row>
     <row r="25" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="197"/>
-      <c r="B25" s="197"/>
-      <c r="C25" s="197"/>
-      <c r="D25" s="197"/>
-      <c r="E25" s="197"/>
-      <c r="F25" s="198"/>
-      <c r="G25" s="198"/>
-      <c r="H25" s="198"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="198"/>
-      <c r="K25" s="198"/>
-      <c r="L25" s="198"/>
-      <c r="M25" s="198"/>
-      <c r="N25" s="198"/>
-      <c r="O25" s="198"/>
+      <c r="A25" s="215"/>
+      <c r="B25" s="215"/>
+      <c r="C25" s="215"/>
+      <c r="D25" s="215"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="216"/>
+      <c r="H25" s="216"/>
+      <c r="I25" s="216"/>
+      <c r="J25" s="216"/>
+      <c r="K25" s="216"/>
+      <c r="L25" s="216"/>
+      <c r="M25" s="216"/>
+      <c r="N25" s="216"/>
+      <c r="O25" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -15606,24 +15597,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="224" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
     </row>
     <row r="2" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="225" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="207" t="s">
+      <c r="C2" s="226"/>
+      <c r="D2" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="208"/>
+      <c r="E2" s="226"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
@@ -15889,24 +15880,24 @@
       <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A22" s="206" t="s">
+      <c r="A22" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="206"/>
-      <c r="C22" s="206"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
+      <c r="B22" s="224"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="224"/>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
-      <c r="B23" s="207" t="s">
+      <c r="B23" s="225" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="208"/>
-      <c r="D23" s="207" t="s">
+      <c r="C23" s="226"/>
+      <c r="D23" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="208"/>
+      <c r="E23" s="226"/>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
@@ -16122,24 +16113,24 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A37" s="206" t="s">
+      <c r="A37" s="224" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="206"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="206"/>
-      <c r="E37" s="206"/>
+      <c r="B37" s="224"/>
+      <c r="C37" s="224"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="224"/>
     </row>
     <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
-      <c r="B38" s="206" t="s">
+      <c r="B38" s="224" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="206"/>
-      <c r="D38" s="206" t="s">
+      <c r="C38" s="224"/>
+      <c r="D38" s="224" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="206"/>
+      <c r="E38" s="224"/>
     </row>
     <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
